--- a/pybangla/report/eval_data_3.0.0.xlsx
+++ b/pybangla/report/eval_data_3.0.0.xlsx
@@ -576,7 +576,7 @@
         <v>66</v>
       </c>
       <c r="N2" t="n">
-        <v>35.69</v>
+        <v>35.62</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -627,7 +627,7 @@
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>58</v>
       </c>
       <c r="N4" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
@@ -733,7 +733,7 @@
         <v>43</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>3.22</v>
+        <v>2.86</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>2.74</v>
+        <v>3.13</v>
       </c>
       <c r="O10" t="inlineStr"/>
     </row>
@@ -1055,7 +1055,7 @@
         <v>38</v>
       </c>
       <c r="N11" t="n">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>3.93</v>
+        <v>3.72</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>2.84</v>
+        <v>2.43</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
@@ -1271,7 +1271,7 @@
         <v>44</v>
       </c>
       <c r="N15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O16" t="inlineStr"/>
     </row>
@@ -1377,7 +1377,7 @@
         <v>27</v>
       </c>
       <c r="N17" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="N18" t="n">
-        <v>2.39</v>
+        <v>2.23</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="O20" t="inlineStr"/>
     </row>
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="N21" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="O21" t="inlineStr"/>
     </row>
@@ -1644,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="N22" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="O22" t="inlineStr"/>
     </row>
@@ -1695,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="N23" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="O23" t="inlineStr"/>
     </row>
@@ -1746,7 +1746,7 @@
         <v>29</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="N25" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="N26" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>23</v>
       </c>
       <c r="N27" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="O28" t="inlineStr"/>
     </row>
@@ -2013,7 +2013,7 @@
         <v>27</v>
       </c>
       <c r="N29" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="O30" t="inlineStr"/>
     </row>
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="N31" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>27</v>
       </c>
       <c r="N32" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="N33" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="O33" t="inlineStr"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>24</v>
       </c>
       <c r="N34" t="n">
-        <v>1.57</v>
+        <v>1.97</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="N35" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="N36" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="O36" t="inlineStr"/>
     </row>
@@ -2441,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="N37" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="O37" t="inlineStr"/>
     </row>
@@ -2492,7 +2492,7 @@
         <v>22</v>
       </c>
       <c r="N38" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="O38" t="inlineStr"/>
     </row>
@@ -2543,7 +2543,7 @@
         <v>23</v>
       </c>
       <c r="N39" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>16</v>
       </c>
       <c r="N40" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="O40" t="inlineStr"/>
     </row>
@@ -2649,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>2.99</v>
+        <v>2.58</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="N42" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="O43" t="inlineStr"/>
     </row>
@@ -2810,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.5</v>
+        <v>3.36</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>9</v>
       </c>
       <c r="N46" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>33</v>
       </c>
       <c r="N47" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="O48" t="inlineStr"/>
     </row>
@@ -3081,7 +3081,7 @@
         <v>6</v>
       </c>
       <c r="N49" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="N50" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="N51" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="N53" t="n">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="O53" t="inlineStr"/>
     </row>
@@ -3352,7 +3352,7 @@
         <v>29</v>
       </c>
       <c r="N54" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>29</v>
       </c>
       <c r="N55" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>29</v>
       </c>
       <c r="N56" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="O56" t="inlineStr"/>
     </row>
@@ -3513,7 +3513,7 @@
         <v>29</v>
       </c>
       <c r="N57" t="n">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="O57" t="inlineStr"/>
     </row>
@@ -3564,7 +3564,7 @@
         <v>13</v>
       </c>
       <c r="N58" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="N59" t="n">
-        <v>1.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O59" t="inlineStr"/>
     </row>
@@ -3670,7 +3670,7 @@
         <v>19</v>
       </c>
       <c r="N60" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="N61" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O61" t="inlineStr"/>
     </row>
@@ -3831,7 +3831,7 @@
         <v>21</v>
       </c>
       <c r="N63" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>24</v>
       </c>
       <c r="N64" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="N65" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>35</v>
       </c>
       <c r="N66" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O66" t="inlineStr"/>
     </row>
@@ -4047,7 +4047,7 @@
         <v>28</v>
       </c>
       <c r="N67" t="n">
-        <v>1.71</v>
+        <v>2.46</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="N68" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="N70" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>24</v>
       </c>
       <c r="N72" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="N73" t="n">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>14</v>
       </c>
       <c r="N74" t="n">
-        <v>1.83</v>
+        <v>1.1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>15</v>
       </c>
       <c r="N75" t="n">
-        <v>1.72</v>
+        <v>0.96</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>1.77</v>
+        <v>1</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>26</v>
       </c>
       <c r="N77" t="n">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="N78" t="n">
-        <v>2.01</v>
+        <v>1.06</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="N79" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>15</v>
       </c>
       <c r="N80" t="n">
-        <v>1.76</v>
+        <v>0.92</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="N81" t="n">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="N82" t="n">
-        <v>1.82</v>
+        <v>1.25</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="N83" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>9</v>
       </c>
       <c r="N84" t="n">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="N85" t="n">
-        <v>1.95</v>
+        <v>1.1</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="N86" t="n">
-        <v>1.41</v>
+        <v>0.82</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>17</v>
       </c>
       <c r="N88" t="n">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>27</v>
       </c>
       <c r="N89" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="N90" t="n">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>14</v>
       </c>
       <c r="N91" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>10</v>
       </c>
       <c r="N93" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>20</v>
       </c>
       <c r="N94" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>11</v>
       </c>
       <c r="N95" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>11</v>
       </c>
       <c r="N96" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>11</v>
       </c>
       <c r="N97" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>23</v>
       </c>
       <c r="N98" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>17</v>
       </c>
       <c r="N99" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>25</v>
       </c>
       <c r="N100" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>26</v>
       </c>
       <c r="N101" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="N102" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O102" t="inlineStr"/>
     </row>
@@ -6023,7 +6023,7 @@
         <v>18</v>
       </c>
       <c r="N103" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>16</v>
       </c>
       <c r="N104" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>9</v>
       </c>
       <c r="N105" t="n">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="O105" t="inlineStr"/>
     </row>
@@ -6184,7 +6184,7 @@
         <v>11</v>
       </c>
       <c r="N106" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>24</v>
       </c>
       <c r="N107" t="n">
-        <v>2.74</v>
+        <v>2.89</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>19</v>
       </c>
       <c r="N108" t="n">
-        <v>2.77</v>
+        <v>2.34</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>26</v>
       </c>
       <c r="N109" t="n">
-        <v>2.77</v>
+        <v>3.04</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>22</v>
       </c>
       <c r="N110" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>19</v>
       </c>
       <c r="N111" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>17</v>
       </c>
       <c r="N112" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>16</v>
       </c>
       <c r="N113" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>16</v>
       </c>
       <c r="N114" t="n">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>17</v>
       </c>
       <c r="N115" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>18</v>
       </c>
       <c r="N116" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>21</v>
       </c>
       <c r="N117" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>17</v>
       </c>
       <c r="N118" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="N119" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>17</v>
       </c>
       <c r="N120" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>21</v>
       </c>
       <c r="N121" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>12</v>
       </c>
       <c r="N122" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>17</v>
       </c>
       <c r="N123" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>19</v>
       </c>
       <c r="N124" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>17</v>
       </c>
       <c r="N125" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>21</v>
       </c>
       <c r="N126" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="N127" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>18</v>
       </c>
       <c r="N128" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>17</v>
       </c>
       <c r="N129" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="N130" t="n">
-        <v>1.7</v>
+        <v>2.01</v>
       </c>
       <c r="O130" t="inlineStr"/>
     </row>
@@ -7555,7 +7555,7 @@
         <v>17</v>
       </c>
       <c r="N131" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>29</v>
       </c>
       <c r="N132" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>17</v>
       </c>
       <c r="N133" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>20</v>
       </c>
       <c r="N134" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>18</v>
       </c>
       <c r="N135" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>19</v>
       </c>
       <c r="N136" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>19</v>
       </c>
       <c r="N137" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>18</v>
       </c>
       <c r="N139" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>11</v>
       </c>
       <c r="N140" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>28</v>
       </c>
       <c r="N141" t="n">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>22</v>
       </c>
       <c r="N142" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>13</v>
       </c>
       <c r="N143" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>21</v>
       </c>
       <c r="N144" t="n">
-        <v>3.08</v>
+        <v>2.74</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>15</v>
       </c>
       <c r="N145" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>15</v>
       </c>
       <c r="N147" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>21</v>
       </c>
       <c r="N148" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>21</v>
       </c>
       <c r="N150" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>6</v>
       </c>
       <c r="N151" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>8</v>
       </c>
       <c r="N152" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>18</v>
       </c>
       <c r="N153" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>16</v>
       </c>
       <c r="N154" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>18</v>
       </c>
       <c r="N155" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>25</v>
       </c>
       <c r="N156" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>22</v>
       </c>
       <c r="N157" t="n">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>23</v>
       </c>
       <c r="N160" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>17</v>
       </c>
       <c r="N161" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>23</v>
       </c>
       <c r="N162" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>16</v>
       </c>
       <c r="N163" t="n">
-        <v>3.45</v>
+        <v>2.57</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>24</v>
       </c>
       <c r="N164" t="n">
-        <v>2.75</v>
+        <v>3.09</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>22</v>
       </c>
       <c r="N165" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>36</v>
       </c>
       <c r="N166" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>18</v>
       </c>
       <c r="N167" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="N168" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>31</v>
       </c>
       <c r="N169" t="n">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>22</v>
       </c>
       <c r="N170" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>22</v>
       </c>
       <c r="N171" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>25</v>
       </c>
       <c r="N172" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>28</v>
       </c>
       <c r="N173" t="n">
-        <v>3.38</v>
+        <v>2.59</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>3.03</v>
+        <v>2.58</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>12</v>
       </c>
       <c r="N176" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>14</v>
       </c>
       <c r="N177" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>19</v>
       </c>
       <c r="N178" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>12</v>
       </c>
       <c r="N179" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>32</v>
       </c>
       <c r="N180" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="N181" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>11</v>
       </c>
       <c r="N182" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>39</v>
       </c>
       <c r="N183" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>26</v>
       </c>
       <c r="N184" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>33</v>
       </c>
       <c r="N185" t="n">
-        <v>4</v>
+        <v>4.22</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>55</v>
       </c>
       <c r="N187" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>14</v>
       </c>
       <c r="N188" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>55</v>
       </c>
       <c r="N189" t="n">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>18</v>
       </c>
       <c r="N190" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>27</v>
       </c>
       <c r="N191" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>32</v>
       </c>
       <c r="N192" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>11</v>
       </c>
       <c r="N193" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>10</v>
       </c>
       <c r="N194" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>5</v>
       </c>
       <c r="N195" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>5</v>
       </c>
       <c r="N196" t="n">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>6</v>
       </c>
       <c r="N198" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>8</v>
       </c>
       <c r="N199" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>21</v>
       </c>
       <c r="N200" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>26</v>
       </c>
       <c r="N201" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>59</v>
       </c>
       <c r="N203" t="n">
-        <v>4.52</v>
+        <v>4.24</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>32</v>
       </c>
       <c r="N204" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>5</v>
       </c>
       <c r="N205" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>21</v>
       </c>
       <c r="N207" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>6</v>
       </c>
       <c r="N208" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>6</v>
       </c>
       <c r="N209" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>7</v>
       </c>
       <c r="N210" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>16</v>
       </c>
       <c r="N211" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>25</v>
       </c>
       <c r="N212" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>9</v>
       </c>
       <c r="N213" t="n">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>10</v>
       </c>
       <c r="N214" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O214" t="inlineStr"/>
     </row>
@@ -12171,7 +12171,7 @@
         <v>10</v>
       </c>
       <c r="N215" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>9</v>
       </c>
       <c r="N216" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>10</v>
       </c>
       <c r="N217" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>9</v>
       </c>
       <c r="N218" t="n">
-        <v>1.21</v>
+        <v>2.95</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>18</v>
       </c>
       <c r="N219" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>153</v>
       </c>
       <c r="N220" t="n">
-        <v>8.109999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>11</v>
       </c>
       <c r="N221" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>10</v>
       </c>
       <c r="N222" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>11</v>
       </c>
       <c r="N223" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>13</v>
       </c>
       <c r="N224" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>11</v>
       </c>
       <c r="N225" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>15</v>
       </c>
       <c r="N226" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>14</v>
       </c>
       <c r="N227" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>14</v>
       </c>
       <c r="N228" t="n">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>30</v>
       </c>
       <c r="N229" t="n">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>18</v>
       </c>
       <c r="N231" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>16</v>
       </c>
       <c r="N232" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>19</v>
       </c>
       <c r="N233" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>17</v>
       </c>
       <c r="N234" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>25</v>
       </c>
       <c r="N235" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>17</v>
       </c>
       <c r="N236" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>30</v>
       </c>
       <c r="N237" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>31</v>
       </c>
       <c r="N238" t="n">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45</v>
       </c>
       <c r="N239" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>110</v>
       </c>
       <c r="N240" t="n">
-        <v>7.22</v>
+        <v>7.09</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>8</v>
       </c>
       <c r="N241" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>9</v>
       </c>
       <c r="N242" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>9</v>
       </c>
       <c r="N243" t="n">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>11</v>
       </c>
       <c r="N244" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>13</v>
       </c>
       <c r="N245" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>12</v>
       </c>
       <c r="N246" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>10</v>
       </c>
       <c r="N247" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>11</v>
       </c>
       <c r="N248" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>10</v>
       </c>
       <c r="N249" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>12</v>
       </c>
       <c r="N250" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>12</v>
       </c>
       <c r="N251" t="n">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>11</v>
       </c>
       <c r="N252" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>10</v>
       </c>
       <c r="N253" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>10</v>
       </c>
       <c r="N255" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>11</v>
       </c>
       <c r="N256" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>10</v>
       </c>
       <c r="N257" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>9</v>
       </c>
       <c r="N258" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>5</v>
       </c>
       <c r="N259" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O259" t="inlineStr"/>
     </row>
@@ -14642,7 +14642,7 @@
         <v>6</v>
       </c>
       <c r="N260" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="O260" t="inlineStr"/>
     </row>
@@ -14693,7 +14693,7 @@
         <v>14</v>
       </c>
       <c r="N261" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O261" t="inlineStr"/>
     </row>
@@ -14744,7 +14744,7 @@
         <v>9</v>
       </c>
       <c r="N262" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>19</v>
       </c>
       <c r="N263" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O263" t="inlineStr"/>
     </row>
@@ -14850,7 +14850,7 @@
         <v>6</v>
       </c>
       <c r="N264" t="n">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="O264" t="inlineStr"/>
     </row>
@@ -14901,7 +14901,7 @@
         <v>18</v>
       </c>
       <c r="N265" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="O265" t="inlineStr"/>
     </row>
@@ -14952,7 +14952,7 @@
         <v>10</v>
       </c>
       <c r="N266" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="O266" t="inlineStr"/>
     </row>
@@ -15003,7 +15003,7 @@
         <v>31</v>
       </c>
       <c r="N267" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="O267" t="inlineStr"/>
     </row>
@@ -15054,7 +15054,7 @@
         <v>10</v>
       </c>
       <c r="N268" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>17</v>
       </c>
       <c r="N269" t="n">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>46</v>
       </c>
       <c r="N270" t="n">
-        <v>2.77</v>
+        <v>2.99</v>
       </c>
       <c r="O270" t="inlineStr"/>
     </row>
@@ -15215,7 +15215,7 @@
         <v>43</v>
       </c>
       <c r="N271" t="n">
-        <v>2.91</v>
+        <v>2.63</v>
       </c>
       <c r="O271" t="inlineStr"/>
     </row>
@@ -15266,7 +15266,7 @@
         <v>6</v>
       </c>
       <c r="N272" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="O272" t="inlineStr"/>
     </row>
@@ -15317,7 +15317,7 @@
         <v>5</v>
       </c>
       <c r="N273" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>2</v>
       </c>
       <c r="N274" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>4</v>
       </c>
       <c r="N276" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="O276" t="inlineStr"/>
     </row>
@@ -15533,7 +15533,7 @@
         <v>13</v>
       </c>
       <c r="N277" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="O277" t="inlineStr"/>
     </row>
@@ -15584,7 +15584,7 @@
         <v>13</v>
       </c>
       <c r="N278" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="O278" t="inlineStr"/>
     </row>
@@ -15635,7 +15635,7 @@
         <v>14</v>
       </c>
       <c r="N279" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="O279" t="inlineStr"/>
     </row>
@@ -15686,7 +15686,7 @@
         <v>13</v>
       </c>
       <c r="N280" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="O280" t="inlineStr"/>
     </row>
@@ -15737,7 +15737,7 @@
         <v>14</v>
       </c>
       <c r="N281" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="O281" t="inlineStr"/>
     </row>
@@ -15788,7 +15788,7 @@
         <v>13</v>
       </c>
       <c r="N282" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="O282" t="inlineStr"/>
     </row>
@@ -15839,7 +15839,7 @@
         <v>13</v>
       </c>
       <c r="N283" t="n">
-        <v>1.96</v>
+        <v>1.19</v>
       </c>
       <c r="O283" t="inlineStr"/>
     </row>
@@ -15890,7 +15890,7 @@
         <v>13</v>
       </c>
       <c r="N284" t="n">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="O284" t="inlineStr"/>
     </row>
@@ -15941,7 +15941,7 @@
         <v>13</v>
       </c>
       <c r="N285" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="O285" t="inlineStr"/>
     </row>
@@ -15992,7 +15992,7 @@
         <v>13</v>
       </c>
       <c r="N286" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="O286" t="inlineStr"/>
     </row>
@@ -16043,7 +16043,7 @@
         <v>13</v>
       </c>
       <c r="N287" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="O287" t="inlineStr"/>
     </row>
@@ -16094,7 +16094,7 @@
         <v>14</v>
       </c>
       <c r="N288" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="O288" t="inlineStr"/>
     </row>
@@ -16145,7 +16145,7 @@
         <v>14</v>
       </c>
       <c r="N289" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O289" t="inlineStr"/>
     </row>
@@ -16196,7 +16196,7 @@
         <v>14</v>
       </c>
       <c r="N290" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="O290" t="inlineStr"/>
     </row>
@@ -16247,7 +16247,7 @@
         <v>35</v>
       </c>
       <c r="N291" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>4</v>
       </c>
       <c r="N292" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="O292" t="inlineStr"/>
     </row>
@@ -16353,7 +16353,7 @@
         <v>3</v>
       </c>
       <c r="N293" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="O293" t="inlineStr"/>
     </row>
@@ -16404,7 +16404,7 @@
         <v>15</v>
       </c>
       <c r="N294" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="O294" t="inlineStr"/>
     </row>
@@ -16455,7 +16455,7 @@
         <v>15</v>
       </c>
       <c r="N295" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="O295" t="inlineStr"/>
     </row>
@@ -16506,7 +16506,7 @@
         <v>12</v>
       </c>
       <c r="N296" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>5</v>
       </c>
       <c r="N297" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="O297" t="inlineStr"/>
     </row>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="N298" t="n">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="O298" t="inlineStr"/>
     </row>
@@ -16663,7 +16663,7 @@
         <v>5</v>
       </c>
       <c r="N299" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O299" t="inlineStr"/>
     </row>
@@ -16714,7 +16714,7 @@
         <v>8</v>
       </c>
       <c r="N300" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O300" t="inlineStr"/>
     </row>
@@ -16816,7 +16816,7 @@
         <v>4</v>
       </c>
       <c r="N302" t="n">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="O302" t="inlineStr"/>
     </row>
@@ -16867,7 +16867,7 @@
         <v>5</v>
       </c>
       <c r="N303" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="O303" t="inlineStr"/>
     </row>
@@ -16918,7 +16918,7 @@
         <v>6</v>
       </c>
       <c r="N304" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="O304" t="inlineStr"/>
     </row>
@@ -16969,7 +16969,7 @@
         <v>8</v>
       </c>
       <c r="N305" t="n">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="O305" t="inlineStr"/>
     </row>
@@ -17020,7 +17020,7 @@
         <v>4</v>
       </c>
       <c r="N306" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="O306" t="inlineStr"/>
     </row>
@@ -17071,7 +17071,7 @@
         <v>5</v>
       </c>
       <c r="N307" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="O307" t="inlineStr"/>
     </row>
@@ -17122,7 +17122,7 @@
         <v>8</v>
       </c>
       <c r="N308" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="O308" t="inlineStr"/>
     </row>
@@ -17173,7 +17173,7 @@
         <v>6</v>
       </c>
       <c r="N309" t="n">
-        <v>0.77</v>
+        <v>1.09</v>
       </c>
       <c r="O309" t="inlineStr"/>
     </row>
@@ -17224,7 +17224,7 @@
         <v>6</v>
       </c>
       <c r="N310" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="O310" t="inlineStr"/>
     </row>
@@ -17275,7 +17275,7 @@
         <v>6</v>
       </c>
       <c r="N311" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="O311" t="inlineStr"/>
     </row>
@@ -17326,7 +17326,7 @@
         <v>5</v>
       </c>
       <c r="N312" t="n">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="O312" t="inlineStr"/>
     </row>
@@ -17377,7 +17377,7 @@
         <v>5</v>
       </c>
       <c r="N313" t="n">
-        <v>0.89</v>
+        <v>0.64</v>
       </c>
       <c r="O313" t="inlineStr"/>
     </row>
@@ -17428,7 +17428,7 @@
         <v>6</v>
       </c>
       <c r="N314" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="O314" t="inlineStr"/>
     </row>
@@ -17479,7 +17479,7 @@
         <v>6</v>
       </c>
       <c r="N315" t="n">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O315" t="inlineStr"/>
     </row>
@@ -17530,7 +17530,7 @@
         <v>6</v>
       </c>
       <c r="N316" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="O316" t="inlineStr"/>
     </row>
@@ -17581,7 +17581,7 @@
         <v>7</v>
       </c>
       <c r="N317" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="O317" t="inlineStr"/>
     </row>
@@ -17632,7 +17632,7 @@
         <v>7</v>
       </c>
       <c r="N318" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="O318" t="inlineStr"/>
     </row>
@@ -17683,7 +17683,7 @@
         <v>7</v>
       </c>
       <c r="N319" t="n">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="O319" t="inlineStr"/>
     </row>
@@ -17734,7 +17734,7 @@
         <v>6</v>
       </c>
       <c r="N320" t="n">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="O320" t="inlineStr"/>
     </row>
@@ -17785,7 +17785,7 @@
         <v>6</v>
       </c>
       <c r="N321" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="O321" t="inlineStr"/>
     </row>
@@ -17836,7 +17836,7 @@
         <v>4</v>
       </c>
       <c r="N322" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>4</v>
       </c>
       <c r="N323" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>5</v>
       </c>
       <c r="N324" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>6</v>
       </c>
       <c r="N325" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>3</v>
       </c>
       <c r="N326" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="O326" t="inlineStr"/>
     </row>
@@ -18107,7 +18107,7 @@
         <v>5</v>
       </c>
       <c r="N327" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O327" t="inlineStr"/>
     </row>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="O328" t="inlineStr"/>
     </row>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="N329" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="O329" t="inlineStr"/>
     </row>
@@ -18311,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="N331" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="O331" t="inlineStr"/>
     </row>
@@ -18362,7 +18362,7 @@
         <v>31</v>
       </c>
       <c r="N332" t="n">
-        <v>2.95</v>
+        <v>2.71</v>
       </c>
       <c r="O332" t="inlineStr"/>
     </row>
@@ -18413,7 +18413,7 @@
         <v>10</v>
       </c>
       <c r="N333" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="O333" t="inlineStr"/>
     </row>
@@ -18464,7 +18464,7 @@
         <v>10</v>
       </c>
       <c r="N334" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="O334" t="inlineStr"/>
     </row>
@@ -18515,7 +18515,7 @@
         <v>12</v>
       </c>
       <c r="N335" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O335" t="inlineStr"/>
     </row>
@@ -18566,7 +18566,7 @@
         <v>10</v>
       </c>
       <c r="N336" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="O336" t="inlineStr"/>
     </row>
@@ -18668,7 +18668,7 @@
         <v>9</v>
       </c>
       <c r="N338" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="O338" t="inlineStr"/>
     </row>
@@ -18719,7 +18719,7 @@
         <v>10</v>
       </c>
       <c r="N339" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="O339" t="inlineStr"/>
     </row>
@@ -18770,7 +18770,7 @@
         <v>10</v>
       </c>
       <c r="N340" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="O340" t="inlineStr"/>
     </row>
@@ -18821,7 +18821,7 @@
         <v>10</v>
       </c>
       <c r="N341" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="O341" t="inlineStr"/>
     </row>
@@ -18872,7 +18872,7 @@
         <v>10</v>
       </c>
       <c r="N342" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="O342" t="inlineStr"/>
     </row>
@@ -18923,7 +18923,7 @@
         <v>11</v>
       </c>
       <c r="N343" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="O343" t="inlineStr"/>
     </row>
@@ -18974,7 +18974,7 @@
         <v>36</v>
       </c>
       <c r="N344" t="n">
-        <v>2.34</v>
+        <v>2.41</v>
       </c>
       <c r="O344" t="inlineStr"/>
     </row>
@@ -19025,7 +19025,7 @@
         <v>7</v>
       </c>
       <c r="N345" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="O345" t="inlineStr"/>
     </row>
@@ -19076,7 +19076,7 @@
         <v>10</v>
       </c>
       <c r="N346" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>6</v>
       </c>
       <c r="N347" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O347" t="inlineStr"/>
     </row>
@@ -19182,7 +19182,7 @@
         <v>12</v>
       </c>
       <c r="N348" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="O348" t="inlineStr"/>
     </row>
@@ -19197,12 +19197,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ফিফটিন পয়েন্ট টু ডলার এক্সাম ফী লাগবে।</t>
+          <t>ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু ডলার এক্সাম ফী লাগবে।</t>
+          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="E349" t="b">
@@ -19218,22 +19218,22 @@
         <v>24</v>
       </c>
       <c r="I349" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J349" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K349" t="n">
         <v>5</v>
       </c>
       <c r="L349" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M349" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N349" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>0.2381</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="J2" t="n">
         <v>219</v>
@@ -26157,12 +26157,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ফিফটিন পয়েন্ট টু ডলার এক্সাম ফী লাগবে।</t>
+          <t>ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু ডলার এক্সাম ফী লাগবে।</t>
+          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="E242" t="n">

--- a/pybangla/report/eval_data_3.0.0.xlsx
+++ b/pybangla/report/eval_data_3.0.0.xlsx
@@ -576,7 +576,7 @@
         <v>66</v>
       </c>
       <c r="N2" t="n">
-        <v>35.62</v>
+        <v>35.82</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -627,7 +627,7 @@
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>4.46</v>
+        <v>4.97</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>58</v>
       </c>
       <c r="N4" t="n">
-        <v>4.81</v>
+        <v>6.13</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>3.36</v>
+        <v>2.84</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>3.13</v>
+        <v>2.44</v>
       </c>
       <c r="O10" t="inlineStr"/>
     </row>
@@ -1055,7 +1055,7 @@
         <v>38</v>
       </c>
       <c r="N11" t="n">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
@@ -1271,7 +1271,7 @@
         <v>44</v>
       </c>
       <c r="N15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="O16" t="inlineStr"/>
     </row>
@@ -1377,7 +1377,7 @@
         <v>27</v>
       </c>
       <c r="N17" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="N18" t="n">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>2.19</v>
+        <v>2.34</v>
       </c>
       <c r="O20" t="inlineStr"/>
     </row>
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="N21" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="O21" t="inlineStr"/>
     </row>
@@ -1644,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="N22" t="n">
-        <v>2.24</v>
+        <v>2.61</v>
       </c>
       <c r="O22" t="inlineStr"/>
     </row>
@@ -1695,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="N23" t="n">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="inlineStr"/>
     </row>
@@ -1746,7 +1746,7 @@
         <v>29</v>
       </c>
       <c r="N24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="N25" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
@@ -1907,7 +1907,7 @@
         <v>23</v>
       </c>
       <c r="N27" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="O28" t="inlineStr"/>
     </row>
@@ -2013,7 +2013,7 @@
         <v>27</v>
       </c>
       <c r="N29" t="n">
-        <v>3.23</v>
+        <v>3.37</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="O30" t="inlineStr"/>
     </row>
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="N31" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>27</v>
       </c>
       <c r="N32" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="N33" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="O33" t="inlineStr"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>24</v>
       </c>
       <c r="N34" t="n">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="N35" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="N36" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="O36" t="inlineStr"/>
     </row>
@@ -2441,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="N37" t="n">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="O37" t="inlineStr"/>
     </row>
@@ -2492,7 +2492,7 @@
         <v>22</v>
       </c>
       <c r="N38" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O38" t="inlineStr"/>
     </row>
@@ -2543,7 +2543,7 @@
         <v>23</v>
       </c>
       <c r="N39" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>16</v>
       </c>
       <c r="N40" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="O40" t="inlineStr"/>
     </row>
@@ -2649,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="N42" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="O43" t="inlineStr"/>
     </row>
@@ -2810,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>9</v>
       </c>
       <c r="N46" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>33</v>
       </c>
       <c r="N47" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.03</v>
+        <v>0.83</v>
       </c>
       <c r="O48" t="inlineStr"/>
     </row>
@@ -3081,7 +3081,7 @@
         <v>6</v>
       </c>
       <c r="N49" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="N50" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="N51" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="N53" t="n">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="O53" t="inlineStr"/>
     </row>
@@ -3352,7 +3352,7 @@
         <v>29</v>
       </c>
       <c r="N54" t="n">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>29</v>
       </c>
       <c r="N55" t="n">
-        <v>2.44</v>
+        <v>2.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>29</v>
       </c>
       <c r="N57" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="O57" t="inlineStr"/>
     </row>
@@ -3564,7 +3564,7 @@
         <v>13</v>
       </c>
       <c r="N58" t="n">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>19</v>
       </c>
       <c r="N60" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="O61" t="inlineStr"/>
     </row>
@@ -3776,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="N62" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>21</v>
       </c>
       <c r="N63" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>24</v>
       </c>
       <c r="N64" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="N65" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>35</v>
       </c>
       <c r="N66" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="O66" t="inlineStr"/>
     </row>
@@ -4047,7 +4047,7 @@
         <v>28</v>
       </c>
       <c r="N67" t="n">
-        <v>2.46</v>
+        <v>1.6</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="N68" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>15</v>
       </c>
       <c r="N69" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="N70" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>24</v>
       </c>
       <c r="N72" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="N73" t="n">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>14</v>
       </c>
       <c r="N74" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>15</v>
       </c>
       <c r="N75" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>26</v>
       </c>
       <c r="N77" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="N78" t="n">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="N79" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>15</v>
       </c>
       <c r="N80" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="N81" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="N82" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="N83" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>9</v>
       </c>
       <c r="N84" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="N85" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="N86" t="n">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>17</v>
       </c>
       <c r="N88" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>27</v>
       </c>
       <c r="N89" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="N90" t="n">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>14</v>
       </c>
       <c r="N91" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>20</v>
       </c>
       <c r="N94" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>11</v>
       </c>
       <c r="N95" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>11</v>
       </c>
       <c r="N96" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>11</v>
       </c>
       <c r="N97" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>23</v>
       </c>
       <c r="N98" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>17</v>
       </c>
       <c r="N99" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>25</v>
       </c>
       <c r="N100" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>26</v>
       </c>
       <c r="N101" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="N102" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="O102" t="inlineStr"/>
     </row>
@@ -6023,7 +6023,7 @@
         <v>18</v>
       </c>
       <c r="N103" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>16</v>
       </c>
       <c r="N104" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>9</v>
       </c>
       <c r="N105" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="O105" t="inlineStr"/>
     </row>
@@ -6184,7 +6184,7 @@
         <v>11</v>
       </c>
       <c r="N106" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>24</v>
       </c>
       <c r="N107" t="n">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>19</v>
       </c>
       <c r="N108" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>26</v>
       </c>
       <c r="N109" t="n">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>22</v>
       </c>
       <c r="N110" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>19</v>
       </c>
       <c r="N111" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>17</v>
       </c>
       <c r="N112" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>16</v>
       </c>
       <c r="N113" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>16</v>
       </c>
       <c r="N114" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>17</v>
       </c>
       <c r="N115" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>18</v>
       </c>
       <c r="N116" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>21</v>
       </c>
       <c r="N117" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>17</v>
       </c>
       <c r="N118" t="n">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="N119" t="n">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>17</v>
       </c>
       <c r="N120" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>21</v>
       </c>
       <c r="N121" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>17</v>
       </c>
       <c r="N123" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>19</v>
       </c>
       <c r="N124" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>17</v>
       </c>
       <c r="N125" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>21</v>
       </c>
       <c r="N126" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="N127" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>18</v>
       </c>
       <c r="N128" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>17</v>
       </c>
       <c r="N129" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="N130" t="n">
-        <v>2.01</v>
+        <v>1.69</v>
       </c>
       <c r="O130" t="inlineStr"/>
     </row>
@@ -7555,7 +7555,7 @@
         <v>17</v>
       </c>
       <c r="N131" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>29</v>
       </c>
       <c r="N132" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>17</v>
       </c>
       <c r="N133" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>20</v>
       </c>
       <c r="N134" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>18</v>
       </c>
       <c r="N135" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>19</v>
       </c>
       <c r="N136" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>19</v>
       </c>
       <c r="N137" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>19</v>
       </c>
       <c r="N138" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>18</v>
       </c>
       <c r="N139" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>11</v>
       </c>
       <c r="N140" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>28</v>
       </c>
       <c r="N141" t="n">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>22</v>
       </c>
       <c r="N142" t="n">
-        <v>1.43</v>
+        <v>2.01</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>13</v>
       </c>
       <c r="N143" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>21</v>
       </c>
       <c r="N144" t="n">
-        <v>2.74</v>
+        <v>3.02</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>15</v>
       </c>
       <c r="N145" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>21</v>
       </c>
       <c r="N146" t="n">
-        <v>2.37</v>
+        <v>3.21</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>15</v>
       </c>
       <c r="N147" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>21</v>
       </c>
       <c r="N148" t="n">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>1.37</v>
+        <v>1.95</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>21</v>
       </c>
       <c r="N150" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>6</v>
       </c>
       <c r="N151" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>8</v>
       </c>
       <c r="N152" t="n">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>18</v>
       </c>
       <c r="N153" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>16</v>
       </c>
       <c r="N154" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>18</v>
       </c>
       <c r="N155" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>25</v>
       </c>
       <c r="N156" t="n">
-        <v>1.95</v>
+        <v>2.39</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>22</v>
       </c>
       <c r="N157" t="n">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>14</v>
       </c>
       <c r="N159" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>23</v>
       </c>
       <c r="N160" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>17</v>
       </c>
       <c r="N161" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>23</v>
       </c>
       <c r="N162" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>16</v>
       </c>
       <c r="N163" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>24</v>
       </c>
       <c r="N164" t="n">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>22</v>
       </c>
       <c r="N165" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>36</v>
       </c>
       <c r="N166" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>18</v>
       </c>
       <c r="N167" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="N168" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>31</v>
       </c>
       <c r="N169" t="n">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>22</v>
       </c>
       <c r="N170" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>22</v>
       </c>
       <c r="N171" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>25</v>
       </c>
       <c r="N172" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>28</v>
       </c>
       <c r="N173" t="n">
-        <v>2.59</v>
+        <v>2.04</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>2.58</v>
+        <v>2.91</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>2.53</v>
+        <v>2.79</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>14</v>
       </c>
       <c r="N177" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>19</v>
       </c>
       <c r="N178" t="n">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>12</v>
       </c>
       <c r="N179" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>32</v>
       </c>
       <c r="N180" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="N181" t="n">
-        <v>1.19</v>
+        <v>0.99</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>11</v>
       </c>
       <c r="N182" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>39</v>
       </c>
       <c r="N183" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>26</v>
       </c>
       <c r="N184" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>33</v>
       </c>
       <c r="N185" t="n">
-        <v>4.22</v>
+        <v>4.15</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>21</v>
       </c>
       <c r="N186" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>55</v>
       </c>
       <c r="N187" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>14</v>
       </c>
       <c r="N188" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>55</v>
       </c>
       <c r="N189" t="n">
-        <v>3.44</v>
+        <v>3.54</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>18</v>
       </c>
       <c r="N190" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>27</v>
       </c>
       <c r="N191" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>32</v>
       </c>
       <c r="N192" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>11</v>
       </c>
       <c r="N193" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>10</v>
       </c>
       <c r="N194" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>5</v>
       </c>
       <c r="N195" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>5</v>
       </c>
       <c r="N196" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>6</v>
       </c>
       <c r="N198" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>8</v>
       </c>
       <c r="N199" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>21</v>
       </c>
       <c r="N200" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>26</v>
       </c>
       <c r="N201" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>59</v>
       </c>
       <c r="N203" t="n">
-        <v>4.24</v>
+        <v>4.62</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>32</v>
       </c>
       <c r="N204" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>5</v>
       </c>
       <c r="N205" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>4</v>
       </c>
       <c r="N206" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>21</v>
       </c>
       <c r="N207" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>6</v>
       </c>
       <c r="N208" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>6</v>
       </c>
       <c r="N209" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>7</v>
       </c>
       <c r="N210" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>16</v>
       </c>
       <c r="N211" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>25</v>
       </c>
       <c r="N212" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>9</v>
       </c>
       <c r="N213" t="n">
-        <v>1.27</v>
+        <v>0.77</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>10</v>
       </c>
       <c r="N214" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O214" t="inlineStr"/>
     </row>
@@ -12171,7 +12171,7 @@
         <v>10</v>
       </c>
       <c r="N215" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>9</v>
       </c>
       <c r="N216" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>10</v>
       </c>
       <c r="N217" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>9</v>
       </c>
       <c r="N218" t="n">
-        <v>2.95</v>
+        <v>1.2</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>18</v>
       </c>
       <c r="N219" t="n">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>153</v>
       </c>
       <c r="N220" t="n">
-        <v>8.039999999999999</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>11</v>
       </c>
       <c r="N221" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>10</v>
       </c>
       <c r="N222" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>11</v>
       </c>
       <c r="N223" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>13</v>
       </c>
       <c r="N224" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>11</v>
       </c>
       <c r="N225" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>15</v>
       </c>
       <c r="N226" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>14</v>
       </c>
       <c r="N227" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>14</v>
       </c>
       <c r="N228" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>30</v>
       </c>
       <c r="N229" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>18</v>
       </c>
       <c r="N231" t="n">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>16</v>
       </c>
       <c r="N232" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>19</v>
       </c>
       <c r="N233" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>17</v>
       </c>
       <c r="N234" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>25</v>
       </c>
       <c r="N235" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>17</v>
       </c>
       <c r="N236" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>30</v>
       </c>
       <c r="N237" t="n">
-        <v>2.45</v>
+        <v>2.14</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>31</v>
       </c>
       <c r="N238" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45</v>
       </c>
       <c r="N239" t="n">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>110</v>
       </c>
       <c r="N240" t="n">
-        <v>7.09</v>
+        <v>7.15</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>8</v>
       </c>
       <c r="N241" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>9</v>
       </c>
       <c r="N242" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>9</v>
       </c>
       <c r="N243" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>11</v>
       </c>
       <c r="N244" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>13</v>
       </c>
       <c r="N245" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>12</v>
       </c>
       <c r="N246" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>10</v>
       </c>
       <c r="N247" t="n">
-        <v>1.12</v>
+        <v>0.96</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>11</v>
       </c>
       <c r="N248" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>10</v>
       </c>
       <c r="N249" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>12</v>
       </c>
       <c r="N250" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>12</v>
       </c>
       <c r="N251" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>11</v>
       </c>
       <c r="N252" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>10</v>
       </c>
       <c r="N253" t="n">
-        <v>1.16</v>
+        <v>1.81</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>9</v>
       </c>
       <c r="N254" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>10</v>
       </c>
       <c r="N255" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>11</v>
       </c>
       <c r="N256" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>10</v>
       </c>
       <c r="N257" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>9</v>
       </c>
       <c r="N258" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>5</v>
       </c>
       <c r="N259" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O259" t="inlineStr"/>
     </row>
@@ -14642,7 +14642,7 @@
         <v>6</v>
       </c>
       <c r="N260" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="O260" t="inlineStr"/>
     </row>
@@ -14693,7 +14693,7 @@
         <v>14</v>
       </c>
       <c r="N261" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="O261" t="inlineStr"/>
     </row>
@@ -14744,7 +14744,7 @@
         <v>9</v>
       </c>
       <c r="N262" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>19</v>
       </c>
       <c r="N263" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="O263" t="inlineStr"/>
     </row>
@@ -14850,7 +14850,7 @@
         <v>6</v>
       </c>
       <c r="N264" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="O264" t="inlineStr"/>
     </row>
@@ -14901,7 +14901,7 @@
         <v>18</v>
       </c>
       <c r="N265" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="O265" t="inlineStr"/>
     </row>
@@ -14952,7 +14952,7 @@
         <v>10</v>
       </c>
       <c r="N266" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="O266" t="inlineStr"/>
     </row>
@@ -15003,7 +15003,7 @@
         <v>31</v>
       </c>
       <c r="N267" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="O267" t="inlineStr"/>
     </row>
@@ -15054,7 +15054,7 @@
         <v>10</v>
       </c>
       <c r="N268" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>17</v>
       </c>
       <c r="N269" t="n">
-        <v>2.83</v>
+        <v>3.01</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>46</v>
       </c>
       <c r="N270" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="O270" t="inlineStr"/>
     </row>
@@ -15215,7 +15215,7 @@
         <v>43</v>
       </c>
       <c r="N271" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="O271" t="inlineStr"/>
     </row>
@@ -15266,7 +15266,7 @@
         <v>6</v>
       </c>
       <c r="N272" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O272" t="inlineStr"/>
     </row>
@@ -15317,7 +15317,7 @@
         <v>5</v>
       </c>
       <c r="N273" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>2</v>
       </c>
       <c r="N274" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>2</v>
       </c>
       <c r="N275" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>4</v>
       </c>
       <c r="N276" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="O276" t="inlineStr"/>
     </row>
@@ -15533,7 +15533,7 @@
         <v>13</v>
       </c>
       <c r="N277" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="O277" t="inlineStr"/>
     </row>
@@ -15584,7 +15584,7 @@
         <v>13</v>
       </c>
       <c r="N278" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="O278" t="inlineStr"/>
     </row>
@@ -15635,7 +15635,7 @@
         <v>14</v>
       </c>
       <c r="N279" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="O279" t="inlineStr"/>
     </row>
@@ -15686,7 +15686,7 @@
         <v>13</v>
       </c>
       <c r="N280" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="O280" t="inlineStr"/>
     </row>
@@ -15737,7 +15737,7 @@
         <v>14</v>
       </c>
       <c r="N281" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="O281" t="inlineStr"/>
     </row>
@@ -15788,7 +15788,7 @@
         <v>13</v>
       </c>
       <c r="N282" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="O282" t="inlineStr"/>
     </row>
@@ -15839,7 +15839,7 @@
         <v>13</v>
       </c>
       <c r="N283" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="O283" t="inlineStr"/>
     </row>
@@ -15890,7 +15890,7 @@
         <v>13</v>
       </c>
       <c r="N284" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="O284" t="inlineStr"/>
     </row>
@@ -15941,7 +15941,7 @@
         <v>13</v>
       </c>
       <c r="N285" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="O285" t="inlineStr"/>
     </row>
@@ -15992,7 +15992,7 @@
         <v>13</v>
       </c>
       <c r="N286" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="O286" t="inlineStr"/>
     </row>
@@ -16043,7 +16043,7 @@
         <v>13</v>
       </c>
       <c r="N287" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="O287" t="inlineStr"/>
     </row>
@@ -16094,7 +16094,7 @@
         <v>14</v>
       </c>
       <c r="N288" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="O288" t="inlineStr"/>
     </row>
@@ -16145,7 +16145,7 @@
         <v>14</v>
       </c>
       <c r="N289" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="O289" t="inlineStr"/>
     </row>
@@ -16196,7 +16196,7 @@
         <v>14</v>
       </c>
       <c r="N290" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="O290" t="inlineStr"/>
     </row>
@@ -16247,7 +16247,7 @@
         <v>35</v>
       </c>
       <c r="N291" t="n">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>4</v>
       </c>
       <c r="N292" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="O292" t="inlineStr"/>
     </row>
@@ -16404,7 +16404,7 @@
         <v>15</v>
       </c>
       <c r="N294" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="O294" t="inlineStr"/>
     </row>
@@ -16455,7 +16455,7 @@
         <v>15</v>
       </c>
       <c r="N295" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="O295" t="inlineStr"/>
     </row>
@@ -16506,7 +16506,7 @@
         <v>12</v>
       </c>
       <c r="N296" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>5</v>
       </c>
       <c r="N297" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="O297" t="inlineStr"/>
     </row>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="N298" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="O298" t="inlineStr"/>
     </row>
@@ -16663,7 +16663,7 @@
         <v>5</v>
       </c>
       <c r="N299" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="O299" t="inlineStr"/>
     </row>
@@ -16714,7 +16714,7 @@
         <v>8</v>
       </c>
       <c r="N300" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O300" t="inlineStr"/>
     </row>
@@ -16765,7 +16765,7 @@
         <v>6</v>
       </c>
       <c r="N301" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="O301" t="inlineStr"/>
     </row>
@@ -16816,7 +16816,7 @@
         <v>4</v>
       </c>
       <c r="N302" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="O302" t="inlineStr"/>
     </row>
@@ -16867,7 +16867,7 @@
         <v>5</v>
       </c>
       <c r="N303" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="O303" t="inlineStr"/>
     </row>
@@ -16918,7 +16918,7 @@
         <v>6</v>
       </c>
       <c r="N304" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="O304" t="inlineStr"/>
     </row>
@@ -16969,7 +16969,7 @@
         <v>8</v>
       </c>
       <c r="N305" t="n">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O305" t="inlineStr"/>
     </row>
@@ -17020,7 +17020,7 @@
         <v>4</v>
       </c>
       <c r="N306" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O306" t="inlineStr"/>
     </row>
@@ -17071,7 +17071,7 @@
         <v>5</v>
       </c>
       <c r="N307" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="O307" t="inlineStr"/>
     </row>
@@ -17122,7 +17122,7 @@
         <v>8</v>
       </c>
       <c r="N308" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O308" t="inlineStr"/>
     </row>
@@ -17173,7 +17173,7 @@
         <v>6</v>
       </c>
       <c r="N309" t="n">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="O309" t="inlineStr"/>
     </row>
@@ -17224,7 +17224,7 @@
         <v>6</v>
       </c>
       <c r="N310" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="O310" t="inlineStr"/>
     </row>
@@ -17275,7 +17275,7 @@
         <v>6</v>
       </c>
       <c r="N311" t="n">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="O311" t="inlineStr"/>
     </row>
@@ -17326,7 +17326,7 @@
         <v>5</v>
       </c>
       <c r="N312" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="O312" t="inlineStr"/>
     </row>
@@ -17377,7 +17377,7 @@
         <v>5</v>
       </c>
       <c r="N313" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="O313" t="inlineStr"/>
     </row>
@@ -17428,7 +17428,7 @@
         <v>6</v>
       </c>
       <c r="N314" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="O314" t="inlineStr"/>
     </row>
@@ -17479,7 +17479,7 @@
         <v>6</v>
       </c>
       <c r="N315" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O315" t="inlineStr"/>
     </row>
@@ -17530,7 +17530,7 @@
         <v>6</v>
       </c>
       <c r="N316" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="O316" t="inlineStr"/>
     </row>
@@ -17581,7 +17581,7 @@
         <v>7</v>
       </c>
       <c r="N317" t="n">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="O317" t="inlineStr"/>
     </row>
@@ -17632,7 +17632,7 @@
         <v>7</v>
       </c>
       <c r="N318" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="O318" t="inlineStr"/>
     </row>
@@ -17683,7 +17683,7 @@
         <v>7</v>
       </c>
       <c r="N319" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="O319" t="inlineStr"/>
     </row>
@@ -17734,7 +17734,7 @@
         <v>6</v>
       </c>
       <c r="N320" t="n">
-        <v>0.63</v>
+        <v>1.19</v>
       </c>
       <c r="O320" t="inlineStr"/>
     </row>
@@ -17785,7 +17785,7 @@
         <v>6</v>
       </c>
       <c r="N321" t="n">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="O321" t="inlineStr"/>
     </row>
@@ -17836,7 +17836,7 @@
         <v>4</v>
       </c>
       <c r="N322" t="n">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>4</v>
       </c>
       <c r="N323" t="n">
-        <v>0.74</v>
+        <v>0.58</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>5</v>
       </c>
       <c r="N324" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>6</v>
       </c>
       <c r="N325" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>3</v>
       </c>
       <c r="N326" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="O326" t="inlineStr"/>
     </row>
@@ -18107,7 +18107,7 @@
         <v>5</v>
       </c>
       <c r="N327" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="O327" t="inlineStr"/>
     </row>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>0.37</v>
+        <v>0.64</v>
       </c>
       <c r="O328" t="inlineStr"/>
     </row>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="N329" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="O329" t="inlineStr"/>
     </row>
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="N330" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="O330" t="inlineStr"/>
     </row>
@@ -18311,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="N331" t="n">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="O331" t="inlineStr"/>
     </row>
@@ -18362,7 +18362,7 @@
         <v>31</v>
       </c>
       <c r="N332" t="n">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="O332" t="inlineStr"/>
     </row>
@@ -18413,7 +18413,7 @@
         <v>10</v>
       </c>
       <c r="N333" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="O333" t="inlineStr"/>
     </row>
@@ -18464,7 +18464,7 @@
         <v>10</v>
       </c>
       <c r="N334" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="O334" t="inlineStr"/>
     </row>
@@ -18515,7 +18515,7 @@
         <v>12</v>
       </c>
       <c r="N335" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O335" t="inlineStr"/>
     </row>
@@ -18566,7 +18566,7 @@
         <v>10</v>
       </c>
       <c r="N336" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O336" t="inlineStr"/>
     </row>
@@ -18617,7 +18617,7 @@
         <v>10</v>
       </c>
       <c r="N337" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="O337" t="inlineStr"/>
     </row>
@@ -18719,7 +18719,7 @@
         <v>10</v>
       </c>
       <c r="N339" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="O339" t="inlineStr"/>
     </row>
@@ -18770,7 +18770,7 @@
         <v>10</v>
       </c>
       <c r="N340" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="O340" t="inlineStr"/>
     </row>
@@ -18821,7 +18821,7 @@
         <v>10</v>
       </c>
       <c r="N341" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="O341" t="inlineStr"/>
     </row>
@@ -18872,7 +18872,7 @@
         <v>10</v>
       </c>
       <c r="N342" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="O342" t="inlineStr"/>
     </row>
@@ -18923,7 +18923,7 @@
         <v>11</v>
       </c>
       <c r="N343" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="O343" t="inlineStr"/>
     </row>
@@ -18974,7 +18974,7 @@
         <v>36</v>
       </c>
       <c r="N344" t="n">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="O344" t="inlineStr"/>
     </row>
@@ -19025,7 +19025,7 @@
         <v>7</v>
       </c>
       <c r="N345" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="O345" t="inlineStr"/>
     </row>
@@ -19076,7 +19076,7 @@
         <v>10</v>
       </c>
       <c r="N346" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>6</v>
       </c>
       <c r="N347" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="O347" t="inlineStr"/>
     </row>
@@ -19182,7 +19182,7 @@
         <v>12</v>
       </c>
       <c r="N348" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="O348" t="inlineStr"/>
     </row>
@@ -19233,7 +19233,7 @@
         <v>8</v>
       </c>
       <c r="N349" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>0.2381</v>
       </c>
       <c r="I2" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="J2" t="n">
         <v>219</v>

--- a/pybangla/report/eval_data_3.0.0.xlsx
+++ b/pybangla/report/eval_data_3.0.0.xlsx
@@ -576,7 +576,7 @@
         <v>66</v>
       </c>
       <c r="N2" t="n">
-        <v>35.82</v>
+        <v>18.08</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -627,7 +627,7 @@
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>4.97</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>58</v>
       </c>
       <c r="N4" t="n">
-        <v>6.13</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
@@ -733,7 +733,7 @@
         <v>43</v>
       </c>
       <c r="N5" t="n">
-        <v>2.97</v>
+        <v>1.36</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>2.84</v>
+        <v>1.21</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>2.58</v>
+        <v>1.12</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>2.94</v>
+        <v>1.21</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>2.44</v>
+        <v>1.03</v>
       </c>
       <c r="O10" t="inlineStr"/>
     </row>
@@ -1055,7 +1055,7 @@
         <v>38</v>
       </c>
       <c r="N11" t="n">
-        <v>2.18</v>
+        <v>0.91</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>2.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>3.69</v>
+        <v>1.61</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>2.65</v>
+        <v>1.04</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
@@ -1271,7 +1271,7 @@
         <v>44</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0.86</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>2.28</v>
+        <v>1</v>
       </c>
       <c r="O16" t="inlineStr"/>
     </row>
@@ -1377,7 +1377,7 @@
         <v>27</v>
       </c>
       <c r="N17" t="n">
-        <v>1.81</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="N18" t="n">
-        <v>2.49</v>
+        <v>0.97</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>1.47</v>
+        <v>0.53</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>2.34</v>
+        <v>0.89</v>
       </c>
       <c r="O20" t="inlineStr"/>
     </row>
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="N21" t="n">
-        <v>1.91</v>
+        <v>0.78</v>
       </c>
       <c r="O21" t="inlineStr"/>
     </row>
@@ -1644,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="N22" t="n">
-        <v>2.61</v>
+        <v>0.95</v>
       </c>
       <c r="O22" t="inlineStr"/>
     </row>
@@ -1695,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>1.48</v>
       </c>
       <c r="O23" t="inlineStr"/>
     </row>
@@ -1746,7 +1746,7 @@
         <v>29</v>
       </c>
       <c r="N24" t="n">
-        <v>1.65</v>
+        <v>0.72</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="N25" t="n">
-        <v>2.25</v>
+        <v>0.82</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="N26" t="n">
-        <v>1.91</v>
+        <v>0.65</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>23</v>
       </c>
       <c r="N27" t="n">
-        <v>2.09</v>
+        <v>0.77</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>1.97</v>
+        <v>0.77</v>
       </c>
       <c r="O28" t="inlineStr"/>
     </row>
@@ -2013,7 +2013,7 @@
         <v>27</v>
       </c>
       <c r="N29" t="n">
-        <v>3.37</v>
+        <v>1.45</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.99</v>
+        <v>0.82</v>
       </c>
       <c r="O30" t="inlineStr"/>
     </row>
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="N31" t="n">
-        <v>1.56</v>
+        <v>0.79</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>27</v>
       </c>
       <c r="N32" t="n">
-        <v>1.8</v>
+        <v>0.65</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="N33" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="O33" t="inlineStr"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>24</v>
       </c>
       <c r="N34" t="n">
-        <v>1.64</v>
+        <v>0.73</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="N35" t="n">
-        <v>1.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="N36" t="n">
-        <v>1.67</v>
+        <v>0.75</v>
       </c>
       <c r="O36" t="inlineStr"/>
     </row>
@@ -2441,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="N37" t="n">
-        <v>1.29</v>
+        <v>0.6</v>
       </c>
       <c r="O37" t="inlineStr"/>
     </row>
@@ -2492,7 +2492,7 @@
         <v>22</v>
       </c>
       <c r="N38" t="n">
-        <v>1.27</v>
+        <v>0.52</v>
       </c>
       <c r="O38" t="inlineStr"/>
     </row>
@@ -2543,7 +2543,7 @@
         <v>23</v>
       </c>
       <c r="N39" t="n">
-        <v>1.29</v>
+        <v>0.75</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>16</v>
       </c>
       <c r="N40" t="n">
-        <v>1.11</v>
+        <v>0.46</v>
       </c>
       <c r="O40" t="inlineStr"/>
     </row>
@@ -2649,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>2.63</v>
+        <v>1.15</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2673,17 +2673,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">হ্যাশ "Card number নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু is valid until টুয়েলভ বাই টু ফাইভ " </t>
+          <t xml:space="preserve">হ্যাশ "Card number নাইন এইট সেভেন সিক্স ফাইভ ফোর থ্রি টু is valid until টুয়েলভ বাই টু ফাইভ " </t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0105</v>
+        <v>0.0316</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0526</v>
+        <v>0.1579</v>
       </c>
       <c r="H42" t="n">
         <v>47</v>
@@ -2692,7 +2692,7 @@
         <v>96</v>
       </c>
       <c r="J42" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K42" t="n">
         <v>8</v>
@@ -2704,11 +2704,11 @@
         <v>19</v>
       </c>
       <c r="N42" t="n">
-        <v>1.42</v>
+        <v>0.47</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>delete: '।' → '' at 23-24</t>
+          <t>delete: '।' → '' at 23-24; delete: '।' → '' at 40-41; delete: '।' → '' at 55-56</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O43" t="inlineStr"/>
     </row>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Order No . নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। . " </t>
+          <t xml:space="preserve">"Order No . নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। has been delivered successfully . " </t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3962</v>
+        <v>0.1038</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7895</v>
+        <v>0.5789</v>
       </c>
       <c r="H44" t="n">
         <v>58</v>
@@ -2798,7 +2798,7 @@
         <v>107</v>
       </c>
       <c r="J44" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
         <v>7</v>
@@ -2807,10 +2807,10 @@
         <v>19</v>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N44" t="n">
-        <v>2.76</v>
+        <v>1.11</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>9</v>
       </c>
       <c r="N46" t="n">
-        <v>1.01</v>
+        <v>0.41</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>33</v>
       </c>
       <c r="N47" t="n">
-        <v>1.54</v>
+        <v>0.66</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>0.83</v>
+        <v>0.31</v>
       </c>
       <c r="O48" t="inlineStr"/>
     </row>
@@ -3081,7 +3081,7 @@
         <v>6</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="N50" t="n">
-        <v>1.53</v>
+        <v>0.62</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="N51" t="n">
-        <v>1.51</v>
+        <v>0.67</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>1.69</v>
+        <v>0.78</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="N53" t="n">
-        <v>1.11</v>
+        <v>0.43</v>
       </c>
       <c r="O53" t="inlineStr"/>
     </row>
@@ -3352,7 +3352,7 @@
         <v>29</v>
       </c>
       <c r="N54" t="n">
-        <v>2.14</v>
+        <v>1.11</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>29</v>
       </c>
       <c r="N55" t="n">
-        <v>2.71</v>
+        <v>1</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>29</v>
       </c>
       <c r="N56" t="n">
-        <v>2.29</v>
+        <v>0.96</v>
       </c>
       <c r="O56" t="inlineStr"/>
     </row>
@@ -3513,7 +3513,7 @@
         <v>29</v>
       </c>
       <c r="N57" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="O57" t="inlineStr"/>
     </row>
@@ -3564,7 +3564,7 @@
         <v>13</v>
       </c>
       <c r="N58" t="n">
-        <v>1.02</v>
+        <v>0.33</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="O59" t="inlineStr"/>
     </row>
@@ -3639,14 +3639,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">"ভাউচার নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। ব্যবহার করে বিশ পারসেন্ট ছাড় পাবেন। " </t>
+          <t xml:space="preserve">"ভাউচার নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ ব্যবহার করে বিশ পারসেন্ট ছাড় পাবেন। " </t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1009</v>
+        <v>0.4679</v>
       </c>
       <c r="G60" t="n">
         <v>0.5789</v>
@@ -3658,7 +3658,7 @@
         <v>110</v>
       </c>
       <c r="J60" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K60" t="n">
         <v>8</v>
@@ -3667,14 +3667,14 @@
         <v>19</v>
       </c>
       <c r="M60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N60" t="n">
-        <v>1.28</v>
+        <v>0.6</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 16-17; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 13-22; replace: 'েভেন,' → 'াতাশি' at 24-29; replace: 'স' → 'কোট' at 30-31 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="N61" t="n">
-        <v>0.79</v>
+        <v>0.35</v>
       </c>
       <c r="O61" t="inlineStr"/>
     </row>
@@ -3776,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="N62" t="n">
-        <v>0.84</v>
+        <v>0.31</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3800,17 +3800,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Payment ID ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু confirmed for BDT দশ হাজার . " </t>
+          <t xml:space="preserve">"Payment ID টুয়েলভ থাউজ্যান্ড থ্রি হান্ড্রেড ফোর্টি-ফাইভ ক্রোর সিক্সটি-সেভেন লাখ এইটি-নাইন থাউজ্যান্ড টুয়েলভ confirmed for BDT দশ হাজার . " </t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1897</v>
+        <v>0.6121</v>
       </c>
       <c r="G63" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>52</v>
@@ -3819,7 +3819,7 @@
         <v>117</v>
       </c>
       <c r="J63" t="n">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="K63" t="n">
         <v>7</v>
@@ -3828,14 +3828,14 @@
         <v>20</v>
       </c>
       <c r="M63" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N63" t="n">
-        <v>1.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 21-22; delete: ',' → '' at 27-28 ... and 14 more differences</t>
+          <t>replace: 'ও' → 'টুয়েলভ থাউজ্' at 12-13; delete: '়' → '' at 14-15; replace: ', টু,' → '্ড' at 17-22 ... and 18 more differences</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
         <v>24</v>
       </c>
       <c r="N64" t="n">
-        <v>1.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="N65" t="n">
-        <v>1.13</v>
+        <v>0.45</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>35</v>
       </c>
       <c r="N66" t="n">
-        <v>2.73</v>
+        <v>1.17</v>
       </c>
       <c r="O66" t="inlineStr"/>
     </row>
@@ -4047,7 +4047,7 @@
         <v>28</v>
       </c>
       <c r="N67" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="N68" t="n">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>15</v>
       </c>
       <c r="N69" t="n">
-        <v>1.02</v>
+        <v>0.38</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="N70" t="n">
-        <v>0.93</v>
+        <v>0.38</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>1.19</v>
+        <v>0.47</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>24</v>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>1.56</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="N73" t="n">
-        <v>1.3</v>
+        <v>0.68</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>14</v>
       </c>
       <c r="N74" t="n">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4456,17 +4456,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">শ্লিপ নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>শ্লিপ নম্বর ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1512</v>
+        <v>0.186</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8667</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>25</v>
@@ -4475,7 +4475,7 @@
         <v>86</v>
       </c>
       <c r="J75" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K75" t="n">
         <v>3</v>
@@ -4487,11 +4487,11 @@
         <v>15</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 21-22; delete: ',' → '' at 27-28 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 13-15; delete: ',' → '' at 17-18; delete: ',' → '' at 21-22 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -4511,17 +4511,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">card number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>card number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1512</v>
+        <v>0.186</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8667</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>25</v>
@@ -4530,7 +4530,7 @@
         <v>86</v>
       </c>
       <c r="J76" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K76" t="n">
         <v>3</v>
@@ -4542,11 +4542,11 @@
         <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 21-22; delete: ',' → '' at 27-28 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 13-15; delete: ',' → '' at 17-18; delete: ',' → '' at 21-22 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
         <v>26</v>
       </c>
       <c r="N77" t="n">
-        <v>1.48</v>
+        <v>0.61</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="N78" t="n">
-        <v>0.91</v>
+        <v>0.35</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="N79" t="n">
-        <v>1.06</v>
+        <v>0.47</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4731,17 +4731,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">cilip number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>cilip number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1494</v>
+        <v>0.1839</v>
       </c>
       <c r="G80" t="n">
-        <v>0.8667</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>26</v>
@@ -4750,7 +4750,7 @@
         <v>87</v>
       </c>
       <c r="J80" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K80" t="n">
         <v>3</v>
@@ -4762,11 +4762,11 @@
         <v>15</v>
       </c>
       <c r="N80" t="n">
-        <v>0.9</v>
+        <v>0.41</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 22-23; delete: ',' → '' at 28-29 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 14-16; delete: ',' → '' at 18-19; delete: ',' → '' at 22-23 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="N81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="N82" t="n">
-        <v>1.1</v>
+        <v>0.46</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4896,17 +4896,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">token id number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>token id number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1444</v>
+        <v>0.1778</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="H83" t="n">
         <v>29</v>
@@ -4915,7 +4915,7 @@
         <v>90</v>
       </c>
       <c r="J83" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K83" t="n">
         <v>4</v>
@@ -4927,11 +4927,11 @@
         <v>16</v>
       </c>
       <c r="N83" t="n">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 21-22; delete: ',' → '' at 25-26; delete: ',' → '' at 31-32 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 17-19; delete: ',' → '' at 21-22; delete: ',' → '' at 25-26 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -4951,17 +4951,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">রশিদ নম্বর এইট নাইন জিরো ফোর। থ্রি নাইন জিরো। </t>
+          <t>রশিদ নম্বর এইট নাইন জিরো ফোর থ্রি নাইন জিরো</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1429</v>
+        <v>0.1224</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7778</v>
+        <v>0.6667</v>
       </c>
       <c r="H84" t="n">
         <v>19</v>
@@ -4970,7 +4970,7 @@
         <v>49</v>
       </c>
       <c r="J84" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K84" t="n">
         <v>3</v>
@@ -4982,11 +4982,11 @@
         <v>9</v>
       </c>
       <c r="N84" t="n">
-        <v>0.75</v>
+        <v>0.28</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 14-15; delete: ',' → '' at 20-21; delete: ',' → '' at 26-27 ... and 4 more differences</t>
+          <t>delete: ',' → '' at 14-15; delete: ',' → '' at 20-21; delete: ',' → '' at 26-27 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="N85" t="n">
-        <v>1.12</v>
+        <v>0.51</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5061,17 +5061,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">account number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। </t>
+          <t>account number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1389</v>
+        <v>0.1528</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8333</v>
+        <v>0.75</v>
       </c>
       <c r="H86" t="n">
         <v>25</v>
@@ -5080,7 +5080,7 @@
         <v>72</v>
       </c>
       <c r="J86" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K86" t="n">
         <v>3</v>
@@ -5092,11 +5092,11 @@
         <v>12</v>
       </c>
       <c r="N86" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 20-21; delete: ',' → '' at 24-25; delete: ',' → '' at 30-31 ... and 7 more differences</t>
+          <t>replace: 'য়' → 'য়' at 16-18; delete: ',' → '' at 20-21; delete: ',' → '' at 24-25 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>1.34</v>
+        <v>0.53</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>17</v>
       </c>
       <c r="N88" t="n">
-        <v>1.05</v>
+        <v>0.49</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>27</v>
       </c>
       <c r="N89" t="n">
-        <v>1.5</v>
+        <v>0.68</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5281,14 +5281,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">একাউন্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সিক্স। </t>
+          <t>একাউন্ট নম্বর এক দুই তিন চার পাঁচ ছয় ছয়</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1296</v>
+        <v>0.5556</v>
       </c>
       <c r="G90" t="n">
         <v>0.7778</v>
@@ -5300,7 +5300,7 @@
         <v>54</v>
       </c>
       <c r="J90" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K90" t="n">
         <v>3</v>
@@ -5312,11 +5312,11 @@
         <v>9</v>
       </c>
       <c r="N90" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 4 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 14-17; replace: 'ন,' → 'র' at 18-20; replace: 'টু,' → 'পাঁচ' at 21-24 ... and 2 more differences</t>
         </is>
       </c>
     </row>
@@ -5336,14 +5336,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">ricipt number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সিক্স। সেভেন সেভেন নাইন। এইট নাইন </t>
+          <t>ricipt number ওয়ান টু থ্রি ফোর ফাইভ ডাবল সিক্স ডাবল সেভেন নাইন এইট নাইন</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1294</v>
+        <v>0.2706</v>
       </c>
       <c r="G91" t="n">
         <v>0.7857</v>
@@ -5355,7 +5355,7 @@
         <v>85</v>
       </c>
       <c r="J91" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K91" t="n">
         <v>3</v>
@@ -5367,11 +5367,11 @@
         <v>14</v>
       </c>
       <c r="N91" t="n">
-        <v>0.87</v>
+        <v>0.33</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 15-17; delete: ',' → '' at 19-20; delete: ',' → '' at 23-24 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>1.09</v>
+        <v>0.49</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>10</v>
       </c>
       <c r="N93" t="n">
-        <v>1.84</v>
+        <v>0.76</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5501,17 +5501,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">"দয়া করে Trans No . সিক্স ফাইভ ফোর থ্রি। টু ওয়ান জিরো। নাইন এইট সেভেন। রেফারেন্স হিসাবে ব্যবহার করুন। " </t>
+          <t xml:space="preserve">"দয়া করে Trans No . ছয়শো চুয়ান্ন কোটি বত্রিশ লক্ষ দশ হাজার নয়শো সাতাশি রেফারেন্স হিসাবে ব্যবহার করুন। " </t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1284</v>
+        <v>0.4404</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7222</v>
+        <v>0.6667</v>
       </c>
       <c r="H94" t="n">
         <v>63</v>
@@ -5520,7 +5520,7 @@
         <v>110</v>
       </c>
       <c r="J94" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K94" t="n">
         <v>9</v>
@@ -5529,14 +5529,14 @@
         <v>18</v>
       </c>
       <c r="M94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N94" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>insert: '' → ' . ' at 18-18; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 9 more differences</t>
+          <t>replace: 'স' → ' . ছয়শো চুয়ান্ন কোট' at 18-19; delete: 'ক্স,' → '' at 20-24; replace: 'ফাইভ, ফোর, থ' → 'বত' at 25-37 ... and 9 more differences</t>
         </is>
       </c>
     </row>
@@ -5556,17 +5556,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">টোকেন নম্বর ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>টোকেন নম্বর চার পাঁচ ছয় সাত আট শূন্য তিন চার পাঁচ</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.127</v>
+        <v>0.5714</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.8182</v>
       </c>
       <c r="H95" t="n">
         <v>22</v>
@@ -5575,7 +5575,7 @@
         <v>63</v>
       </c>
       <c r="J95" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K95" t="n">
         <v>3</v>
@@ -5587,11 +5587,11 @@
         <v>11</v>
       </c>
       <c r="N95" t="n">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 6 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 12-14; delete: ',' → '' at 15-16; replace: 'ফ' → 'প' at 17-18 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">bill number ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>bill number ফোর ফাইভ সিক্স সেভেন এইট জিরো থ্রি ফোর ফাইভ</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -5630,7 +5630,7 @@
         <v>63</v>
       </c>
       <c r="J96" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K96" t="n">
         <v>3</v>
@@ -5642,11 +5642,11 @@
         <v>11</v>
       </c>
       <c r="N96" t="n">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 6 more differences</t>
+          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -5666,17 +5666,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">চালান নম্বর ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>চালান নম্বর চার পাঁচ ছয় সাত আট শূন্য তিন চার পাঁচ</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.127</v>
+        <v>0.5714</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.8182</v>
       </c>
       <c r="H97" t="n">
         <v>22</v>
@@ -5685,7 +5685,7 @@
         <v>63</v>
       </c>
       <c r="J97" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K97" t="n">
         <v>3</v>
@@ -5697,11 +5697,11 @@
         <v>11</v>
       </c>
       <c r="N97" t="n">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 6 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 12-14; delete: ',' → '' at 15-16; replace: 'ফ' → 'প' at 17-18 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -5721,14 +5721,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার কার্ড নম্বর ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। সেভেন এইট নাইন। দিয়ে পেমেন্ট করুন। " </t>
+          <t xml:space="preserve">"আপনার কার্ড নম্বর চার পাঁচ ছয় সাত। আট নয় শূন্য। এক দুই তিন। চার পাঁচ ছয়। সাত আট নয়। দিয়ে পেমেন্ট করুন। " </t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1259</v>
+        <v>0.5037</v>
       </c>
       <c r="G98" t="n">
         <v>0.7391</v>
@@ -5740,7 +5740,7 @@
         <v>136</v>
       </c>
       <c r="J98" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K98" t="n">
         <v>10</v>
@@ -5752,11 +5752,11 @@
         <v>23</v>
       </c>
       <c r="N98" t="n">
-        <v>1.44</v>
+        <v>0.67</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 28-29; delete: ',' → '' at 35-36 ... and 14 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 19-21; delete: ',' → '' at 22-23; replace: 'ফ' → 'প' at 24-25 ... and 9 more differences</t>
         </is>
       </c>
     </row>
@@ -5776,17 +5776,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ইনভয়েস নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু বৈধ। " </t>
+          <t xml:space="preserve">"আপনার ইনভয়েস নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই বৈধ। " </t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1237</v>
+        <v>0.5258</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7059</v>
+        <v>0.7647</v>
       </c>
       <c r="H99" t="n">
         <v>40</v>
@@ -5795,7 +5795,7 @@
         <v>98</v>
       </c>
       <c r="J99" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K99" t="n">
         <v>5</v>
@@ -5807,11 +5807,11 @@
         <v>17</v>
       </c>
       <c r="N99" t="n">
-        <v>1.11</v>
+        <v>0.44</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 21-24; replace: 'ন,' → 'র' at 25-27; replace: 'টু,' → 'পাঁচ' at 28-31 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
         <v>25</v>
       </c>
       <c r="N100" t="n">
-        <v>1.77</v>
+        <v>0.73</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>26</v>
       </c>
       <c r="N101" t="n">
-        <v>1.43</v>
+        <v>0.61</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="N102" t="n">
-        <v>1.63</v>
+        <v>0.74</v>
       </c>
       <c r="O102" t="inlineStr"/>
     </row>
@@ -5992,14 +5992,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">"গ্রাহকের A C নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। এ জমা করুন। " </t>
+          <t xml:space="preserve">"গ্রাহকের A C নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ এ জমা করুন। " </t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1222</v>
+        <v>0.5667</v>
       </c>
       <c r="G103" t="n">
         <v>0.6111</v>
@@ -6011,7 +6011,7 @@
         <v>91</v>
       </c>
       <c r="J103" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K103" t="n">
         <v>7</v>
@@ -6020,14 +6020,14 @@
         <v>18</v>
       </c>
       <c r="M103" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N103" t="n">
-        <v>1.3</v>
+        <v>0.54</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 19-28; replace: 'েভেন,' → 'াতাশি' at 30-35; replace: 'স' → 'কোট' at 36-37 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -6047,14 +6047,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আজকের লেনদেন নং: সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। সফল হয়েছে। " </t>
+          <t xml:space="preserve">"আজকের লেনদেন নং: সাতশো ঊননব্বই কোটি এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন সফল হয়েছে। " </t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1222</v>
+        <v>0.5333</v>
       </c>
       <c r="G104" t="n">
         <v>0.6875</v>
@@ -6066,7 +6066,7 @@
         <v>91</v>
       </c>
       <c r="J104" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K104" t="n">
         <v>6</v>
@@ -6075,14 +6075,14 @@
         <v>16</v>
       </c>
       <c r="M104" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N104" t="n">
-        <v>1.18</v>
+        <v>0.47</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াতশো ঊ' at 19-22; replace: ',' → 'নব্বই কোটি' at 23-24; insert: '' → 'ক লক্ষ তে' at 26-26 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
         <v>9</v>
       </c>
       <c r="N105" t="n">
-        <v>1.5</v>
+        <v>0.74</v>
       </c>
       <c r="O105" t="inlineStr"/>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">invoice number ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>invoice number ফোর ফাইভ সিক্স সেভেন এইট জিরো থ্রি ফোর ফাইভ</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6172,7 +6172,7 @@
         <v>66</v>
       </c>
       <c r="J106" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K106" t="n">
         <v>3</v>
@@ -6184,11 +6184,11 @@
         <v>11</v>
       </c>
       <c r="N106" t="n">
-        <v>0.85</v>
+        <v>0.31</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 6 more differences</t>
+          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
         <v>24</v>
       </c>
       <c r="N107" t="n">
-        <v>2.81</v>
+        <v>1.22</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>19</v>
       </c>
       <c r="N108" t="n">
-        <v>2.56</v>
+        <v>1.03</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>26</v>
       </c>
       <c r="N109" t="n">
-        <v>2.7</v>
+        <v>1.15</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -6373,17 +6373,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অনুগ্রহ করে Card নং নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। নাইন এইট সেভেন। সিক্স এর CVV দিন। " </t>
+          <t xml:space="preserve">"অনুগ্রহ করে Card নং আটানব্বই লক্ষ ছিয়াত্তর হাজার পাঁচশো তেতাল্লিশ কোটি একুশ লক্ষ নয় হাজার আটশো ছিয়াত্তর এর CVV দিন। " </t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1186</v>
+        <v>0.6271</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6364</v>
+        <v>0.6818</v>
       </c>
       <c r="H110" t="n">
         <v>49</v>
@@ -6392,7 +6392,7 @@
         <v>119</v>
       </c>
       <c r="J110" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K110" t="n">
         <v>8</v>
@@ -6401,14 +6401,14 @@
         <v>22</v>
       </c>
       <c r="M110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N110" t="n">
-        <v>1.57</v>
+        <v>0.55</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 11 more differences</t>
+          <t>insert: '' → 'আটা' at 21-21; insert: '' → 'ব্বই লক্ষ ছিয়' at 22-22; replace: 'ইন,' → 'ত্তর হাজার পাঁচশো তেতাল্লিশ কোটি' at 23-26 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -6428,14 +6428,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">"পার্সেল ট্র্যাকিং নম্বর সিক্স সেভেন এইট নাইন। জিরো ওয়ান টু। থ্রি ফোর ফাইভ। সিক্স সেভেন এইট। দিয়ে খুঁজুন। " </t>
+          <t xml:space="preserve">"পার্সেল ট্র্যাকিং নম্বর ছয় সাত আট নয় শূন্য এক দুই তিন চার পাঁচ ছয় সাত আট দিয়ে খুঁজুন। " </t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1186</v>
+        <v>0.4746</v>
       </c>
       <c r="G111" t="n">
         <v>0.7368</v>
@@ -6447,7 +6447,7 @@
         <v>119</v>
       </c>
       <c r="J111" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K111" t="n">
         <v>6</v>
@@ -6459,11 +6459,11 @@
         <v>19</v>
       </c>
       <c r="N111" t="n">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 37-38; delete: ',' → '' at 42-43 ... and 11 more differences</t>
+          <t>replace: 'সিক্স,' → 'ছয়' at 25-31; replace: 'েভে' → 'াত আট ' at 33-36; replace: ',' → 'য় শূন্য' at 37-38 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -6483,14 +6483,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">"বিল নং: সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। অনলাইনে পরিশোধ করা যাবে। " </t>
+          <t xml:space="preserve">"বিল নং: সাতশো ঊননব্বই কোটি এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন অনলাইনে পরিশোধ করা যাবে। " </t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.117</v>
+        <v>0.5106000000000001</v>
       </c>
       <c r="G112" t="n">
         <v>0.6471</v>
@@ -6502,7 +6502,7 @@
         <v>95</v>
       </c>
       <c r="J112" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K112" t="n">
         <v>7</v>
@@ -6511,14 +6511,14 @@
         <v>17</v>
       </c>
       <c r="M112" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N112" t="n">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 14-15; delete: ',' → '' at 19-20; delete: ',' → '' at 25-26 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াতশো ঊ' at 10-13; replace: ',' → 'নব্বই কোটি' at 14-15; insert: '' → 'ক লক্ষ তে' at 17-17 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -6538,14 +6538,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার অর্ডার নম্বর এইট নাইন জিরো ওয়ান। টু থ্রি ফোর। ফাইভ সিক্স সেভেন। ট্র্যাক করুন। " </t>
+          <t xml:space="preserve">"আপনার অর্ডার নম্বর আট নয় শূন্য এক দুই তিন চার পাঁচ ছয় সাত ট্র্যাক করুন। " </t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.117</v>
+        <v>0.4468</v>
       </c>
       <c r="G113" t="n">
         <v>0.6875</v>
@@ -6557,7 +6557,7 @@
         <v>95</v>
       </c>
       <c r="J113" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K113" t="n">
         <v>6</v>
@@ -6569,11 +6569,11 @@
         <v>16</v>
       </c>
       <c r="N113" t="n">
-        <v>1.3</v>
+        <v>0.51</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'এই' → 'আ' at 20-22; delete: ',' → '' at 23-24; insert: '' → 'য় শূন্য এক দুই তিন চ' at 26-26 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -6593,14 +6593,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">"কাস্টমার নম্বর: সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। দিয়ে লগইন করুন। " </t>
+          <t xml:space="preserve">"কাস্টমার নম্বর: সাত আট নয় শূন্য। এক দুই তিন। চার পাঁচ ছয়। দিয়ে লগইন করুন। " </t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.117</v>
+        <v>0.4574</v>
       </c>
       <c r="G114" t="n">
         <v>0.6875</v>
@@ -6612,7 +6612,7 @@
         <v>95</v>
       </c>
       <c r="J114" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K114" t="n">
         <v>6</v>
@@ -6624,11 +6624,11 @@
         <v>16</v>
       </c>
       <c r="N114" t="n">
-        <v>2.55</v>
+        <v>1.28</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 33-34 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াত আট ' at 18-21; replace: ',' → 'য় শূন্য।' at 22-23; insert: '' → 'ক দু' at 25-25 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -6648,14 +6648,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার পেমেন্ট আইডি সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। সেভ করে রাখুন। " </t>
+          <t xml:space="preserve">"আপনার পেমেন্ট আইডি সাতশো ঊননব্বই কোটি এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন সেভ করে রাখুন। " </t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1158</v>
+        <v>0.5053</v>
       </c>
       <c r="G115" t="n">
         <v>0.6471</v>
@@ -6667,7 +6667,7 @@
         <v>96</v>
       </c>
       <c r="J115" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K115" t="n">
         <v>7</v>
@@ -6676,14 +6676,14 @@
         <v>17</v>
       </c>
       <c r="M115" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N115" t="n">
-        <v>1.23</v>
+        <v>0.48</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াতশো ঊ' at 21-24; replace: ',' → 'নব্বই কোটি' at 25-26; insert: '' → 'ক লক্ষ তে' at 28-28 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -6703,17 +6703,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">"ট্র্যাকিং নং: ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ অনলাইনে চেক করুন। " </t>
+          <t xml:space="preserve">"ট্র্যাকিং নং: পঁয়তাল্লিশ হাজার ছয়শো আটাত্তর কোটি নব্বই লক্ষ বারো হাজার তিনশো পঁয়তাল্লিশ অনলাইনে চেক করুন। " </t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1154</v>
+        <v>0.625</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6667</v>
+        <v>0.7222</v>
       </c>
       <c r="H116" t="n">
         <v>47</v>
@@ -6722,7 +6722,7 @@
         <v>105</v>
       </c>
       <c r="J116" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K116" t="n">
         <v>6</v>
@@ -6731,14 +6731,14 @@
         <v>18</v>
       </c>
       <c r="M116" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N116" t="n">
-        <v>1.38</v>
+        <v>0.55</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 9 more differences</t>
+          <t>replace: 'ফ' → 'পঁয়তাল্লিশ হাজার ছয়শ' at 15-16; insert: '' → ' আটাত্ত' at 17-17; delete: ',' → '' at 18-19 ... and 14 more differences</t>
         </is>
       </c>
     </row>
@@ -6758,14 +6758,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার কার্ড নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। দিয়ে পেমেন্ট সফল হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার কার্ড নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন দিয়ে পেমেন্ট সফল হয়েছে। " </t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1148</v>
+        <v>0.4508</v>
       </c>
       <c r="G117" t="n">
         <v>0.6667</v>
@@ -6777,7 +6777,7 @@
         <v>123</v>
       </c>
       <c r="J117" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="K117" t="n">
         <v>8</v>
@@ -6789,11 +6789,11 @@
         <v>21</v>
       </c>
       <c r="N117" t="n">
-        <v>1.44</v>
+        <v>0.61</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 11 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 19-22; replace: 'ন,' → 'র' at 23-25; replace: 'টু,' → 'পাঁচ' at 26-29 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -6813,14 +6813,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার টোকেন নম্বর ফাইভ সিক্স সেভেন এইট। নাইন জিরো ওয়ান। টু থ্রি ফোর। দিয়ে লগইন করুন। " </t>
+          <t xml:space="preserve">"আপনার টোকেন নম্বর পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন চার দিয়ে লগইন করুন। " </t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1146</v>
+        <v>0.4375</v>
       </c>
       <c r="G118" t="n">
         <v>0.6471</v>
@@ -6832,7 +6832,7 @@
         <v>97</v>
       </c>
       <c r="J118" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K118" t="n">
         <v>7</v>
@@ -6844,11 +6844,11 @@
         <v>17</v>
       </c>
       <c r="N118" t="n">
-        <v>1.17</v>
+        <v>0.52</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'ফ' → 'প' at 19-20; replace: 'ইভ,' → 'ঁচ ছয়' at 21-24; replace: 'িক' → 'াত আট নয় শূন' at 26-28 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -6868,14 +6868,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">রিসিপ্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ টু </t>
+          <t>রিসিপ্ট নম্বর ওয়ান টু থ্রি ফোর ফাইভ টু</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1136</v>
+        <v>0.1591</v>
       </c>
       <c r="G119" t="n">
         <v>0.625</v>
@@ -6887,7 +6887,7 @@
         <v>44</v>
       </c>
       <c r="J119" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K119" t="n">
         <v>3</v>
@@ -6899,11 +6899,11 @@
         <v>8</v>
       </c>
       <c r="N119" t="n">
-        <v>1.2</v>
+        <v>0.28</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 3 more differences</t>
+          <t>replace: 'য়' → 'য়' at 15-17; delete: ',' → '' at 19-20; delete: ',' → '' at 23-24 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -6923,14 +6923,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার শ্লিপ নম্বর থ্রি ফোর ফাইভ সিক্স। সেভেন এইট নাইন। জিরো ওয়ান টু। জমা দেওয়া হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার শ্লিপ নম্বর তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই জমা দেওয়া হয়েছে। " </t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1122</v>
+        <v>0.4388</v>
       </c>
       <c r="G120" t="n">
         <v>0.6471</v>
@@ -6942,7 +6942,7 @@
         <v>99</v>
       </c>
       <c r="J120" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K120" t="n">
         <v>7</v>
@@ -6954,11 +6954,11 @@
         <v>17</v>
       </c>
       <c r="N120" t="n">
-        <v>1.27</v>
+        <v>0.52</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 8 more differences</t>
+          <t>replace: 'থ্' → 'তিন চা' at 19-21; delete: 'ি,' → '' at 22-24; replace: 'ফোর,' → 'পাঁচ' at 25-29 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -6978,14 +6978,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">"এই মাসের বিল নম্বর এইট নাইন জিরো ওয়ান। টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এর বকেয়া পাঁচ হাজার টাকা । " </t>
+          <t xml:space="preserve">"এই মাসের বিল নম্বর আট নয় শূন্য এক দুই তিন চার পাঁচ ছয় সাত এর বকেয়া পাঁচ হাজার টাকা । " </t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1121</v>
+        <v>0.4019</v>
       </c>
       <c r="G121" t="n">
         <v>0.65</v>
@@ -6997,7 +6997,7 @@
         <v>108</v>
       </c>
       <c r="J121" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K121" t="n">
         <v>9</v>
@@ -7009,11 +7009,11 @@
         <v>21</v>
       </c>
       <c r="N121" t="n">
-        <v>1.51</v>
+        <v>0.54</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 9 more differences</t>
+          <t>replace: 'এই' → 'আ' at 20-22; delete: ',' → '' at 23-24; insert: '' → 'য় শূন্য এক দুই তিন চ' at 26-26 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
         <v>12</v>
       </c>
       <c r="N122" t="n">
-        <v>1.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -7088,14 +7088,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">"ব্যাংক শ্লিপ নম্বর থ্রি ফোর ফাইভ সিক্স। সেভেন এইট নাইন। জিরো ওয়ান টু। জমা দেওয়া হয়েছে। " </t>
+          <t xml:space="preserve">"ব্যাংক শ্লিপ নম্বর তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই জমা দেওয়া হয়েছে। " </t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1111</v>
+        <v>0.4343</v>
       </c>
       <c r="G123" t="n">
         <v>0.6471</v>
@@ -7107,7 +7107,7 @@
         <v>100</v>
       </c>
       <c r="J123" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K123" t="n">
         <v>7</v>
@@ -7119,11 +7119,11 @@
         <v>17</v>
       </c>
       <c r="N123" t="n">
-        <v>1.26</v>
+        <v>0.47</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'থ্' → 'তিন চা' at 20-22; delete: 'ি,' → '' at 23-25; replace: 'ফোর,' → 'পাঁচ' at 26-30 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -7143,17 +7143,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমার অর্ডার নাম্বার ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু বাতিল করতে চাই। " </t>
+          <t xml:space="preserve">"আমার অর্ডার নাম্বার এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই বাতিল করতে চাই। " </t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1111</v>
+        <v>0.4722</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.6842</v>
       </c>
       <c r="H124" t="n">
         <v>51</v>
@@ -7162,7 +7162,7 @@
         <v>109</v>
       </c>
       <c r="J124" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K124" t="n">
         <v>7</v>
@@ -7174,11 +7174,11 @@
         <v>19</v>
       </c>
       <c r="N124" t="n">
-        <v>1.46</v>
+        <v>0.48</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 21-24; replace: 'ন,' → 'র' at 25-27; replace: 'টু,' → 'পাঁচ' at 28-31 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -7198,14 +7198,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">"দয়া করে রেফারেন্স নম্বর ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। উল্লেখ করুন। " </t>
+          <t xml:space="preserve">"দয়া করে রেফারেন্স নম্বর চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন উল্লেখ করুন। " </t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1111</v>
+        <v>0.4343</v>
       </c>
       <c r="G125" t="n">
         <v>0.6471</v>
@@ -7217,7 +7217,7 @@
         <v>100</v>
       </c>
       <c r="J125" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K125" t="n">
         <v>7</v>
@@ -7229,11 +7229,11 @@
         <v>17</v>
       </c>
       <c r="N125" t="n">
-        <v>1.36</v>
+        <v>0.47</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 29-30; delete: ',' → '' at 35-36; delete: ',' → '' at 42-43 ... and 8 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 26-28; delete: ',' → '' at 29-30; replace: 'ফ' → 'প' at 31-32 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -7253,17 +7253,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Deposit slip no . ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু has been verified . " </t>
+          <t xml:space="preserve">"Deposit slip no . টুয়েলভ থাউজ্যান্ড থ্রি হান্ড্রেড ফোর্টি-ফাইভ ক্রোর সিক্সটি-সেভেন লাখ এইটি-নাইন থাউজ্যান্ড টুয়েলভ has been verified . " </t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1091</v>
+        <v>0.5545</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5714</v>
+        <v>0.619</v>
       </c>
       <c r="H126" t="n">
         <v>51</v>
@@ -7272,7 +7272,7 @@
         <v>111</v>
       </c>
       <c r="J126" t="n">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="K126" t="n">
         <v>7</v>
@@ -7281,14 +7281,14 @@
         <v>21</v>
       </c>
       <c r="M126" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N126" t="n">
-        <v>1.2</v>
+        <v>0.47</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 9 more differences</t>
+          <t>replace: 'ও' → 'টুয়েলভ থাউজ্' at 19-20; delete: '়' → '' at 21-22; replace: ', টু,' → '্ড' at 24-29 ... and 13 more differences</t>
         </is>
       </c>
     </row>
@@ -7308,14 +7308,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার জমা স্লিপ নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। অনুমোদন করা হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার জমা স্লিপ নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ অনুমোদন করা হয়েছে। " </t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1089</v>
+        <v>0.505</v>
       </c>
       <c r="G127" t="n">
         <v>0.6111</v>
@@ -7327,7 +7327,7 @@
         <v>102</v>
       </c>
       <c r="J127" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K127" t="n">
         <v>8</v>
@@ -7336,14 +7336,14 @@
         <v>18</v>
       </c>
       <c r="M127" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N127" t="n">
-        <v>1.21</v>
+        <v>0.52</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 22-31; replace: 'েভেন,' → 'াতাশি' at 33-38; replace: 'স' → 'কোট' at 39-40 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -7363,14 +7363,14 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার Ref নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। দিয়ে স্ট্যাটাস চেক করুন। " </t>
+          <t xml:space="preserve">"আপনার Ref নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ দিয়ে স্ট্যাটাস চেক করুন। " </t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1089</v>
+        <v>0.505</v>
       </c>
       <c r="G128" t="n">
         <v>0.6111</v>
@@ -7382,7 +7382,7 @@
         <v>102</v>
       </c>
       <c r="J128" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K128" t="n">
         <v>8</v>
@@ -7391,14 +7391,14 @@
         <v>18</v>
       </c>
       <c r="M128" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N128" t="n">
-        <v>1.17</v>
+        <v>0.51</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 16-25; replace: 'েভেন,' → 'াতাশি' at 27-32; replace: 'স' → 'কোট' at 33-34 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -7418,14 +7418,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার গ্রাহক আইডি নাইন জিরো ওয়ান টু। থ্রি ফোর ফাইভ। সিক্স সেভেন এইট। প্রোফাইলে আপডেট করুন। " </t>
+          <t xml:space="preserve">"আপনার গ্রাহক আইডি নয়শো এক কোটি তেইশ লক্ষ পঁয়তাল্লিশ হাজার ছয়শো আটাত্তর প্রোফাইলে আপডেট করুন। " </t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1089</v>
+        <v>0.505</v>
       </c>
       <c r="G129" t="n">
         <v>0.6471</v>
@@ -7437,7 +7437,7 @@
         <v>102</v>
       </c>
       <c r="J129" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K129" t="n">
         <v>7</v>
@@ -7446,14 +7446,14 @@
         <v>17</v>
       </c>
       <c r="M129" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N129" t="n">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 29-30; delete: ',' → '' at 36-37 ... and 8 more differences</t>
+          <t>replace: 'া' → 'য়শো এক কোটি তে' at 20-21; replace: 'ন,' → 'শ' at 22-24; replace: 'জিরো, ওয়ান, টু, থ্রি, ফোর, ফাইভ, সি' → 'ল' at 25-61 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="N130" t="n">
-        <v>1.69</v>
+        <v>0.83</v>
       </c>
       <c r="O130" t="inlineStr"/>
     </row>
@@ -7524,14 +7524,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ট্রানজেকশন নম্বর এইট নাইন ওয়ান টু। থ্রি ফোর ফাইভ। সিক্স সেভেন এইট। দিয়ে অভিযোগ করুন। " </t>
+          <t xml:space="preserve">"আপনার ট্রানজেকশন নম্বর এইট নাইন ওয়ান দুই তিন চার পাঁচ ছয় সাত আট দিয়ে অভিযোগ করুন। " </t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1078</v>
+        <v>0.3137</v>
       </c>
       <c r="G131" t="n">
         <v>0.6471</v>
@@ -7543,7 +7543,7 @@
         <v>103</v>
       </c>
       <c r="J131" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K131" t="n">
         <v>7</v>
@@ -7555,11 +7555,11 @@
         <v>17</v>
       </c>
       <c r="N131" t="n">
-        <v>1.39</v>
+        <v>0.63</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 33-34; delete: ',' → '' at 40-41 ... and 8 more differences</t>
+          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 33-34; replace: 'য়' → 'য়' at 36-38 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
         <v>29</v>
       </c>
       <c r="N132" t="n">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -7634,14 +7634,14 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমাদের চালান নম্বর সিক্স সেভেন এইট নাইন। জিরো ওয়ান টু। থ্রি ফোর ফাইভ। অনুযায়ী পেমেন্ট করুন। " </t>
+          <t xml:space="preserve">"আমাদের চালান নম্বর ছয় সাত আট নয় শূন্য এক দুই তিন চার পাঁচ অনুযায়ী পেমেন্ট করুন। " </t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1068</v>
+        <v>0.4078</v>
       </c>
       <c r="G133" t="n">
         <v>0.6471</v>
@@ -7653,7 +7653,7 @@
         <v>104</v>
       </c>
       <c r="J133" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K133" t="n">
         <v>7</v>
@@ -7665,11 +7665,11 @@
         <v>17</v>
       </c>
       <c r="N133" t="n">
-        <v>1.28</v>
+        <v>0.51</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 32-33; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'সিক্স,' → 'ছয়' at 20-26; replace: 'েভে' → 'াত আট ' at 28-31; replace: ',' → 'য় শূন্য' at 32-33 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -7689,14 +7689,14 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">"মূল inv নং ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। ছাড়া পণ্য ফেরত নেওয়া হবে না। " </t>
+          <t xml:space="preserve">"মূল inv নং চারশো ছাপ্পান্ন কোটি আটাত্তর লক্ষ নব্বই হাজার একশো তেইশ ছাড়া পণ্য ফেরত নেওয়া হবে না। " </t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1068</v>
+        <v>0.4854</v>
       </c>
       <c r="G134" t="n">
         <v>0.55</v>
@@ -7708,7 +7708,7 @@
         <v>104</v>
       </c>
       <c r="J134" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K134" t="n">
         <v>10</v>
@@ -7717,14 +7717,14 @@
         <v>20</v>
       </c>
       <c r="M134" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N134" t="n">
-        <v>1.45</v>
+        <v>0.54</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 8 more differences</t>
+          <t>replace: 'ফ' → 'চারশ' at 12-13; insert: '' → ' ছাপ্পান্ন কোটি আটাত্ত' at 14-14; delete: ',' → '' at 15-16 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -7744,14 +7744,14 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমার একাউন্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। থেকে টাকা কেটে নিয়েছে। " </t>
+          <t xml:space="preserve">"আমার একাউন্ট নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য থেকে টাকা কেটে নিয়েছে। " </t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1058</v>
+        <v>0.4135</v>
       </c>
       <c r="G135" t="n">
         <v>0.6111</v>
@@ -7763,7 +7763,7 @@
         <v>105</v>
       </c>
       <c r="J135" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K135" t="n">
         <v>8</v>
@@ -7775,11 +7775,11 @@
         <v>18</v>
       </c>
       <c r="N135" t="n">
-        <v>1.36</v>
+        <v>0.51</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 20-23; replace: 'ন,' → 'র' at 24-26; replace: 'টু,' → 'পাঁচ' at 27-30 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -7799,17 +7799,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার হিসাব নাম্বার: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু সফলভাবে খোলা হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার হিসাব নাম্বার: এক দুই তিন চার। পাঁচ ছয় সাত। আট নয় শূন্য। এক দুই সফলভাবে খোলা হয়েছে। " </t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1053</v>
+        <v>0.4474</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.6842</v>
       </c>
       <c r="H136" t="n">
         <v>59</v>
@@ -7818,7 +7818,7 @@
         <v>115</v>
       </c>
       <c r="J136" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K136" t="n">
         <v>9</v>
@@ -7830,11 +7830,11 @@
         <v>19</v>
       </c>
       <c r="N136" t="n">
-        <v>1.46</v>
+        <v>0.63</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 31-32; delete: ',' → '' at 37-38 ... and 9 more differences</t>
+          <t>replace: 'ও' → 'এক দুই তিন চার। পাঁচ ছ' at 22-23; delete: 'ান, টু, থ্রি, ফোর, ফাইভ,' → '' at 25-49; replace: 'িক' → 'াত। আট নয় শূন' at 51-53 ... and 4 more differences</t>
         </is>
       </c>
     </row>
@@ -7854,14 +7854,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">"উত্তোলন cilip number ফাইভ ফাইভ ফাইভ সিক্স। সিক্স সিক্স সেভেন। সেভেন সেভেন এইট। এইট এইট প্রসেসিং এ আছে। " </t>
+          <t xml:space="preserve">"উত্তোলন cilip number ট্রিপল ফাইভ ট্রিপল সিক্স ট্রিপল সেভেন ট্রিপল এইট প্রসেসিং এ আছে। " </t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1053</v>
+        <v>0.4123</v>
       </c>
       <c r="G137" t="n">
         <v>0.6316000000000001</v>
@@ -7873,7 +7873,7 @@
         <v>115</v>
       </c>
       <c r="J137" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="K137" t="n">
         <v>7</v>
@@ -7882,14 +7882,14 @@
         <v>19</v>
       </c>
       <c r="M137" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N137" t="n">
-        <v>1.46</v>
+        <v>0.62</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 32-33; delete: ',' → '' at 38-39 ... and 9 more differences</t>
+          <t>replace: 'ফাইভ,' → 'ট্রিপল' at 22-27; delete: ',' → '' at 32-33; replace: 'ফাইভ,' → 'ট্রিপল' at 34-39 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -7909,14 +7909,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অর্ডার নং: সিক্স সেভেন এইট নাইন। জিরো ওয়ান টু। থ্রি ফোর ফাইভ। এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
+          <t xml:space="preserve">"অর্ডার নং: ছয়শো আটাত্তর কোটি নব্বই লক্ষ বারো হাজার তিনশো পঁয়তাল্লিশ এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1048</v>
+        <v>0.4857</v>
       </c>
       <c r="G138" t="n">
         <v>0.5789</v>
@@ -7928,7 +7928,7 @@
         <v>106</v>
       </c>
       <c r="J138" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K138" t="n">
         <v>9</v>
@@ -7937,14 +7937,14 @@
         <v>19</v>
       </c>
       <c r="M138" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N138" t="n">
-        <v>1.38</v>
+        <v>0.54</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 24-25; delete: ',' → '' at 29-30 ... and 8 more differences</t>
+          <t>replace: 'স' → 'ছয়শো আটাত্তর কোট' at 12-13; insert: '' → ' নব্বই ল' at 14-14; replace: 'স,' → 'ষ' at 16-18 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -7964,14 +7964,14 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমার account নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। থেকে টাকা transfer করুন। " </t>
+          <t xml:space="preserve">"আমার account নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য থেকে টাকা transfer করুন। " </t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1048</v>
+        <v>0.4095</v>
       </c>
       <c r="G139" t="n">
         <v>0.6111</v>
@@ -7983,7 +7983,7 @@
         <v>106</v>
       </c>
       <c r="J139" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K139" t="n">
         <v>8</v>
@@ -7995,11 +7995,11 @@
         <v>18</v>
       </c>
       <c r="N139" t="n">
-        <v>1.26</v>
+        <v>0.51</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 20-23; replace: 'ন,' → 'র' at 24-26; replace: 'টু,' → 'পাঁচ' at 27-30 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -8050,7 +8050,7 @@
         <v>11</v>
       </c>
       <c r="N140" t="n">
-        <v>2.12</v>
+        <v>0.73</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>28</v>
       </c>
       <c r="N141" t="n">
-        <v>3.34</v>
+        <v>1.29</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -8129,14 +8129,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">"TXN নাম্বার: ওয়ান ওয়ান ওয়ান টু। টু টু থ্রি। থ্রি থ্রি ফোর। ফোর ফোর এর জন্য দশ টাকা চার্জ কাটা হয়েছে। " </t>
+          <t xml:space="preserve">"TXN নাম্বার: ট্রিপল ওয়ান ট্রিপল টু ট্রিপল থ্রি ট্রিপল ফোর এর জন্য দশ টাকা চার্জ কাটা হয়েছে। " </t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1034</v>
+        <v>0.3448</v>
       </c>
       <c r="G142" t="n">
         <v>0.5455</v>
@@ -8148,7 +8148,7 @@
         <v>117</v>
       </c>
       <c r="J142" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K142" t="n">
         <v>10</v>
@@ -8157,14 +8157,14 @@
         <v>22</v>
       </c>
       <c r="M142" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N142" t="n">
-        <v>2.01</v>
+        <v>0.59</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 26-27; delete: ',' → '' at 33-34 ... and 9 more differences</t>
+          <t>insert: '' → 'ট্রিপল ' at 14-14; replace: 'য়' → 'য়' at 15-17; delete: ',' → '' at 19-20 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -8184,14 +8184,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার একাউন্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সিক্স। সংরক্ষণ করুন। " </t>
+          <t xml:space="preserve">"আপনার একাউন্ট নম্বর এক দুই তিন চার পাঁচ ছয় ছয় সংরক্ষণ করুন। " </t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1026</v>
+        <v>0.3974</v>
       </c>
       <c r="G143" t="n">
         <v>0.6153999999999999</v>
@@ -8203,7 +8203,7 @@
         <v>79</v>
       </c>
       <c r="J143" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K143" t="n">
         <v>6</v>
@@ -8215,11 +8215,11 @@
         <v>13</v>
       </c>
       <c r="N143" t="n">
-        <v>1.28</v>
+        <v>0.42</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 5 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 21-24; replace: 'ন,' → 'র' at 25-27; replace: 'টু,' → 'পাঁচ' at 28-31 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8270,7 @@
         <v>21</v>
       </c>
       <c r="N144" t="n">
-        <v>3.02</v>
+        <v>1.11</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -8294,17 +8294,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve">"নতুন receipt নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জেনারেট হয়েছে। " </t>
+          <t xml:space="preserve">"নতুন receipt নং: নাইনটি-এইট ক্রোর সেভেন্টি-সিক্স লাখ ফিফটি-ফোর থাউজ্যান্ড থ্রি হান্ড্রেড টোয়েন্টি-ওয়ান জেনারেট হয়েছে। " </t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1023</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>0.6667</v>
       </c>
       <c r="H145" t="n">
         <v>45</v>
@@ -8313,7 +8313,7 @@
         <v>89</v>
       </c>
       <c r="J145" t="n">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K145" t="n">
         <v>6</v>
@@ -8325,11 +8325,11 @@
         <v>15</v>
       </c>
       <c r="N145" t="n">
-        <v>1.29</v>
+        <v>0.46</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 6 more differences</t>
+          <t>replace: ', ' → 'টি-' at 22-24; replace: ',' → ' ক্রোর' at 27-28; replace: ', ' → '্টি-' at 34-36 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
         <v>21</v>
       </c>
       <c r="N146" t="n">
-        <v>3.21</v>
+        <v>1.15</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -8404,17 +8404,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>বিল নম্বর ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ hello how are you</t>
+          <t>বিল নম্বর চার পাঁচ ছয় সাত আট শূন্য তিন চার পাঁচ hello how are you</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1013</v>
+        <v>0.4557</v>
       </c>
       <c r="G147" t="n">
-        <v>0.5333</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>38</v>
@@ -8423,7 +8423,7 @@
         <v>79</v>
       </c>
       <c r="J147" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K147" t="n">
         <v>7</v>
@@ -8435,11 +8435,11 @@
         <v>15</v>
       </c>
       <c r="N147" t="n">
-        <v>1.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 13-14; delete: ',' → '' at 19-20; delete: ',' → '' at 26-27 ... and 5 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 10-12; delete: ',' → '' at 13-14; replace: 'ফ' → 'প' at 15-16 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -8459,14 +8459,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Security token ID number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু expires at midnight . " </t>
+          <t xml:space="preserve">"Security token ID number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু expires at midnight . " </t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1008</v>
+        <v>0.1345</v>
       </c>
       <c r="G148" t="n">
         <v>0.5714</v>
@@ -8478,7 +8478,7 @@
         <v>120</v>
       </c>
       <c r="J148" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K148" t="n">
         <v>8</v>
@@ -8490,11 +8490,11 @@
         <v>21</v>
       </c>
       <c r="N148" t="n">
-        <v>1.55</v>
+        <v>0.86</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 31-32; delete: ',' → '' at 35-36; delete: ',' → '' at 41-42 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 27-29; delete: ',' → '' at 31-32; delete: ',' → '' at 35-36 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -8514,17 +8514,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ট্র্যাকিং নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু দিয়ে পণ্য ট্র্যাক করুন। " </t>
+          <t xml:space="preserve">"আপনার ট্র্যাকিং নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই দিয়ে পণ্য ট্র্যাক করুন। " </t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1008</v>
+        <v>0.4286</v>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="H149" t="n">
         <v>62</v>
@@ -8533,7 +8533,7 @@
         <v>120</v>
       </c>
       <c r="J149" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K149" t="n">
         <v>8</v>
@@ -8545,11 +8545,11 @@
         <v>20</v>
       </c>
       <c r="N149" t="n">
-        <v>1.95</v>
+        <v>0.58</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 28-29; delete: ',' → '' at 32-33; delete: ',' → '' at 38-39 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 23-26; replace: 'ন,' → 'র' at 27-29; replace: 'টু,' → 'পাঁচ' at 30-33 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -8569,17 +8569,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Customer ID ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু is eligible for premium benefits . " </t>
+          <t xml:space="preserve">"Customer ID টুয়েলভ থাউজ্যান্ড থ্রি হান্ড্রেড ফোর্টি-ফাইভ ক্রোর সিক্সটি-সেভেন লাখ এইটি-নাইন থাউজ্যান্ড টুয়েলভ is eligible for premium benefits . " </t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1008</v>
+        <v>0.5125999999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5714</v>
+        <v>0.619</v>
       </c>
       <c r="H150" t="n">
         <v>61</v>
@@ -8588,7 +8588,7 @@
         <v>120</v>
       </c>
       <c r="J150" t="n">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="K150" t="n">
         <v>8</v>
@@ -8597,14 +8597,14 @@
         <v>21</v>
       </c>
       <c r="M150" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N150" t="n">
-        <v>1.41</v>
+        <v>0.66</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 22-23; delete: ',' → '' at 28-29 ... and 9 more differences</t>
+          <t>replace: 'ও' → 'টুয়েলভ থাউজ্' at 13-14; delete: '়' → '' at 15-16; replace: ', টু,' → '্ড' at 18-23 ... and 13 more differences</t>
         </is>
       </c>
     </row>
@@ -8655,7 +8655,7 @@
         <v>6</v>
       </c>
       <c r="N151" t="n">
-        <v>0.93</v>
+        <v>0.44</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve">ট্রানজেকশন নাম্বার এইট নাইন থ্রি জিরো। টু থ্রি </t>
+          <t>ট্রানজেকশন নাম্বার এইট নাইন থ্রি জিরো টু থ্রি</t>
         </is>
       </c>
       <c r="E152" t="b">
@@ -8698,7 +8698,7 @@
         <v>50</v>
       </c>
       <c r="J152" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K152" t="n">
         <v>3</v>
@@ -8710,11 +8710,11 @@
         <v>8</v>
       </c>
       <c r="N152" t="n">
-        <v>0.88</v>
+        <v>0.43</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 3 more differences</t>
+          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 2 more differences</t>
         </is>
       </c>
     </row>
@@ -8734,14 +8734,14 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার রিসিপ্ট নম্বর ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। সংরক্ষণ করুন ভবিষ্যতের জন্য। " </t>
+          <t xml:space="preserve">"আপনার রিসিপ্ট নম্বর চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন সংরক্ষণ করুন ভবিষ্যতের জন্য। " </t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1</v>
+        <v>0.3909</v>
       </c>
       <c r="G153" t="n">
         <v>0.6111</v>
@@ -8753,7 +8753,7 @@
         <v>111</v>
       </c>
       <c r="J153" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K153" t="n">
         <v>8</v>
@@ -8765,11 +8765,11 @@
         <v>18</v>
       </c>
       <c r="N153" t="n">
-        <v>1.45</v>
+        <v>0.65</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 21-23; delete: ',' → '' at 24-25; replace: 'ফ' → 'প' at 26-27 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -8789,17 +8789,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve">"নতুন Token নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জেনারেট করা হয়েছে। " </t>
+          <t xml:space="preserve">"নতুন Token নং: নয় আট সাত ছয়। পাঁচ চার তিন। দুই এক জেনারেট করা হয়েছে। " </t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1</v>
+        <v>0.4222</v>
       </c>
       <c r="G154" t="n">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="H154" t="n">
         <v>49</v>
@@ -8808,7 +8808,7 @@
         <v>91</v>
       </c>
       <c r="J154" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K154" t="n">
         <v>7</v>
@@ -8820,11 +8820,11 @@
         <v>16</v>
       </c>
       <c r="N154" t="n">
-        <v>2.52</v>
+        <v>1.1</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 20-21; delete: ',' → '' at 25-26; delete: ',' → '' at 32-33 ... and 6 more differences</t>
+          <t>insert: '' → 'য় আট স' at 17-17; insert: '' → 'ত ছয়। পাঁচ চার তিন। দু' at 18-18; delete: 'ন,' → '' at 19-21 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -8844,14 +8844,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ভাউচার নম্বর থ্রি ফোর ফাইভ সিক্স। সেভেন এইট নাইন। জিরো ওয়ান টু। একত্রিশ ডিসেম্বর পর্যন্ত বৈধ। " </t>
+          <t xml:space="preserve">"আপনার ভাউচার নম্বর তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই একত্রিশ ডিসেম্বর পর্যন্ত বৈধ। " </t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1</v>
+        <v>0.3909</v>
       </c>
       <c r="G155" t="n">
         <v>0.6111</v>
@@ -8863,7 +8863,7 @@
         <v>111</v>
       </c>
       <c r="J155" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K155" t="n">
         <v>8</v>
@@ -8875,11 +8875,11 @@
         <v>18</v>
       </c>
       <c r="N155" t="n">
-        <v>1.84</v>
+        <v>0.64</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'থ্' → 'তিন চা' at 20-22; delete: 'ি,' → '' at 23-25; replace: 'ফোর,' → 'পাঁচ' at 26-30 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -8930,7 +8930,7 @@
         <v>25</v>
       </c>
       <c r="N156" t="n">
-        <v>2.39</v>
+        <v>0.84</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -8954,17 +8954,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve">"পেমেন্ট আইডি ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু নিশ্চিত হয়েছে BDT দশ হাজার এর জন্য। " </t>
+          <t xml:space="preserve">"পেমেন্ট আইডি বারো হাজার তিনশো পঁয়তাল্লিশ কোটি সাতষট্টি লক্ষ ঊননব্বই হাজার বারো নিশ্চিত হয়েছে BDT দশ হাজার এর জন্য। " </t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0984</v>
+        <v>0.4918</v>
       </c>
       <c r="G157" t="n">
-        <v>0.5455</v>
+        <v>0.5909</v>
       </c>
       <c r="H157" t="n">
         <v>63</v>
@@ -8973,7 +8973,7 @@
         <v>123</v>
       </c>
       <c r="J157" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K157" t="n">
         <v>9</v>
@@ -8982,14 +8982,14 @@
         <v>22</v>
       </c>
       <c r="M157" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N157" t="n">
-        <v>1.62</v>
+        <v>0.62</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'ব' at 14-17; insert: '' → 'রো হাজার তি' at 18-18; replace: ',' → 'শো' at 19-20 ... and 13 more differences</t>
         </is>
       </c>
     </row>
@@ -9009,17 +9009,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অর্ডার নম্বর: ফাইভ সিক্স সেভেন এইট। নাইন জিরো ওয়ান। টু থ্রি ফোর। ফাইভ এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
+          <t xml:space="preserve">"অর্ডার নম্বর: পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন চার পাঁচ এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0965</v>
+        <v>0.4035</v>
       </c>
       <c r="G158" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>59</v>
@@ -9028,7 +9028,7 @@
         <v>115</v>
       </c>
       <c r="J158" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K158" t="n">
         <v>9</v>
@@ -9040,11 +9040,11 @@
         <v>20</v>
       </c>
       <c r="N158" t="n">
-        <v>1.74</v>
+        <v>0.53</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 26-27; delete: ',' → '' at 33-34 ... and 8 more differences</t>
+          <t>replace: 'ফ' → 'প' at 15-16; replace: 'ইভ,' → 'ঁচ ছয়' at 17-20; replace: 'িক' → 'াত আট নয় শূন' at 22-24 ... and 9 more differences</t>
         </is>
       </c>
     </row>
@@ -9095,7 +9095,7 @@
         <v>14</v>
       </c>
       <c r="N159" t="n">
-        <v>1.13</v>
+        <v>0.42</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>23</v>
       </c>
       <c r="N160" t="n">
-        <v>1.33</v>
+        <v>0.55</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -9174,17 +9174,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve">"মূল রসিদ নাম্বার নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছাড়া রিটার্ন সম্ভব নয়। " </t>
+          <t xml:space="preserve">"মূল রসিদ নাম্বার নয় আট সাত ছয়। পাঁচ চার তিন। দুই এক ছাড়া রিটার্ন সম্ভব নয়। " </t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.09279999999999999</v>
+        <v>0.3918</v>
       </c>
       <c r="G161" t="n">
-        <v>0.5294</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="H161" t="n">
         <v>56</v>
@@ -9193,7 +9193,7 @@
         <v>98</v>
       </c>
       <c r="J161" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K161" t="n">
         <v>8</v>
@@ -9205,11 +9205,11 @@
         <v>17</v>
       </c>
       <c r="N161" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 6 more differences</t>
+          <t>insert: '' → 'য় আট স' at 19-19; insert: '' → 'ত ছয়। পাঁচ চার তিন। দু' at 20-20; delete: 'ন,' → '' at 21-23 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -9229,17 +9229,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার বিদ্যুৎ বিল নম্বর টু জিরো টু ফোর। জিরো ওয়ান ওয়ান। টু থ্রি ফোর। ফাইভ সিক্স পনের জানুয়ারি তারিখে পরিশোধ করতে হবে। " </t>
+          <t xml:space="preserve">"আপনার বিদ্যুৎ বিল নম্বর দুই শূন্য দুই চার। শূন্য এক এক। দুই তিন চার। পাঁচ ছয় পনের জানুয়ারি তারিখে পরিশোধ করতে হবে। " </t>
         </is>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.3636</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5652</v>
       </c>
       <c r="H162" t="n">
         <v>77</v>
@@ -9248,7 +9248,7 @@
         <v>133</v>
       </c>
       <c r="J162" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K162" t="n">
         <v>11</v>
@@ -9260,11 +9260,11 @@
         <v>23</v>
       </c>
       <c r="N162" t="n">
-        <v>1.76</v>
+        <v>0.71</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 33-34; delete: ',' → '' at 37-38 ... and 9 more differences</t>
+          <t>replace: 'ট' → 'দ' at 25-26; replace: ',' → 'ই' at 27-28; replace: 'জ' → 'শূন্য দুই চার। শূন্য এক এক। দুই ত' at 29-30 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -9284,17 +9284,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve">"পেমেন্ট নম্বর: ফাইভ সিক্স সেভেন এইট। নাইন জিরো ওয়ান। টু থ্রি দিয়ে রিফান্ড ট্র্যাক করুন। " </t>
+          <t xml:space="preserve">"পেমেন্ট নম্বর: পাঁচ ছয় সাত আট। নয় শূন্য এক। দুই তিন দিয়ে রিফান্ড ট্র্যাক করুন। " </t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.404</v>
       </c>
       <c r="G163" t="n">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="H163" t="n">
         <v>57</v>
@@ -9303,7 +9303,7 @@
         <v>100</v>
       </c>
       <c r="J163" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K163" t="n">
         <v>7</v>
@@ -9315,11 +9315,11 @@
         <v>16</v>
       </c>
       <c r="N163" t="n">
-        <v>2.9</v>
+        <v>1.37</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 20-21; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 6 more differences</t>
+          <t>replace: 'ফ' → 'প' at 16-17; replace: 'ইভ,' → 'ঁচ ছয়' at 18-21; replace: 'িক' → 'াত আট। নয় শূন' at 23-25 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -9339,17 +9339,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve">"The loan amount will be deducted from ACCT NUMBER: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু monthly . " </t>
+          <t xml:space="preserve">"The loan amount will be deducted from ACCT NUMBER: ওয়ান টু থ্রি ফোর পয়েন্ট ফাইভ সিক্স সেভেন এইট monthly . " </t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0902</v>
+        <v>0.2932</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>0.5417</v>
       </c>
       <c r="H164" t="n">
         <v>77</v>
@@ -9358,7 +9358,7 @@
         <v>134</v>
       </c>
       <c r="J164" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K164" t="n">
         <v>11</v>
@@ -9367,14 +9367,14 @@
         <v>24</v>
       </c>
       <c r="M164" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N164" t="n">
-        <v>2.78</v>
+        <v>1.23</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 57-58; delete: ',' → '' at 61-62; delete: ',' → '' at 67-68 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 53-55; delete: ',' → '' at 57-58; delete: ',' → '' at 61-62 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -9394,17 +9394,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Please transfer the amount to account number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। before ফাইভ PM . " </t>
+          <t xml:space="preserve">"Please transfer the amount to account number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো before ফাইভ PM . " </t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>0.4545</v>
       </c>
       <c r="H165" t="n">
         <v>71</v>
@@ -9413,7 +9413,7 @@
         <v>124</v>
       </c>
       <c r="J165" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K165" t="n">
         <v>11</v>
@@ -9425,11 +9425,11 @@
         <v>22</v>
       </c>
       <c r="N165" t="n">
-        <v>1.39</v>
+        <v>0.63</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 51-52; delete: ',' → '' at 55-56; delete: ',' → '' at 61-62 ... and 8 more differences</t>
+          <t>replace: 'য়' → 'য়' at 47-49; delete: ',' → '' at 51-52; delete: ',' → '' at 55-56 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>36</v>
       </c>
       <c r="N166" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -9504,14 +9504,14 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অনুগ্রহ করে Ricipt Number এইট সেভেন সিক্স ফাইভ। ফোর থ্রি টু। ওয়ান জিরো টি প্রিন্ট করে রাখুন। " </t>
+          <t xml:space="preserve">"অনুগ্রহ করে Ricipt Number এইট সেভেন সিক্স ফাইভ ফোর থ্রি টু ওয়ান জিরো টি প্রিন্ট করে রাখুন। " </t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.1068</v>
       </c>
       <c r="G167" t="n">
         <v>0.5</v>
@@ -9523,7 +9523,7 @@
         <v>104</v>
       </c>
       <c r="J167" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K167" t="n">
         <v>9</v>
@@ -9535,11 +9535,11 @@
         <v>18</v>
       </c>
       <c r="N167" t="n">
-        <v>1.54</v>
+        <v>0.5</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 37-38; delete: ',' → '' at 44-45 ... and 6 more differences</t>
+          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 37-38; delete: ',' → '' at 44-45 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -9590,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="N168" t="n">
-        <v>1.15</v>
+        <v>0.44</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>31</v>
       </c>
       <c r="N169" t="n">
-        <v>2.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>22</v>
       </c>
       <c r="N170" t="n">
-        <v>1.48</v>
+        <v>0.62</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>22</v>
       </c>
       <c r="N171" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -9779,14 +9779,14 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Your transaction number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু has been processed at দুইটা ত্রিশ মিনিট PM . " </t>
+          <t xml:space="preserve">"Your transaction number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু has been processed at দুইটা ত্রিশ মিনিট PM . " </t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0851</v>
+        <v>0.1135</v>
       </c>
       <c r="G172" t="n">
         <v>0.48</v>
@@ -9798,7 +9798,7 @@
         <v>142</v>
       </c>
       <c r="J172" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K172" t="n">
         <v>10</v>
@@ -9810,11 +9810,11 @@
         <v>25</v>
       </c>
       <c r="N172" t="n">
-        <v>1.54</v>
+        <v>0.57</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 34-35; delete: ',' → '' at 40-41 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 26-28; delete: ',' → '' at 30-31; delete: ',' → '' at 34-35 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -9834,17 +9834,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Contact us at info। অ্যাট দ্য রেট example ডট কম। or visit এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ ডব্লিউ ডব্লিউ ডব্লিউ ডট। example ডট কম। " </t>
+          <t xml:space="preserve">"Contact us at info। অ্যাট দ্য রেট example ডট কম। or visit এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ। ডব্লিউ ডব্লিউ ডব্লিউ ডট। example ডট কম। " </t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.162</v>
+        <v>0.169</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5185</v>
+        <v>0.5556</v>
       </c>
       <c r="H173" t="n">
         <v>66</v>
@@ -9853,7 +9853,7 @@
         <v>143</v>
       </c>
       <c r="J173" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K173" t="n">
         <v>7</v>
@@ -9865,7 +9865,7 @@
         <v>28</v>
       </c>
       <c r="N173" t="n">
-        <v>2.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>20</v>
       </c>
       <c r="N174" t="n">
-        <v>2.91</v>
+        <v>1.1</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>20</v>
       </c>
       <c r="N175" t="n">
-        <v>2.79</v>
+        <v>1.08</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -9999,17 +9999,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার transaction নাম্বার ফাইভ সিক্স সেভেন এইট। নাইন জিরো সফল হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার transaction নাম্বার পাঁচ ছয় সাত আট নয় শূন্য সফল হয়েছে। " </t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0779</v>
+        <v>0.3636</v>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>0.5833</v>
       </c>
       <c r="H176" t="n">
         <v>47</v>
@@ -10018,7 +10018,7 @@
         <v>78</v>
       </c>
       <c r="J176" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K176" t="n">
         <v>6</v>
@@ -10030,11 +10030,11 @@
         <v>12</v>
       </c>
       <c r="N176" t="n">
-        <v>1.2</v>
+        <v>0.52</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 31-32; delete: ',' → '' at 38-39; delete: ',' → '' at 45-46 ... and 3 more differences</t>
+          <t>replace: 'ফ' → 'প' at 27-28; replace: 'ইভ,' → 'ঁচ ছয়' at 29-32; replace: 'িক্স,' → 'াত' at 34-39 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -10054,17 +10054,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve">"রশিদ নং: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স দেখিয়ে আপনার পণ্য সংগ্রহ করুন। " </t>
+          <t xml:space="preserve">"রশিদ নং: এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন দেখিয়ে আপনার পণ্য সংগ্রহ করুন। " </t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0769</v>
+        <v>0.3846</v>
       </c>
       <c r="G177" t="n">
-        <v>0.4286</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>50</v>
@@ -10073,7 +10073,7 @@
         <v>79</v>
       </c>
       <c r="J177" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K177" t="n">
         <v>8</v>
@@ -10085,11 +10085,11 @@
         <v>14</v>
       </c>
       <c r="N177" t="n">
-        <v>1.07</v>
+        <v>0.47</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 19-20; delete: ',' → '' at 25-26 ... and 3 more differences</t>
+          <t>replace: 'ওয়' → 'এক লক্ষ তেইশ হাজার চারশো ছাপ্প' at 10-13; delete: ', টু, থ' → '' at 15-22; replace: 'রি, ফোর, ফাইভ, সিক্স' → 'ন' at 23-43 ... and 1 more differences</t>
         </is>
       </c>
     </row>
@@ -10109,14 +10109,14 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Your payment receipt number: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন has been generated successfully . " </t>
+          <t xml:space="preserve">"Your payment receipt number: ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন has been generated successfully . " </t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="G178" t="n">
         <v>0.4737</v>
@@ -10128,7 +10128,7 @@
         <v>119</v>
       </c>
       <c r="J178" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K178" t="n">
         <v>9</v>
@@ -10140,11 +10140,11 @@
         <v>19</v>
       </c>
       <c r="N178" t="n">
-        <v>1.49</v>
+        <v>0.51</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 35-36; delete: ',' → '' at 39-40; delete: ',' → '' at 45-46 ... and 6 more differences</t>
+          <t>replace: 'য়' → 'য়' at 31-33; delete: ',' → '' at 35-36; delete: ',' → '' at 39-40 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
         <v>12</v>
       </c>
       <c r="N179" t="n">
-        <v>1.23</v>
+        <v>0.5</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -10219,17 +10219,17 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve">উদাহরণস্বরূপ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। </t>
+          <t>উদাহরণস্বরূপ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু ডাবল জিরো ওয়ান জিরো ডাবল ওয়ান থ্রি টু ফাইভ নাইন এইট নাইন</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0711</v>
+        <v>0.1269</v>
       </c>
       <c r="G180" t="n">
-        <v>0.4375</v>
+        <v>0.4062</v>
       </c>
       <c r="H180" t="n">
         <v>125</v>
@@ -10238,7 +10238,7 @@
         <v>197</v>
       </c>
       <c r="J180" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K180" t="n">
         <v>14</v>
@@ -10250,11 +10250,11 @@
         <v>32</v>
       </c>
       <c r="N180" t="n">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 12-13; delete: ',' → '' at 125-126; delete: ',' → '' at 131-132 ... and 11 more differences</t>
+          <t>delete: ',' → '' at 12-13; replace: ',' → ' ডাবল' at 125-126; replace: ',' → ' ওয়ান' at 131-132 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -10305,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="N181" t="n">
-        <v>0.99</v>
+        <v>0.43</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>11</v>
       </c>
       <c r="N182" t="n">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>39</v>
       </c>
       <c r="N183" t="n">
-        <v>2.01</v>
+        <v>0.93</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -10439,17 +10439,17 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Visit এইচ টি টি পি। কোলন ডাবল স্ল্যাশ github ডট কম। স্ল্যাশ। user স্ল্যাশ। repo or ftp কোলন স্ল্যাশ। স্ল্যাশ। files ডট server ডট কম। " </t>
+          <t xml:space="preserve">"Visit এইচ টি টি পি। কোলন ডাবল স্ল্যাশ। github ডট কম। স্ল্যাশ। user স্ল্যাশ। repo or ftp কোলন স্ল্যাশ। স্ল্যাশ। files ডট server ডট কম। " </t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.1407</v>
+        <v>0.1481</v>
       </c>
       <c r="G184" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="H184" t="n">
         <v>62</v>
@@ -10458,7 +10458,7 @@
         <v>136</v>
       </c>
       <c r="J184" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K184" t="n">
         <v>4</v>
@@ -10470,7 +10470,7 @@
         <v>26</v>
       </c>
       <c r="N184" t="n">
-        <v>1.88</v>
+        <v>0.8</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>33</v>
       </c>
       <c r="N185" t="n">
-        <v>4.15</v>
+        <v>1.16</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>21</v>
       </c>
       <c r="N186" t="n">
-        <v>1.94</v>
+        <v>0.79</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -10604,17 +10604,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve">"উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই" </t>
+          <t xml:space="preserve">"উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু ডাবল জিরো ওয়ান জিরো ডাবল ওয়ান থ্রি টু ফাইভ নাইন এইট নাইন চট্ট গ বারো এক দুই এক দুই" </t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0452</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2727</v>
+        <v>0.2545</v>
       </c>
       <c r="H187" t="n">
         <v>174</v>
@@ -10623,7 +10623,7 @@
         <v>333</v>
       </c>
       <c r="J187" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K187" t="n">
         <v>17</v>
@@ -10635,11 +10635,11 @@
         <v>55</v>
       </c>
       <c r="N187" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 13-14; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 232-245; replace: ', জিরো,' → '। জিরো' at 251-258 ... and 5 more differences</t>
+          <t>delete: ',' → '' at 13-14; replace: ', জিরো, জিরো,' → ' ডাবল জিরো' at 232-245; replace: 'য়ান, জিরো,' → 'য়ান জিরো ডাবল' at 247-258 ... and 4 more differences</t>
         </is>
       </c>
     </row>
@@ -10690,7 +10690,7 @@
         <v>14</v>
       </c>
       <c r="N188" t="n">
-        <v>1.34</v>
+        <v>0.52</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -10714,17 +10714,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই"</t>
+          <t>উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু ডাবল জিরো ওয়ান জিরো ডাবল ওয়ান থ্রি টু ফাইভ নাইন এইট নাইন চট্ট গ বারো এক দুই এক দুই"</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0424</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2545</v>
+        <v>0.2364</v>
       </c>
       <c r="H189" t="n">
         <v>172</v>
@@ -10733,7 +10733,7 @@
         <v>330</v>
       </c>
       <c r="J189" t="n">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K189" t="n">
         <v>17</v>
@@ -10745,11 +10745,11 @@
         <v>55</v>
       </c>
       <c r="N189" t="n">
-        <v>3.54</v>
+        <v>1.35</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 12-13; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 231-244; replace: ', জিরো,' → '। জিরো' at 250-257 ... and 4 more differences</t>
+          <t>delete: ',' → '' at 12-13; replace: ', জিরো, জিরো,' → ' ডাবল জিরো' at 231-244; replace: 'য়ান, জিরো,' → 'য়ান জিরো ডাবল' at 246-257 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
         <v>18</v>
       </c>
       <c r="N190" t="n">
-        <v>1.57</v>
+        <v>0.61</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>27</v>
       </c>
       <c r="N191" t="n">
-        <v>1.8</v>
+        <v>0.77</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -10879,17 +10879,17 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>"Check out এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ subdomain ডট example ডট কম। কোলন এইট জিরো এইট জিরো স্ল্যাশ। path স্ল্যাশ। to স্ল্যাশ। page কোয়েশ্চেন মার্ক query একুয়াল ওয়ান "</t>
+          <t>"Check out এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ। subdomain ডট example ডট কম। কোলন এইট জিরো এইট জিরো স্ল্যাশ। path স্ল্যাশ। to স্ল্যাশ। page কোয়েশ্চেন মার্ক query একুয়াল ওয়ান "</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0977</v>
+        <v>0.1034</v>
       </c>
       <c r="G192" t="n">
-        <v>0.3871</v>
+        <v>0.4194</v>
       </c>
       <c r="H192" t="n">
         <v>67</v>
@@ -10898,7 +10898,7 @@
         <v>174</v>
       </c>
       <c r="J192" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K192" t="n">
         <v>3</v>
@@ -10910,7 +10910,7 @@
         <v>32</v>
       </c>
       <c r="N192" t="n">
-        <v>2.33</v>
+        <v>0.95</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>11</v>
       </c>
       <c r="N193" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>10</v>
       </c>
       <c r="N194" t="n">
-        <v>1.02</v>
+        <v>0.43</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>5</v>
       </c>
       <c r="N195" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>5</v>
       </c>
       <c r="N196" t="n">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>20</v>
       </c>
       <c r="N197" t="n">
-        <v>1.52</v>
+        <v>0.86</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>6</v>
       </c>
       <c r="N198" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>8</v>
       </c>
       <c r="N199" t="n">
-        <v>1.21</v>
+        <v>0.7</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>21</v>
       </c>
       <c r="N200" t="n">
-        <v>1.63</v>
+        <v>0.85</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>26</v>
       </c>
       <c r="N201" t="n">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>20</v>
       </c>
       <c r="N202" t="n">
-        <v>1.59</v>
+        <v>0.73</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>59</v>
       </c>
       <c r="N203" t="n">
-        <v>4.62</v>
+        <v>2.2</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>32</v>
       </c>
       <c r="N204" t="n">
-        <v>2.16</v>
+        <v>0.97</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>5</v>
       </c>
       <c r="N205" t="n">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>4</v>
       </c>
       <c r="N206" t="n">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>21</v>
       </c>
       <c r="N207" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>6</v>
       </c>
       <c r="N208" t="n">
-        <v>0.71</v>
+        <v>0.3</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>6</v>
       </c>
       <c r="N209" t="n">
-        <v>0.89</v>
+        <v>0.39</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>7</v>
       </c>
       <c r="N210" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>16</v>
       </c>
       <c r="N211" t="n">
-        <v>1.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>25</v>
       </c>
       <c r="N212" t="n">
-        <v>1.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>9</v>
       </c>
       <c r="N213" t="n">
-        <v>0.77</v>
+        <v>0.32</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>10</v>
       </c>
       <c r="N214" t="n">
-        <v>0.84</v>
+        <v>0.37</v>
       </c>
       <c r="O214" t="inlineStr"/>
     </row>
@@ -12171,7 +12171,7 @@
         <v>10</v>
       </c>
       <c r="N215" t="n">
-        <v>1.01</v>
+        <v>0.5</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>9</v>
       </c>
       <c r="N216" t="n">
-        <v>1.13</v>
+        <v>0.51</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>10</v>
       </c>
       <c r="N217" t="n">
-        <v>1.05</v>
+        <v>0.58</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>9</v>
       </c>
       <c r="N218" t="n">
-        <v>1.2</v>
+        <v>0.68</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>18</v>
       </c>
       <c r="N219" t="n">
-        <v>1.85</v>
+        <v>0.72</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>153</v>
       </c>
       <c r="N220" t="n">
-        <v>8.539999999999999</v>
+        <v>3.47</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>11</v>
       </c>
       <c r="N221" t="n">
-        <v>1.34</v>
+        <v>0.45</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>10</v>
       </c>
       <c r="N222" t="n">
-        <v>1.52</v>
+        <v>0.55</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>11</v>
       </c>
       <c r="N223" t="n">
-        <v>1.48</v>
+        <v>0.55</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>13</v>
       </c>
       <c r="N224" t="n">
-        <v>1.27</v>
+        <v>0.52</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>11</v>
       </c>
       <c r="N225" t="n">
-        <v>1.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>15</v>
       </c>
       <c r="N226" t="n">
-        <v>1.1</v>
+        <v>0.49</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>14</v>
       </c>
       <c r="N227" t="n">
-        <v>1.31</v>
+        <v>0.5</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>14</v>
       </c>
       <c r="N228" t="n">
-        <v>2.54</v>
+        <v>1.14</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>30</v>
       </c>
       <c r="N229" t="n">
-        <v>2.21</v>
+        <v>0.93</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>20</v>
       </c>
       <c r="N230" t="n">
-        <v>1.39</v>
+        <v>0.57</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>18</v>
       </c>
       <c r="N231" t="n">
-        <v>1.68</v>
+        <v>0.61</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>16</v>
       </c>
       <c r="N232" t="n">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>19</v>
       </c>
       <c r="N233" t="n">
-        <v>1.73</v>
+        <v>0.77</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>17</v>
       </c>
       <c r="N234" t="n">
-        <v>1.25</v>
+        <v>0.49</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>25</v>
       </c>
       <c r="N235" t="n">
-        <v>2.06</v>
+        <v>0.77</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>17</v>
       </c>
       <c r="N236" t="n">
-        <v>1.32</v>
+        <v>0.45</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>30</v>
       </c>
       <c r="N237" t="n">
-        <v>2.14</v>
+        <v>0.84</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>31</v>
       </c>
       <c r="N238" t="n">
-        <v>3.68</v>
+        <v>1.23</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45</v>
       </c>
       <c r="N239" t="n">
-        <v>2.73</v>
+        <v>1.05</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>110</v>
       </c>
       <c r="N240" t="n">
-        <v>7.15</v>
+        <v>2.97</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>8</v>
       </c>
       <c r="N241" t="n">
-        <v>1.34</v>
+        <v>0.52</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>9</v>
       </c>
       <c r="N242" t="n">
-        <v>1.19</v>
+        <v>0.44</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>9</v>
       </c>
       <c r="N243" t="n">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>11</v>
       </c>
       <c r="N244" t="n">
-        <v>1.28</v>
+        <v>0.52</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>13</v>
       </c>
       <c r="N245" t="n">
-        <v>1.29</v>
+        <v>0.57</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>12</v>
       </c>
       <c r="N246" t="n">
-        <v>1.19</v>
+        <v>0.53</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>10</v>
       </c>
       <c r="N247" t="n">
-        <v>0.96</v>
+        <v>0.43</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>11</v>
       </c>
       <c r="N248" t="n">
-        <v>1.3</v>
+        <v>0.51</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>10</v>
       </c>
       <c r="N249" t="n">
-        <v>1.11</v>
+        <v>0.46</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>12</v>
       </c>
       <c r="N250" t="n">
-        <v>1.14</v>
+        <v>0.51</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>12</v>
       </c>
       <c r="N251" t="n">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>11</v>
       </c>
       <c r="N252" t="n">
-        <v>1.07</v>
+        <v>0.52</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>10</v>
       </c>
       <c r="N253" t="n">
-        <v>1.81</v>
+        <v>0.53</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>9</v>
       </c>
       <c r="N254" t="n">
-        <v>1.13</v>
+        <v>0.46</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>10</v>
       </c>
       <c r="N255" t="n">
-        <v>1.1</v>
+        <v>0.48</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>11</v>
       </c>
       <c r="N256" t="n">
-        <v>1.15</v>
+        <v>0.44</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>10</v>
       </c>
       <c r="N257" t="n">
-        <v>1.01</v>
+        <v>0.45</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>9</v>
       </c>
       <c r="N258" t="n">
-        <v>1.16</v>
+        <v>0.47</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>5</v>
       </c>
       <c r="N259" t="n">
-        <v>0.88</v>
+        <v>0.41</v>
       </c>
       <c r="O259" t="inlineStr"/>
     </row>
@@ -14642,7 +14642,7 @@
         <v>6</v>
       </c>
       <c r="N260" t="n">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
       <c r="O260" t="inlineStr"/>
     </row>
@@ -14693,7 +14693,7 @@
         <v>14</v>
       </c>
       <c r="N261" t="n">
-        <v>1.38</v>
+        <v>0.64</v>
       </c>
       <c r="O261" t="inlineStr"/>
     </row>
@@ -14744,7 +14744,7 @@
         <v>9</v>
       </c>
       <c r="N262" t="n">
-        <v>1.17</v>
+        <v>0.43</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>19</v>
       </c>
       <c r="N263" t="n">
-        <v>1.78</v>
+        <v>0.79</v>
       </c>
       <c r="O263" t="inlineStr"/>
     </row>
@@ -14850,7 +14850,7 @@
         <v>6</v>
       </c>
       <c r="N264" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="O264" t="inlineStr"/>
     </row>
@@ -14901,7 +14901,7 @@
         <v>18</v>
       </c>
       <c r="N265" t="n">
-        <v>1.91</v>
+        <v>0.67</v>
       </c>
       <c r="O265" t="inlineStr"/>
     </row>
@@ -14952,7 +14952,7 @@
         <v>10</v>
       </c>
       <c r="N266" t="n">
-        <v>1.4</v>
+        <v>0.53</v>
       </c>
       <c r="O266" t="inlineStr"/>
     </row>
@@ -15003,7 +15003,7 @@
         <v>31</v>
       </c>
       <c r="N267" t="n">
-        <v>2.86</v>
+        <v>1.3</v>
       </c>
       <c r="O267" t="inlineStr"/>
     </row>
@@ -15054,7 +15054,7 @@
         <v>10</v>
       </c>
       <c r="N268" t="n">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>17</v>
       </c>
       <c r="N269" t="n">
-        <v>3.01</v>
+        <v>1.32</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>46</v>
       </c>
       <c r="N270" t="n">
-        <v>3.07</v>
+        <v>1.29</v>
       </c>
       <c r="O270" t="inlineStr"/>
     </row>
@@ -15215,7 +15215,7 @@
         <v>43</v>
       </c>
       <c r="N271" t="n">
-        <v>2.7</v>
+        <v>1.23</v>
       </c>
       <c r="O271" t="inlineStr"/>
     </row>
@@ -15266,7 +15266,7 @@
         <v>6</v>
       </c>
       <c r="N272" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="O272" t="inlineStr"/>
     </row>
@@ -15317,7 +15317,7 @@
         <v>5</v>
       </c>
       <c r="N273" t="n">
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>2</v>
       </c>
       <c r="N274" t="n">
-        <v>0.62</v>
+        <v>0.19</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>2</v>
       </c>
       <c r="N275" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>4</v>
       </c>
       <c r="N276" t="n">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
       <c r="O276" t="inlineStr"/>
     </row>
@@ -15533,7 +15533,7 @@
         <v>13</v>
       </c>
       <c r="N277" t="n">
-        <v>1.57</v>
+        <v>0.52</v>
       </c>
       <c r="O277" t="inlineStr"/>
     </row>
@@ -15584,7 +15584,7 @@
         <v>13</v>
       </c>
       <c r="N278" t="n">
-        <v>1.31</v>
+        <v>0.52</v>
       </c>
       <c r="O278" t="inlineStr"/>
     </row>
@@ -15635,7 +15635,7 @@
         <v>14</v>
       </c>
       <c r="N279" t="n">
-        <v>1.13</v>
+        <v>0.52</v>
       </c>
       <c r="O279" t="inlineStr"/>
     </row>
@@ -15686,7 +15686,7 @@
         <v>13</v>
       </c>
       <c r="N280" t="n">
-        <v>1.72</v>
+        <v>0.55</v>
       </c>
       <c r="O280" t="inlineStr"/>
     </row>
@@ -15737,7 +15737,7 @@
         <v>14</v>
       </c>
       <c r="N281" t="n">
-        <v>1.3</v>
+        <v>0.52</v>
       </c>
       <c r="O281" t="inlineStr"/>
     </row>
@@ -15788,7 +15788,7 @@
         <v>13</v>
       </c>
       <c r="N282" t="n">
-        <v>1.23</v>
+        <v>0.55</v>
       </c>
       <c r="O282" t="inlineStr"/>
     </row>
@@ -15839,7 +15839,7 @@
         <v>13</v>
       </c>
       <c r="N283" t="n">
-        <v>1.39</v>
+        <v>0.53</v>
       </c>
       <c r="O283" t="inlineStr"/>
     </row>
@@ -15890,7 +15890,7 @@
         <v>13</v>
       </c>
       <c r="N284" t="n">
-        <v>1.21</v>
+        <v>0.49</v>
       </c>
       <c r="O284" t="inlineStr"/>
     </row>
@@ -15941,7 +15941,7 @@
         <v>13</v>
       </c>
       <c r="N285" t="n">
-        <v>1.19</v>
+        <v>0.55</v>
       </c>
       <c r="O285" t="inlineStr"/>
     </row>
@@ -15992,7 +15992,7 @@
         <v>13</v>
       </c>
       <c r="N286" t="n">
-        <v>1.23</v>
+        <v>0.54</v>
       </c>
       <c r="O286" t="inlineStr"/>
     </row>
@@ -16043,7 +16043,7 @@
         <v>13</v>
       </c>
       <c r="N287" t="n">
-        <v>1.22</v>
+        <v>0.48</v>
       </c>
       <c r="O287" t="inlineStr"/>
     </row>
@@ -16094,7 +16094,7 @@
         <v>14</v>
       </c>
       <c r="N288" t="n">
-        <v>1.31</v>
+        <v>0.53</v>
       </c>
       <c r="O288" t="inlineStr"/>
     </row>
@@ -16145,7 +16145,7 @@
         <v>14</v>
       </c>
       <c r="N289" t="n">
-        <v>1.2</v>
+        <v>0.53</v>
       </c>
       <c r="O289" t="inlineStr"/>
     </row>
@@ -16196,7 +16196,7 @@
         <v>14</v>
       </c>
       <c r="N290" t="n">
-        <v>1.24</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O290" t="inlineStr"/>
     </row>
@@ -16247,7 +16247,7 @@
         <v>35</v>
       </c>
       <c r="N291" t="n">
-        <v>2.45</v>
+        <v>1.03</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>4</v>
       </c>
       <c r="N292" t="n">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="O292" t="inlineStr"/>
     </row>
@@ -16353,7 +16353,7 @@
         <v>3</v>
       </c>
       <c r="N293" t="n">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="O293" t="inlineStr"/>
     </row>
@@ -16404,7 +16404,7 @@
         <v>15</v>
       </c>
       <c r="N294" t="n">
-        <v>1.24</v>
+        <v>0.47</v>
       </c>
       <c r="O294" t="inlineStr"/>
     </row>
@@ -16455,7 +16455,7 @@
         <v>15</v>
       </c>
       <c r="N295" t="n">
-        <v>1.19</v>
+        <v>0.46</v>
       </c>
       <c r="O295" t="inlineStr"/>
     </row>
@@ -16506,7 +16506,7 @@
         <v>12</v>
       </c>
       <c r="N296" t="n">
-        <v>0.95</v>
+        <v>0.39</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>5</v>
       </c>
       <c r="N297" t="n">
-        <v>0.71</v>
+        <v>0.31</v>
       </c>
       <c r="O297" t="inlineStr"/>
     </row>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="N298" t="n">
-        <v>0.72</v>
+        <v>0.29</v>
       </c>
       <c r="O298" t="inlineStr"/>
     </row>
@@ -16663,7 +16663,7 @@
         <v>5</v>
       </c>
       <c r="N299" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
       <c r="O299" t="inlineStr"/>
     </row>
@@ -16714,7 +16714,7 @@
         <v>8</v>
       </c>
       <c r="N300" t="n">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="O300" t="inlineStr"/>
     </row>
@@ -16765,7 +16765,7 @@
         <v>6</v>
       </c>
       <c r="N301" t="n">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="O301" t="inlineStr"/>
     </row>
@@ -16816,7 +16816,7 @@
         <v>4</v>
       </c>
       <c r="N302" t="n">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="O302" t="inlineStr"/>
     </row>
@@ -16867,7 +16867,7 @@
         <v>5</v>
       </c>
       <c r="N303" t="n">
-        <v>0.72</v>
+        <v>0.29</v>
       </c>
       <c r="O303" t="inlineStr"/>
     </row>
@@ -16918,7 +16918,7 @@
         <v>6</v>
       </c>
       <c r="N304" t="n">
-        <v>0.76</v>
+        <v>0.33</v>
       </c>
       <c r="O304" t="inlineStr"/>
     </row>
@@ -16969,7 +16969,7 @@
         <v>8</v>
       </c>
       <c r="N305" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="O305" t="inlineStr"/>
     </row>
@@ -17020,7 +17020,7 @@
         <v>4</v>
       </c>
       <c r="N306" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="O306" t="inlineStr"/>
     </row>
@@ -17071,7 +17071,7 @@
         <v>5</v>
       </c>
       <c r="N307" t="n">
-        <v>0.7</v>
+        <v>0.29</v>
       </c>
       <c r="O307" t="inlineStr"/>
     </row>
@@ -17122,7 +17122,7 @@
         <v>8</v>
       </c>
       <c r="N308" t="n">
-        <v>0.85</v>
+        <v>0.35</v>
       </c>
       <c r="O308" t="inlineStr"/>
     </row>
@@ -17173,7 +17173,7 @@
         <v>6</v>
       </c>
       <c r="N309" t="n">
-        <v>0.76</v>
+        <v>0.28</v>
       </c>
       <c r="O309" t="inlineStr"/>
     </row>
@@ -17224,7 +17224,7 @@
         <v>6</v>
       </c>
       <c r="N310" t="n">
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
       <c r="O310" t="inlineStr"/>
     </row>
@@ -17275,7 +17275,7 @@
         <v>6</v>
       </c>
       <c r="N311" t="n">
-        <v>1.03</v>
+        <v>0.32</v>
       </c>
       <c r="O311" t="inlineStr"/>
     </row>
@@ -17326,7 +17326,7 @@
         <v>5</v>
       </c>
       <c r="N312" t="n">
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
       <c r="O312" t="inlineStr"/>
     </row>
@@ -17377,7 +17377,7 @@
         <v>5</v>
       </c>
       <c r="N313" t="n">
-        <v>0.77</v>
+        <v>0.26</v>
       </c>
       <c r="O313" t="inlineStr"/>
     </row>
@@ -17428,7 +17428,7 @@
         <v>6</v>
       </c>
       <c r="N314" t="n">
-        <v>0.86</v>
+        <v>0.32</v>
       </c>
       <c r="O314" t="inlineStr"/>
     </row>
@@ -17479,7 +17479,7 @@
         <v>6</v>
       </c>
       <c r="N315" t="n">
-        <v>0.99</v>
+        <v>0.28</v>
       </c>
       <c r="O315" t="inlineStr"/>
     </row>
@@ -17530,7 +17530,7 @@
         <v>6</v>
       </c>
       <c r="N316" t="n">
-        <v>0.9</v>
+        <v>0.31</v>
       </c>
       <c r="O316" t="inlineStr"/>
     </row>
@@ -17581,7 +17581,7 @@
         <v>7</v>
       </c>
       <c r="N317" t="n">
-        <v>1.08</v>
+        <v>0.3</v>
       </c>
       <c r="O317" t="inlineStr"/>
     </row>
@@ -17632,7 +17632,7 @@
         <v>7</v>
       </c>
       <c r="N318" t="n">
-        <v>0.83</v>
+        <v>0.32</v>
       </c>
       <c r="O318" t="inlineStr"/>
     </row>
@@ -17683,7 +17683,7 @@
         <v>7</v>
       </c>
       <c r="N319" t="n">
-        <v>0.85</v>
+        <v>0.36</v>
       </c>
       <c r="O319" t="inlineStr"/>
     </row>
@@ -17734,7 +17734,7 @@
         <v>6</v>
       </c>
       <c r="N320" t="n">
-        <v>1.19</v>
+        <v>0.26</v>
       </c>
       <c r="O320" t="inlineStr"/>
     </row>
@@ -17785,7 +17785,7 @@
         <v>6</v>
       </c>
       <c r="N321" t="n">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
       <c r="O321" t="inlineStr"/>
     </row>
@@ -17836,7 +17836,7 @@
         <v>4</v>
       </c>
       <c r="N322" t="n">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>4</v>
       </c>
       <c r="N323" t="n">
-        <v>0.58</v>
+        <v>0.23</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>5</v>
       </c>
       <c r="N324" t="n">
-        <v>0.72</v>
+        <v>0.24</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>6</v>
       </c>
       <c r="N325" t="n">
-        <v>0.66</v>
+        <v>0.24</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>3</v>
       </c>
       <c r="N326" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="O326" t="inlineStr"/>
     </row>
@@ -18107,7 +18107,7 @@
         <v>5</v>
       </c>
       <c r="N327" t="n">
-        <v>0.68</v>
+        <v>0.28</v>
       </c>
       <c r="O327" t="inlineStr"/>
     </row>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="O328" t="inlineStr"/>
     </row>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="N329" t="n">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="O329" t="inlineStr"/>
     </row>
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="N330" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="O330" t="inlineStr"/>
     </row>
@@ -18311,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="N331" t="n">
-        <v>0.55</v>
+        <v>0.14</v>
       </c>
       <c r="O331" t="inlineStr"/>
     </row>
@@ -18362,7 +18362,7 @@
         <v>31</v>
       </c>
       <c r="N332" t="n">
-        <v>2.78</v>
+        <v>1.17</v>
       </c>
       <c r="O332" t="inlineStr"/>
     </row>
@@ -18413,7 +18413,7 @@
         <v>10</v>
       </c>
       <c r="N333" t="n">
-        <v>1.86</v>
+        <v>0.52</v>
       </c>
       <c r="O333" t="inlineStr"/>
     </row>
@@ -18464,7 +18464,7 @@
         <v>10</v>
       </c>
       <c r="N334" t="n">
-        <v>1.36</v>
+        <v>0.46</v>
       </c>
       <c r="O334" t="inlineStr"/>
     </row>
@@ -18515,7 +18515,7 @@
         <v>12</v>
       </c>
       <c r="N335" t="n">
-        <v>1.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O335" t="inlineStr"/>
     </row>
@@ -18566,7 +18566,7 @@
         <v>10</v>
       </c>
       <c r="N336" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="O336" t="inlineStr"/>
     </row>
@@ -18617,7 +18617,7 @@
         <v>10</v>
       </c>
       <c r="N337" t="n">
-        <v>1.21</v>
+        <v>0.51</v>
       </c>
       <c r="O337" t="inlineStr"/>
     </row>
@@ -18668,7 +18668,7 @@
         <v>9</v>
       </c>
       <c r="N338" t="n">
-        <v>1.17</v>
+        <v>0.44</v>
       </c>
       <c r="O338" t="inlineStr"/>
     </row>
@@ -18719,7 +18719,7 @@
         <v>10</v>
       </c>
       <c r="N339" t="n">
-        <v>1.34</v>
+        <v>0.49</v>
       </c>
       <c r="O339" t="inlineStr"/>
     </row>
@@ -18770,7 +18770,7 @@
         <v>10</v>
       </c>
       <c r="N340" t="n">
-        <v>1.35</v>
+        <v>0.66</v>
       </c>
       <c r="O340" t="inlineStr"/>
     </row>
@@ -18821,7 +18821,7 @@
         <v>10</v>
       </c>
       <c r="N341" t="n">
-        <v>1.31</v>
+        <v>0.5</v>
       </c>
       <c r="O341" t="inlineStr"/>
     </row>
@@ -18872,7 +18872,7 @@
         <v>10</v>
       </c>
       <c r="N342" t="n">
-        <v>1.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O342" t="inlineStr"/>
     </row>
@@ -18923,7 +18923,7 @@
         <v>11</v>
       </c>
       <c r="N343" t="n">
-        <v>1.09</v>
+        <v>0.45</v>
       </c>
       <c r="O343" t="inlineStr"/>
     </row>
@@ -18974,7 +18974,7 @@
         <v>36</v>
       </c>
       <c r="N344" t="n">
-        <v>2.49</v>
+        <v>0.96</v>
       </c>
       <c r="O344" t="inlineStr"/>
     </row>
@@ -19025,7 +19025,7 @@
         <v>7</v>
       </c>
       <c r="N345" t="n">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
       <c r="O345" t="inlineStr"/>
     </row>
@@ -19045,14 +19045,14 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>ইভেন্ট আয়োজন করতে কমপক্ষে ফাইভ পয়েন্ট ফাইভ থাউসেন্ড ডলার লাগবে।</t>
+          <t>ইভেন্ট আয়োজন করতে কমপক্ষে ফাইভ পয়েন্ট ফাইভ থাউজ্যান্ড ডলার লাগবে।</t>
         </is>
       </c>
       <c r="E346" t="b">
         <v>0</v>
       </c>
       <c r="F346" t="n">
-        <v>0.3636</v>
+        <v>0.4</v>
       </c>
       <c r="G346" t="n">
         <v>0.4444</v>
@@ -19064,7 +19064,7 @@
         <v>55</v>
       </c>
       <c r="J346" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K346" t="n">
         <v>6</v>
@@ -19076,7 +19076,7 @@
         <v>10</v>
       </c>
       <c r="N346" t="n">
-        <v>1.72</v>
+        <v>0.6</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>6</v>
       </c>
       <c r="N347" t="n">
-        <v>0.77</v>
+        <v>0.32</v>
       </c>
       <c r="O347" t="inlineStr"/>
     </row>
@@ -19182,7 +19182,7 @@
         <v>12</v>
       </c>
       <c r="N348" t="n">
-        <v>1.05</v>
+        <v>0.46</v>
       </c>
       <c r="O348" t="inlineStr"/>
     </row>
@@ -19197,31 +19197,31 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
+          <t>ফিফটিন পয়েন্ট টু থাউ ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
+          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু থাউজ্যান্ড ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="E349" t="b">
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H349" t="n">
         <v>24</v>
       </c>
       <c r="I349" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J349" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K349" t="n">
         <v>5</v>
@@ -19233,11 +19233,11 @@
         <v>8</v>
       </c>
       <c r="N349" t="n">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>insert: '' → ' ' at 0-0</t>
+          <t>insert: '' → ' ' at 0-0; insert: '' → 'জ্যান্ড' at 20-20</t>
         </is>
       </c>
     </row>
@@ -19343,28 +19343,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0528</v>
+        <v>0.1081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0162</v>
+        <v>0.0165</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4054</v>
+        <v>0.6271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2381</v>
+        <v>0.2404</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -20058,15 +20058,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">হ্যাশ "Card number নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু is valid until টুয়েলভ বাই টু ফাইভ " </t>
+          <t xml:space="preserve">হ্যাশ "Card number নাইন এইট সেভেন সিক্স ফাইভ ফোর থ্রি টু is valid until টুয়েলভ বাই টু ফাইভ " </t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0105</v>
+        <v>0.0316</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>delete: '।' → '' at 23-24</t>
+          <t>delete: '।' → '' at 23-24; delete: '।' → '' at 40-41; delete: '।' → '' at 55-56</t>
         </is>
       </c>
     </row>
@@ -20086,11 +20086,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Order No . নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। . " </t>
+          <t xml:space="preserve">"Order No . নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। has been delivered successfully . " </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3962</v>
+        <v>0.1038</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -20394,15 +20394,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">"ভাউচার নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। ব্যবহার করে বিশ পারসেন্ট ছাড় পাবেন। " </t>
+          <t xml:space="preserve">"ভাউচার নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ ব্যবহার করে বিশ পারসেন্ট ছাড় পাবেন। " </t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1009</v>
+        <v>0.4679</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 16-17; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 13-22; replace: 'েভেন,' → 'াতাশি' at 24-29; replace: 'স' → 'কোট' at 30-31 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -20450,15 +20450,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Payment ID ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু confirmed for BDT দশ হাজার . " </t>
+          <t xml:space="preserve">"Payment ID টুয়েলভ থাউজ্যান্ড থ্রি হান্ড্রেড ফোর্টি-ফাইভ ক্রোর সিক্সটি-সেভেন লাখ এইটি-নাইন থাউজ্যান্ড টুয়েলভ confirmed for BDT দশ হাজার . " </t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1897</v>
+        <v>0.6121</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 21-22; delete: ',' → '' at 27-28 ... and 14 more differences</t>
+          <t>replace: 'ও' → 'টুয়েলভ থাউজ্' at 12-13; delete: '়' → '' at 14-15; replace: ', টু,' → '্ড' at 17-22 ... and 18 more differences</t>
         </is>
       </c>
     </row>
@@ -20758,15 +20758,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">শ্লিপ নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>শ্লিপ নম্বর ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1512</v>
+        <v>0.186</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 21-22; delete: ',' → '' at 27-28 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 13-15; delete: ',' → '' at 17-18; delete: ',' → '' at 21-22 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -20786,15 +20786,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">card number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>card number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1512</v>
+        <v>0.186</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 21-22; delete: ',' → '' at 27-28 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 13-15; delete: ',' → '' at 17-18; delete: ',' → '' at 21-22 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -20898,15 +20898,15 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">cilip number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>cilip number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1494</v>
+        <v>0.1839</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 22-23; delete: ',' → '' at 28-29 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 14-16; delete: ',' → '' at 18-19; delete: ',' → '' at 22-23 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -20982,15 +20982,15 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">token id number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। </t>
+          <t>token id number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু থ্রি</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.1444</v>
+        <v>0.1778</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 21-22; delete: ',' → '' at 25-26; delete: ',' → '' at 31-32 ... and 10 more differences</t>
+          <t>replace: 'য়' → 'য়' at 17-19; delete: ',' → '' at 21-22; delete: ',' → '' at 25-26 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -21010,15 +21010,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">রশিদ নম্বর এইট নাইন জিরো ফোর। থ্রি নাইন জিরো। </t>
+          <t>রশিদ নম্বর এইট নাইন জিরো ফোর থ্রি নাইন জিরো</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1429</v>
+        <v>0.1224</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 14-15; delete: ',' → '' at 20-21; delete: ',' → '' at 26-27 ... and 4 more differences</t>
+          <t>delete: ',' → '' at 14-15; delete: ',' → '' at 20-21; delete: ',' → '' at 26-27 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -21066,15 +21066,15 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">account number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। </t>
+          <t>account number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.1389</v>
+        <v>0.1528</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 20-21; delete: ',' → '' at 24-25; delete: ',' → '' at 30-31 ... and 7 more differences</t>
+          <t>replace: 'য়' → 'য়' at 16-18; delete: ',' → '' at 20-21; delete: ',' → '' at 24-25 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -21178,15 +21178,15 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">একাউন্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সিক্স। </t>
+          <t>একাউন্ট নম্বর এক দুই তিন চার পাঁচ ছয় ছয়</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1296</v>
+        <v>0.5556</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 4 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 14-17; replace: 'ন,' → 'র' at 18-20; replace: 'টু,' → 'পাঁচ' at 21-24 ... and 2 more differences</t>
         </is>
       </c>
     </row>
@@ -21206,15 +21206,15 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ricipt number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সিক্স। সেভেন সেভেন নাইন। এইট নাইন </t>
+          <t>ricipt number ওয়ান টু থ্রি ফোর ফাইভ ডাবল সিক্স ডাবল সেভেন নাইন এইট নাইন</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.1294</v>
+        <v>0.2706</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 15-17; delete: ',' → '' at 19-20; delete: ',' → '' at 23-24 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -21290,15 +21290,15 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">"দয়া করে Trans No . সিক্স ফাইভ ফোর থ্রি। টু ওয়ান জিরো। নাইন এইট সেভেন। রেফারেন্স হিসাবে ব্যবহার করুন। " </t>
+          <t xml:space="preserve">"দয়া করে Trans No . ছয়শো চুয়ান্ন কোটি বত্রিশ লক্ষ দশ হাজার নয়শো সাতাশি রেফারেন্স হিসাবে ব্যবহার করুন। " </t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1284</v>
+        <v>0.4404</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>insert: '' → ' . ' at 18-18; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 9 more differences</t>
+          <t>replace: 'স' → ' . ছয়শো চুয়ান্ন কোট' at 18-19; delete: 'ক্স,' → '' at 20-24; replace: 'ফাইভ, ফোর, থ' → 'বত' at 25-37 ... and 9 more differences</t>
         </is>
       </c>
     </row>
@@ -21318,15 +21318,15 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">টোকেন নম্বর ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>টোকেন নম্বর চার পাঁচ ছয় সাত আট শূন্য তিন চার পাঁচ</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.127</v>
+        <v>0.5714</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 6 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 12-14; delete: ',' → '' at 15-16; replace: 'ফ' → 'প' at 17-18 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -21346,7 +21346,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">bill number ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>bill number ফোর ফাইভ সিক্স সেভেন এইট জিরো থ্রি ফোর ফাইভ</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -21354,7 +21354,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 6 more differences</t>
+          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -21374,15 +21374,15 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">চালান নম্বর ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>চালান নম্বর চার পাঁচ ছয় সাত আট শূন্য তিন চার পাঁচ</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.127</v>
+        <v>0.5714</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 6 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 12-14; delete: ',' → '' at 15-16; replace: 'ফ' → 'প' at 17-18 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -21402,15 +21402,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার কার্ড নম্বর ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। সেভেন এইট নাইন। দিয়ে পেমেন্ট করুন। " </t>
+          <t xml:space="preserve">"আপনার কার্ড নম্বর চার পাঁচ ছয় সাত। আট নয় শূন্য। এক দুই তিন। চার পাঁচ ছয়। সাত আট নয়। দিয়ে পেমেন্ট করুন। " </t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1259</v>
+        <v>0.5037</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 28-29; delete: ',' → '' at 35-36 ... and 14 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 19-21; delete: ',' → '' at 22-23; replace: 'ফ' → 'প' at 24-25 ... and 9 more differences</t>
         </is>
       </c>
     </row>
@@ -21430,15 +21430,15 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ইনভয়েস নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু বৈধ। " </t>
+          <t xml:space="preserve">"আপনার ইনভয়েস নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই বৈধ। " </t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1237</v>
+        <v>0.5258</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 21-24; replace: 'ন,' → 'র' at 25-27; replace: 'টু,' → 'পাঁচ' at 28-31 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -21514,15 +21514,15 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">"গ্রাহকের A C নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। এ জমা করুন। " </t>
+          <t xml:space="preserve">"গ্রাহকের A C নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ এ জমা করুন। " </t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1222</v>
+        <v>0.5667</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 19-28; replace: 'েভেন,' → 'াতাশি' at 30-35; replace: 'স' → 'কোট' at 36-37 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -21542,15 +21542,15 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আজকের লেনদেন নং: সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। সফল হয়েছে। " </t>
+          <t xml:space="preserve">"আজকের লেনদেন নং: সাতশো ঊননব্বই কোটি এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন সফল হয়েছে। " </t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1222</v>
+        <v>0.5333</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াতশো ঊ' at 19-22; replace: ',' → 'নব্বই কোটি' at 23-24; insert: '' → 'ক লক্ষ তে' at 26-26 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -21570,7 +21570,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">invoice number ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ </t>
+          <t>invoice number ফোর ফাইভ সিক্স সেভেন এইট জিরো থ্রি ফোর ফাইভ</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -21578,7 +21578,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 6 more differences</t>
+          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -21682,15 +21682,15 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অনুগ্রহ করে Card নং নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। নাইন এইট সেভেন। সিক্স এর CVV দিন। " </t>
+          <t xml:space="preserve">"অনুগ্রহ করে Card নং আটানব্বই লক্ষ ছিয়াত্তর হাজার পাঁচশো তেতাল্লিশ কোটি একুশ লক্ষ নয় হাজার আটশো ছিয়াত্তর এর CVV দিন। " </t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1186</v>
+        <v>0.6271</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 11 more differences</t>
+          <t>insert: '' → 'আটা' at 21-21; insert: '' → 'ব্বই লক্ষ ছিয়' at 22-22; replace: 'ইন,' → 'ত্তর হাজার পাঁচশো তেতাল্লিশ কোটি' at 23-26 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -21710,15 +21710,15 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">"পার্সেল ট্র্যাকিং নম্বর সিক্স সেভেন এইট নাইন। জিরো ওয়ান টু। থ্রি ফোর ফাইভ। সিক্স সেভেন এইট। দিয়ে খুঁজুন। " </t>
+          <t xml:space="preserve">"পার্সেল ট্র্যাকিং নম্বর ছয় সাত আট নয় শূন্য এক দুই তিন চার পাঁচ ছয় সাত আট দিয়ে খুঁজুন। " </t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.1186</v>
+        <v>0.4746</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 37-38; delete: ',' → '' at 42-43 ... and 11 more differences</t>
+          <t>replace: 'সিক্স,' → 'ছয়' at 25-31; replace: 'েভে' → 'াত আট ' at 33-36; replace: ',' → 'য় শূন্য' at 37-38 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -21738,15 +21738,15 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">"বিল নং: সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। অনলাইনে পরিশোধ করা যাবে। " </t>
+          <t xml:space="preserve">"বিল নং: সাতশো ঊননব্বই কোটি এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন অনলাইনে পরিশোধ করা যাবে। " </t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.117</v>
+        <v>0.5106000000000001</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 14-15; delete: ',' → '' at 19-20; delete: ',' → '' at 25-26 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াতশো ঊ' at 10-13; replace: ',' → 'নব্বই কোটি' at 14-15; insert: '' → 'ক লক্ষ তে' at 17-17 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -21766,15 +21766,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার অর্ডার নম্বর এইট নাইন জিরো ওয়ান। টু থ্রি ফোর। ফাইভ সিক্স সেভেন। ট্র্যাক করুন। " </t>
+          <t xml:space="preserve">"আপনার অর্ডার নম্বর আট নয় শূন্য এক দুই তিন চার পাঁচ ছয় সাত ট্র্যাক করুন। " </t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.117</v>
+        <v>0.4468</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'এই' → 'আ' at 20-22; delete: ',' → '' at 23-24; insert: '' → 'য় শূন্য এক দুই তিন চ' at 26-26 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -21794,15 +21794,15 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">"কাস্টমার নম্বর: সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। দিয়ে লগইন করুন। " </t>
+          <t xml:space="preserve">"কাস্টমার নম্বর: সাত আট নয় শূন্য। এক দুই তিন। চার পাঁচ ছয়। দিয়ে লগইন করুন। " </t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.117</v>
+        <v>0.4574</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 33-34 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াত আট ' at 18-21; replace: ',' → 'য় শূন্য।' at 22-23; insert: '' → 'ক দু' at 25-25 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -21822,15 +21822,15 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার পেমেন্ট আইডি সেভেন এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ সিক্স। সেভ করে রাখুন। " </t>
+          <t xml:space="preserve">"আপনার পেমেন্ট আইডি সাতশো ঊননব্বই কোটি এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন সেভ করে রাখুন। " </t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.1158</v>
+        <v>0.5053</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 8 more differences</t>
+          <t>replace: 'েভে' → 'াতশো ঊ' at 21-24; replace: ',' → 'নব্বই কোটি' at 25-26; insert: '' → 'ক লক্ষ তে' at 28-28 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -21850,15 +21850,15 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">"ট্র্যাকিং নং: ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। ফোর ফাইভ অনলাইনে চেক করুন। " </t>
+          <t xml:space="preserve">"ট্র্যাকিং নং: পঁয়তাল্লিশ হাজার ছয়শো আটাত্তর কোটি নব্বই লক্ষ বারো হাজার তিনশো পঁয়তাল্লিশ অনলাইনে চেক করুন। " </t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.1154</v>
+        <v>0.625</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 9 more differences</t>
+          <t>replace: 'ফ' → 'পঁয়তাল্লিশ হাজার ছয়শ' at 15-16; insert: '' → ' আটাত্ত' at 17-17; delete: ',' → '' at 18-19 ... and 14 more differences</t>
         </is>
       </c>
     </row>
@@ -21878,15 +21878,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার কার্ড নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। দিয়ে পেমেন্ট সফল হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার কার্ড নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন দিয়ে পেমেন্ট সফল হয়েছে। " </t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.1148</v>
+        <v>0.4508</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 11 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 19-22; replace: 'ন,' → 'র' at 23-25; replace: 'টু,' → 'পাঁচ' at 26-29 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -21906,15 +21906,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার টোকেন নম্বর ফাইভ সিক্স সেভেন এইট। নাইন জিরো ওয়ান। টু থ্রি ফোর। দিয়ে লগইন করুন। " </t>
+          <t xml:space="preserve">"আপনার টোকেন নম্বর পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন চার দিয়ে লগইন করুন। " </t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.1146</v>
+        <v>0.4375</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'ফ' → 'প' at 19-20; replace: 'ইভ,' → 'ঁচ ছয়' at 21-24; replace: 'িক' → 'াত আট নয় শূন' at 26-28 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -21934,15 +21934,15 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">রিসিপ্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ টু </t>
+          <t>রিসিপ্ট নম্বর ওয়ান টু থ্রি ফোর ফাইভ টু</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.1136</v>
+        <v>0.1591</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 3 more differences</t>
+          <t>replace: 'য়' → 'য়' at 15-17; delete: ',' → '' at 19-20; delete: ',' → '' at 23-24 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -21962,15 +21962,15 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার শ্লিপ নম্বর থ্রি ফোর ফাইভ সিক্স। সেভেন এইট নাইন। জিরো ওয়ান টু। জমা দেওয়া হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার শ্লিপ নম্বর তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই জমা দেওয়া হয়েছে। " </t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.1122</v>
+        <v>0.4388</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 8 more differences</t>
+          <t>replace: 'থ্' → 'তিন চা' at 19-21; delete: 'ি,' → '' at 22-24; replace: 'ফোর,' → 'পাঁচ' at 25-29 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -21990,15 +21990,15 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">"এই মাসের বিল নম্বর এইট নাইন জিরো ওয়ান। টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এর বকেয়া পাঁচ হাজার টাকা । " </t>
+          <t xml:space="preserve">"এই মাসের বিল নম্বর আট নয় শূন্য এক দুই তিন চার পাঁচ ছয় সাত এর বকেয়া পাঁচ হাজার টাকা । " </t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.1121</v>
+        <v>0.4019</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 9 more differences</t>
+          <t>replace: 'এই' → 'আ' at 20-22; delete: ',' → '' at 23-24; insert: '' → 'য় শূন্য এক দুই তিন চ' at 26-26 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -22046,15 +22046,15 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">"ব্যাংক শ্লিপ নম্বর থ্রি ফোর ফাইভ সিক্স। সেভেন এইট নাইন। জিরো ওয়ান টু। জমা দেওয়া হয়েছে। " </t>
+          <t xml:space="preserve">"ব্যাংক শ্লিপ নম্বর তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই জমা দেওয়া হয়েছে। " </t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.1111</v>
+        <v>0.4343</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'থ্' → 'তিন চা' at 20-22; delete: 'ি,' → '' at 23-25; replace: 'ফোর,' → 'পাঁচ' at 26-30 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -22074,15 +22074,15 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমার অর্ডার নাম্বার ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু বাতিল করতে চাই। " </t>
+          <t xml:space="preserve">"আমার অর্ডার নাম্বার এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই বাতিল করতে চাই। " </t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.1111</v>
+        <v>0.4722</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 21-24; replace: 'ন,' → 'র' at 25-27; replace: 'টু,' → 'পাঁচ' at 28-31 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -22102,15 +22102,15 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">"দয়া করে রেফারেন্স নম্বর ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। উল্লেখ করুন। " </t>
+          <t xml:space="preserve">"দয়া করে রেফারেন্স নম্বর চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন উল্লেখ করুন। " </t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.1111</v>
+        <v>0.4343</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 29-30; delete: ',' → '' at 35-36; delete: ',' → '' at 42-43 ... and 8 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 26-28; delete: ',' → '' at 29-30; replace: 'ফ' → 'প' at 31-32 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -22130,15 +22130,15 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Deposit slip no . ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু has been verified . " </t>
+          <t xml:space="preserve">"Deposit slip no . টুয়েলভ থাউজ্যান্ড থ্রি হান্ড্রেড ফোর্টি-ফাইভ ক্রোর সিক্সটি-সেভেন লাখ এইটি-নাইন থাউজ্যান্ড টুয়েলভ has been verified . " </t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.1091</v>
+        <v>0.5545</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 9 more differences</t>
+          <t>replace: 'ও' → 'টুয়েলভ থাউজ্' at 19-20; delete: '়' → '' at 21-22; replace: ', টু,' → '্ড' at 24-29 ... and 13 more differences</t>
         </is>
       </c>
     </row>
@@ -22158,15 +22158,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার জমা স্লিপ নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। অনুমোদন করা হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার জমা স্লিপ নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ অনুমোদন করা হয়েছে। " </t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.1089</v>
+        <v>0.505</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 22-31; replace: 'েভেন,' → 'াতাশি' at 33-38; replace: 'স' → 'কোট' at 39-40 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -22186,15 +22186,15 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার Ref নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জিরো। দিয়ে স্ট্যাটাস চেক করুন। " </t>
+          <t xml:space="preserve">"আপনার Ref নং: নয়শো সাতাশি কোটি পঁয়ষট্টি লক্ষ তেতাল্লিশ হাজার দুইশো দশ দিয়ে স্ট্যাটাস চেক করুন। " </t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.1089</v>
+        <v>0.505</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 24-25; delete: ',' → '' at 31-32 ... and 8 more differences</t>
+          <t>replace: 'াইন, এইট,' → 'য়শো' at 16-25; replace: 'েভেন,' → 'াতাশি' at 27-32; replace: 'স' → 'কোট' at 33-34 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -22214,15 +22214,15 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার গ্রাহক আইডি নাইন জিরো ওয়ান টু। থ্রি ফোর ফাইভ। সিক্স সেভেন এইট। প্রোফাইলে আপডেট করুন। " </t>
+          <t xml:space="preserve">"আপনার গ্রাহক আইডি নয়শো এক কোটি তেইশ লক্ষ পঁয়তাল্লিশ হাজার ছয়শো আটাত্তর প্রোফাইলে আপডেট করুন। " </t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.1089</v>
+        <v>0.505</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 23-24; delete: ',' → '' at 29-30; delete: ',' → '' at 36-37 ... and 8 more differences</t>
+          <t>replace: 'া' → 'য়শো এক কোটি তে' at 20-21; replace: 'ন,' → 'শ' at 22-24; replace: 'জিরো, ওয়ান, টু, থ্রি, ফোর, ফাইভ, সি' → 'ল' at 25-61 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -22242,15 +22242,15 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ট্রানজেকশন নম্বর এইট নাইন ওয়ান টু। থ্রি ফোর ফাইভ। সিক্স সেভেন এইট। দিয়ে অভিযোগ করুন। " </t>
+          <t xml:space="preserve">"আপনার ট্রানজেকশন নম্বর এইট নাইন ওয়ান দুই তিন চার পাঁচ ছয় সাত আট দিয়ে অভিযোগ করুন। " </t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.1078</v>
+        <v>0.3137</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 33-34; delete: ',' → '' at 40-41 ... and 8 more differences</t>
+          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 33-34; replace: 'য়' → 'য়' at 36-38 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -22298,15 +22298,15 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমাদের চালান নম্বর সিক্স সেভেন এইট নাইন। জিরো ওয়ান টু। থ্রি ফোর ফাইভ। অনুযায়ী পেমেন্ট করুন। " </t>
+          <t xml:space="preserve">"আমাদের চালান নম্বর ছয় সাত আট নয় শূন্য এক দুই তিন চার পাঁচ অনুযায়ী পেমেন্ট করুন। " </t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.1068</v>
+        <v>0.4078</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 32-33; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'সিক্স,' → 'ছয়' at 20-26; replace: 'েভে' → 'াত আট ' at 28-31; replace: ',' → 'য় শূন্য' at 32-33 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -22326,15 +22326,15 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">"মূল inv নং ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। ছাড়া পণ্য ফেরত নেওয়া হবে না। " </t>
+          <t xml:space="preserve">"মূল inv নং চারশো ছাপ্পান্ন কোটি আটাত্তর লক্ষ নব্বই হাজার একশো তেইশ ছাড়া পণ্য ফেরত নেওয়া হবে না। " </t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.1068</v>
+        <v>0.4854</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 21-22; delete: ',' → '' at 28-29 ... and 8 more differences</t>
+          <t>replace: 'ফ' → 'চারশ' at 12-13; insert: '' → ' ছাপ্পান্ন কোটি আটাত্ত' at 14-14; delete: ',' → '' at 15-16 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -22354,15 +22354,15 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমার একাউন্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। থেকে টাকা কেটে নিয়েছে। " </t>
+          <t xml:space="preserve">"আমার একাউন্ট নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য থেকে টাকা কেটে নিয়েছে। " </t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.1058</v>
+        <v>0.4135</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 20-23; replace: 'ন,' → 'র' at 24-26; replace: 'টু,' → 'পাঁচ' at 27-30 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -22382,15 +22382,15 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার হিসাব নাম্বার: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু সফলভাবে খোলা হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার হিসাব নাম্বার: এক দুই তিন চার। পাঁচ ছয় সাত। আট নয় শূন্য। এক দুই সফলভাবে খোলা হয়েছে। " </t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.1053</v>
+        <v>0.4474</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 31-32; delete: ',' → '' at 37-38 ... and 9 more differences</t>
+          <t>replace: 'ও' → 'এক দুই তিন চার। পাঁচ ছ' at 22-23; delete: 'ান, টু, থ্রি, ফোর, ফাইভ,' → '' at 25-49; replace: 'িক' → 'াত। আট নয় শূন' at 51-53 ... and 4 more differences</t>
         </is>
       </c>
     </row>
@@ -22410,15 +22410,15 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">"উত্তোলন cilip number ফাইভ ফাইভ ফাইভ সিক্স। সিক্স সিক্স সেভেন। সেভেন সেভেন এইট। এইট এইট প্রসেসিং এ আছে। " </t>
+          <t xml:space="preserve">"উত্তোলন cilip number ট্রিপল ফাইভ ট্রিপল সিক্স ট্রিপল সেভেন ট্রিপল এইট প্রসেসিং এ আছে। " </t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.1053</v>
+        <v>0.4123</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 32-33; delete: ',' → '' at 38-39 ... and 9 more differences</t>
+          <t>replace: 'ফাইভ,' → 'ট্রিপল' at 22-27; delete: ',' → '' at 32-33; replace: 'ফাইভ,' → 'ট্রিপল' at 34-39 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -22438,15 +22438,15 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অর্ডার নং: সিক্স সেভেন এইট নাইন। জিরো ওয়ান টু। থ্রি ফোর ফাইভ। এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
+          <t xml:space="preserve">"অর্ডার নং: ছয়শো আটাত্তর কোটি নব্বই লক্ষ বারো হাজার তিনশো পঁয়তাল্লিশ এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.1048</v>
+        <v>0.4857</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 17-18; delete: ',' → '' at 24-25; delete: ',' → '' at 29-30 ... and 8 more differences</t>
+          <t>replace: 'স' → 'ছয়শো আটাত্তর কোট' at 12-13; insert: '' → ' নব্বই ল' at 14-14; replace: 'স,' → 'ষ' at 16-18 ... and 10 more differences</t>
         </is>
       </c>
     </row>
@@ -22466,15 +22466,15 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আমার account নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। থেকে টাকা transfer করুন। " </t>
+          <t xml:space="preserve">"আমার account নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য থেকে টাকা transfer করুন। " </t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.1048</v>
+        <v>0.4095</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 25-26; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 20-23; replace: 'ন,' → 'র' at 24-26; replace: 'টু,' → 'পাঁচ' at 27-30 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -22550,15 +22550,15 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">"TXN নাম্বার: ওয়ান ওয়ান ওয়ান টু। টু টু থ্রি। থ্রি থ্রি ফোর। ফোর ফোর এর জন্য দশ টাকা চার্জ কাটা হয়েছে। " </t>
+          <t xml:space="preserve">"TXN নাম্বার: ট্রিপল ওয়ান ট্রিপল টু ট্রিপল থ্রি ট্রিপল ফোর এর জন্য দশ টাকা চার্জ কাটা হয়েছে। " </t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.1034</v>
+        <v>0.3448</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 26-27; delete: ',' → '' at 33-34 ... and 9 more differences</t>
+          <t>insert: '' → 'ট্রিপল ' at 14-14; replace: 'য়' → 'য়' at 15-17; delete: ',' → '' at 19-20 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -22578,15 +22578,15 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার একাউন্ট নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সিক্স। সংরক্ষণ করুন। " </t>
+          <t xml:space="preserve">"আপনার একাউন্ট নম্বর এক দুই তিন চার পাঁচ ছয় ছয় সংরক্ষণ করুন। " </t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.1026</v>
+        <v>0.3974</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 26-27; delete: ',' → '' at 30-31; delete: ',' → '' at 36-37 ... and 5 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 21-24; replace: 'ন,' → 'র' at 25-27; replace: 'টু,' → 'পাঁচ' at 28-31 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -22634,15 +22634,15 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">"নতুন receipt নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জেনারেট হয়েছে। " </t>
+          <t xml:space="preserve">"নতুন receipt নং: নাইনটি-এইট ক্রোর সেভেন্টি-সিক্স লাখ ফিফটি-ফোর থাউজ্যান্ড থ্রি হান্ড্রেড টোয়েন্টি-ওয়ান জেনারেট হয়েছে। " </t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.1023</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 6 more differences</t>
+          <t>replace: ', ' → 'টি-' at 22-24; replace: ',' → ' ক্রোর' at 27-28; replace: ', ' → '্টি-' at 34-36 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -22690,15 +22690,15 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>বিল নম্বর ফোর ফাইভ সিক্স সেভেন। এইট জিরো থ্রি। ফোর ফাইভ hello how are you</t>
+          <t>বিল নম্বর চার পাঁচ ছয় সাত আট শূন্য তিন চার পাঁচ hello how are you</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.1013</v>
+        <v>0.4557</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 13-14; delete: ',' → '' at 19-20; delete: ',' → '' at 26-27 ... and 5 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 10-12; delete: ',' → '' at 13-14; replace: 'ফ' → 'প' at 15-16 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -22718,15 +22718,15 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Security token ID number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু expires at midnight . " </t>
+          <t xml:space="preserve">"Security token ID number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু expires at midnight . " </t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.1008</v>
+        <v>0.1345</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 31-32; delete: ',' → '' at 35-36; delete: ',' → '' at 41-42 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 27-29; delete: ',' → '' at 31-32; delete: ',' → '' at 35-36 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -22746,15 +22746,15 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ট্র্যাকিং নম্বর ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু দিয়ে পণ্য ট্র্যাক করুন। " </t>
+          <t xml:space="preserve">"আপনার ট্র্যাকিং নম্বর এক দুই তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই দিয়ে পণ্য ট্র্যাক করুন। " </t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.1008</v>
+        <v>0.4286</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 28-29; delete: ',' → '' at 32-33; delete: ',' → '' at 38-39 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'এক দুই তিন চ' at 23-26; replace: 'ন,' → 'র' at 27-29; replace: 'টু,' → 'পাঁচ' at 30-33 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -22774,15 +22774,15 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Customer ID ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু is eligible for premium benefits . " </t>
+          <t xml:space="preserve">"Customer ID টুয়েলভ থাউজ্যান্ড থ্রি হান্ড্রেড ফোর্টি-ফাইভ ক্রোর সিক্সটি-সেভেন লাখ এইটি-নাইন থাউজ্যান্ড টুয়েলভ is eligible for premium benefits . " </t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.1008</v>
+        <v>0.5125999999999999</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 18-19; delete: ',' → '' at 22-23; delete: ',' → '' at 28-29 ... and 9 more differences</t>
+          <t>replace: 'ও' → 'টুয়েলভ থাউজ্' at 13-14; delete: '়' → '' at 15-16; replace: ', টু,' → '্ড' at 18-23 ... and 13 more differences</t>
         </is>
       </c>
     </row>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">ট্রানজেকশন নাম্বার এইট নাইন থ্রি জিরো। টু থ্রি </t>
+          <t>ট্রানজেকশন নাম্বার এইট নাইন থ্রি জিরো টু থ্রি</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -22838,7 +22838,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 3 more differences</t>
+          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 28-29; delete: ',' → '' at 34-35 ... and 2 more differences</t>
         </is>
       </c>
     </row>
@@ -22858,15 +22858,15 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার রিসিপ্ট নম্বর ফোর ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু থ্রি। সংরক্ষণ করুন ভবিষ্যতের জন্য। " </t>
+          <t xml:space="preserve">"আপনার রিসিপ্ট নম্বর চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন সংরক্ষণ করুন ভবিষ্যতের জন্য। " </t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.1</v>
+        <v>0.3909</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 30-31; delete: ',' → '' at 37-38 ... and 8 more differences</t>
+          <t>replace: 'ফো' → 'চা' at 21-23; delete: ',' → '' at 24-25; replace: 'ফ' → 'প' at 26-27 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -22886,15 +22886,15 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">"নতুন Token নং: নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান জেনারেট করা হয়েছে। " </t>
+          <t xml:space="preserve">"নতুন Token নং: নয় আট সাত ছয়। পাঁচ চার তিন। দুই এক জেনারেট করা হয়েছে। " </t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.1</v>
+        <v>0.4222</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 20-21; delete: ',' → '' at 25-26; delete: ',' → '' at 32-33 ... and 6 more differences</t>
+          <t>insert: '' → 'য় আট স' at 17-17; insert: '' → 'ত ছয়। পাঁচ চার তিন। দু' at 18-18; delete: 'ন,' → '' at 19-21 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -22914,15 +22914,15 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার ভাউচার নম্বর থ্রি ফোর ফাইভ সিক্স। সেভেন এইট নাইন। জিরো ওয়ান টু। একত্রিশ ডিসেম্বর পর্যন্ত বৈধ। " </t>
+          <t xml:space="preserve">"আপনার ভাউচার নম্বর তিন চার পাঁচ ছয় সাত আট নয় শূন্য এক দুই একত্রিশ ডিসেম্বর পর্যন্ত বৈধ। " </t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.1</v>
+        <v>0.3909</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 24-25; delete: ',' → '' at 29-30; delete: ',' → '' at 35-36 ... and 8 more differences</t>
+          <t>replace: 'থ্' → 'তিন চা' at 20-22; delete: 'ি,' → '' at 23-25; replace: 'ফোর,' → 'পাঁচ' at 26-30 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -22970,15 +22970,15 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">"পেমেন্ট আইডি ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু নিশ্চিত হয়েছে BDT দশ হাজার এর জন্য। " </t>
+          <t xml:space="preserve">"পেমেন্ট আইডি বারো হাজার তিনশো পঁয়তাল্লিশ কোটি সাতষট্টি লক্ষ ঊননব্বই হাজার বারো নিশ্চিত হয়েছে BDT দশ হাজার এর জন্য। " </t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.0984</v>
+        <v>0.4918</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 23-24; delete: ',' → '' at 29-30 ... and 9 more differences</t>
+          <t>replace: 'ওয়' → 'ব' at 14-17; insert: '' → 'রো হাজার তি' at 18-18; replace: ',' → 'শো' at 19-20 ... and 13 more differences</t>
         </is>
       </c>
     </row>
@@ -22998,15 +22998,15 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অর্ডার নম্বর: ফাইভ সিক্স সেভেন এইট। নাইন জিরো ওয়ান। টু থ্রি ফোর। ফাইভ এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
+          <t xml:space="preserve">"অর্ডার নম্বর: পাঁচ ছয় সাত আট নয় শূন্য এক দুই তিন চার পাঁচ এর ডেলিভারি তিন দিনের মধ্যে হবে। " </t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.0965</v>
+        <v>0.4035</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 19-20; delete: ',' → '' at 26-27; delete: ',' → '' at 33-34 ... and 8 more differences</t>
+          <t>replace: 'ফ' → 'প' at 15-16; replace: 'ইভ,' → 'ঁচ ছয়' at 17-20; replace: 'িক' → 'াত আট নয় শূন' at 22-24 ... and 9 more differences</t>
         </is>
       </c>
     </row>
@@ -23082,15 +23082,15 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">"মূল রসিদ নাম্বার নাইন এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছাড়া রিটার্ন সম্ভব নয়। " </t>
+          <t xml:space="preserve">"মূল রসিদ নাম্বার নয় আট সাত ছয়। পাঁচ চার তিন। দুই এক ছাড়া রিটার্ন সম্ভব নয়। " </t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.09279999999999999</v>
+        <v>0.3918</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 22-23; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 6 more differences</t>
+          <t>insert: '' → 'য় আট স' at 19-19; insert: '' → 'ত ছয়। পাঁচ চার তিন। দু' at 20-20; delete: 'ন,' → '' at 21-23 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -23110,15 +23110,15 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার বিদ্যুৎ বিল নম্বর টু জিরো টু ফোর। জিরো ওয়ান ওয়ান। টু থ্রি ফোর। ফাইভ সিক্স পনের জানুয়ারি তারিখে পরিশোধ করতে হবে। " </t>
+          <t xml:space="preserve">"আপনার বিদ্যুৎ বিল নম্বর দুই শূন্য দুই চার। শূন্য এক এক। দুই তিন চার। পাঁচ ছয় পনের জানুয়ারি তারিখে পরিশোধ করতে হবে। " </t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.3636</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 27-28; delete: ',' → '' at 33-34; delete: ',' → '' at 37-38 ... and 9 more differences</t>
+          <t>replace: 'ট' → 'দ' at 25-26; replace: ',' → 'ই' at 27-28; replace: 'জ' → 'শূন্য দুই চার। শূন্য এক এক। দুই ত' at 29-30 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -23138,15 +23138,15 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">"পেমেন্ট নম্বর: ফাইভ সিক্স সেভেন এইট। নাইন জিরো ওয়ান। টু থ্রি দিয়ে রিফান্ড ট্র্যাক করুন। " </t>
+          <t xml:space="preserve">"পেমেন্ট নম্বর: পাঁচ ছয় সাত আট। নয় শূন্য এক। দুই তিন দিয়ে রিফান্ড ট্র্যাক করুন। " </t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.404</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 20-21; delete: ',' → '' at 27-28; delete: ',' → '' at 34-35 ... and 6 more differences</t>
+          <t>replace: 'ফ' → 'প' at 16-17; replace: 'ইভ,' → 'ঁচ ছয়' at 18-21; replace: 'িক' → 'াত আট। নয় শূন' at 23-25 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -23166,15 +23166,15 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">"The loan amount will be deducted from ACCT NUMBER: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু monthly . " </t>
+          <t xml:space="preserve">"The loan amount will be deducted from ACCT NUMBER: ওয়ান টু থ্রি ফোর পয়েন্ট ফাইভ সিক্স সেভেন এইট monthly . " </t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.0902</v>
+        <v>0.2932</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 57-58; delete: ',' → '' at 61-62; delete: ',' → '' at 67-68 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 53-55; delete: ',' → '' at 57-58; delete: ',' → '' at 61-62 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -23194,15 +23194,15 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Please transfer the amount to account number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। before ফাইভ PM . " </t>
+          <t xml:space="preserve">"Please transfer the amount to account number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো before ফাইভ PM . " </t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 51-52; delete: ',' → '' at 55-56; delete: ',' → '' at 61-62 ... and 8 more differences</t>
+          <t>replace: 'য়' → 'য়' at 47-49; delete: ',' → '' at 51-52; delete: ',' → '' at 55-56 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -23250,15 +23250,15 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">"অনুগ্রহ করে Ricipt Number এইট সেভেন সিক্স ফাইভ। ফোর থ্রি টু। ওয়ান জিরো টি প্রিন্ট করে রাখুন। " </t>
+          <t xml:space="preserve">"অনুগ্রহ করে Ricipt Number এইট সেভেন সিক্স ফাইভ ফোর থ্রি টু ওয়ান জিরো টি প্রিন্ট করে রাখুন। " </t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.1068</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 37-38; delete: ',' → '' at 44-45 ... and 6 more differences</t>
+          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 37-38; delete: ',' → '' at 44-45 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -23390,15 +23390,15 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Your transaction number ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন জিরো। ওয়ান টু has been processed at দুইটা ত্রিশ মিনিট PM . " </t>
+          <t xml:space="preserve">"Your transaction number ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন জিরো ওয়ান টু has been processed at দুইটা ত্রিশ মিনিট PM . " </t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.0851</v>
+        <v>0.1135</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 30-31; delete: ',' → '' at 34-35; delete: ',' → '' at 40-41 ... and 9 more differences</t>
+          <t>replace: 'য়' → 'য়' at 26-28; delete: ',' → '' at 30-31; delete: ',' → '' at 34-35 ... and 11 more differences</t>
         </is>
       </c>
     </row>
@@ -23418,11 +23418,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Contact us at info। অ্যাট দ্য রেট example ডট কম। or visit এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ ডব্লিউ ডব্লিউ ডব্লিউ ডট। example ডট কম। " </t>
+          <t xml:space="preserve">"Contact us at info। অ্যাট দ্য রেট example ডট কম। or visit এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ। ডব্লিউ ডব্লিউ ডব্লিউ ডট। example ডট কম। " </t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.162</v>
+        <v>0.169</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -23502,15 +23502,15 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">"আপনার transaction নাম্বার ফাইভ সিক্স সেভেন এইট। নাইন জিরো সফল হয়েছে। " </t>
+          <t xml:space="preserve">"আপনার transaction নাম্বার পাঁচ ছয় সাত আট নয় শূন্য সফল হয়েছে। " </t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.0779</v>
+        <v>0.3636</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 31-32; delete: ',' → '' at 38-39; delete: ',' → '' at 45-46 ... and 3 more differences</t>
+          <t>replace: 'ফ' → 'প' at 27-28; replace: 'ইভ,' → 'ঁচ ছয়' at 29-32; replace: 'িক্স,' → 'াত' at 34-39 ... and 5 more differences</t>
         </is>
       </c>
     </row>
@@ -23530,15 +23530,15 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">"রশিদ নং: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স দেখিয়ে আপনার পণ্য সংগ্রহ করুন। " </t>
+          <t xml:space="preserve">"রশিদ নং: এক লক্ষ তেইশ হাজার চারশো ছাপ্পান্ন দেখিয়ে আপনার পণ্য সংগ্রহ করুন। " </t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.0769</v>
+        <v>0.3846</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 15-16; delete: ',' → '' at 19-20; delete: ',' → '' at 25-26 ... and 3 more differences</t>
+          <t>replace: 'ওয়' → 'এক লক্ষ তেইশ হাজার চারশো ছাপ্প' at 10-13; delete: ', টু, থ' → '' at 15-22; replace: 'রি, ফোর, ফাইভ, সিক্স' → 'ন' at 23-43 ... and 1 more differences</t>
         </is>
       </c>
     </row>
@@ -23558,15 +23558,15 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Your payment receipt number: ওয়ান টু থ্রি ফোর। ফাইভ সিক্স সেভেন। এইট নাইন has been generated successfully . " </t>
+          <t xml:space="preserve">"Your payment receipt number: ওয়ান টু থ্রি ফোর ফাইভ সিক্স সেভেন এইট নাইন has been generated successfully . " </t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 35-36; delete: ',' → '' at 39-40; delete: ',' → '' at 45-46 ... and 6 more differences</t>
+          <t>replace: 'য়' → 'য়' at 31-33; delete: ',' → '' at 35-36; delete: ',' → '' at 39-40 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -23614,15 +23614,15 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve">উদাহরণস্বরূপ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। </t>
+          <t>উদাহরণস্বরূপ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু ডাবল জিরো ওয়ান জিরো ডাবল ওয়ান থ্রি টু ফাইভ নাইন এইট নাইন</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.0711</v>
+        <v>0.1269</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 12-13; delete: ',' → '' at 125-126; delete: ',' → '' at 131-132 ... and 11 more differences</t>
+          <t>delete: ',' → '' at 12-13; replace: ',' → ' ডাবল' at 125-126; replace: ',' → ' ওয়ান' at 131-132 ... and 8 more differences</t>
         </is>
       </c>
     </row>
@@ -23726,11 +23726,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Visit এইচ টি টি পি। কোলন ডাবল স্ল্যাশ github ডট কম। স্ল্যাশ। user স্ল্যাশ। repo or ftp কোলন স্ল্যাশ। স্ল্যাশ। files ডট server ডট কম। " </t>
+          <t xml:space="preserve">"Visit এইচ টি টি পি। কোলন ডাবল স্ল্যাশ। github ডট কম। স্ল্যাশ। user স্ল্যাশ। repo or ftp কোলন স্ল্যাশ। স্ল্যাশ। files ডট server ডট কম। " </t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.1407</v>
+        <v>0.1481</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -23810,15 +23810,15 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">"উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই" </t>
+          <t xml:space="preserve">"উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু ডাবল জিরো ওয়ান জিরো ডাবল ওয়ান থ্রি টু ফাইভ নাইন এইট নাইন চট্ট গ বারো এক দুই এক দুই" </t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.0452</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 13-14; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 232-245; replace: ', জিরো,' → '। জিরো' at 251-258 ... and 5 more differences</t>
+          <t>delete: ',' → '' at 13-14; replace: ', জিরো, জিরো,' → ' ডাবল জিরো' at 232-245; replace: 'য়ান, জিরো,' → 'য়ান জিরো ডাবল' at 247-258 ... and 4 more differences</t>
         </is>
       </c>
     </row>
@@ -23866,15 +23866,15 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই"</t>
+          <t>উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু ডাবল জিরো ওয়ান জিরো ডাবল ওয়ান থ্রি টু ফাইভ নাইন এইট নাইন চট্ট গ বারো এক দুই এক দুই"</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.0424</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 12-13; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 231-244; replace: ', জিরো,' → '। জিরো' at 250-257 ... and 4 more differences</t>
+          <t>delete: ',' → '' at 12-13; replace: ', জিরো, জিরো,' → ' ডাবল জিরো' at 231-244; replace: 'য়ান, জিরো,' → 'য়ান জিরো ডাবল' at 246-257 ... and 3 more differences</t>
         </is>
       </c>
     </row>
@@ -23950,11 +23950,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>"Check out এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ subdomain ডট example ডট কম। কোলন এইট জিরো এইট জিরো স্ল্যাশ। path স্ল্যাশ। to স্ল্যাশ। page কোয়েশ্চেন মার্ক query একুয়াল ওয়ান "</t>
+          <t>"Check out এইচ টি টি পি এস। কোলন ডাবল স্ল্যাশ। subdomain ডট example ডট কম। কোলন এইট জিরো এইট জিরো স্ল্যাশ। path স্ল্যাশ। to স্ল্যাশ। page কোয়েশ্চেন মার্ক query একুয়াল ওয়ান "</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.0977</v>
+        <v>0.1034</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -26134,11 +26134,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>ইভেন্ট আয়োজন করতে কমপক্ষে ফাইভ পয়েন্ট ফাইভ থাউসেন্ড ডলার লাগবে।</t>
+          <t>ইভেন্ট আয়োজন করতে কমপক্ষে ফাইভ পয়েন্ট ফাইভ থাউজ্যান্ড ডলার লাগবে।</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.3636</v>
+        <v>0.4</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -26157,20 +26157,20 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
+          <t>ফিফটিন পয়েন্ট টু থাউ ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
+          <t xml:space="preserve"> ফিফটিন পয়েন্ট টু থাউজ্যান্ড ডলার এক্সাম ফী লাগবে।</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>insert: '' → ' ' at 0-0</t>
+          <t>insert: '' → ' ' at 0-0; insert: '' → 'জ্যান্ড' at 20-20</t>
         </is>
       </c>
     </row>

--- a/pybangla/report/eval_data_3.0.0.xlsx
+++ b/pybangla/report/eval_data_3.0.0.xlsx
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>18.41</v>
+        <v>17.89</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="N6" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="N7" t="n">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>13</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>0.77</v>
+        <v>0.55</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>0.55</v>
+        <v>0.42</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="N16" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="N20" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="N22" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="N23" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>11</v>
       </c>
       <c r="N27" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="N32" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="N33" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="N34" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>29</v>
       </c>
       <c r="N35" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="N39" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="N40" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>14</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="N43" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>19</v>
       </c>
       <c r="N44" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>14</v>
       </c>
       <c r="N45" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>32</v>
       </c>
       <c r="N46" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>19</v>
       </c>
       <c r="N47" t="n">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>6</v>
       </c>
       <c r="N48" t="n">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="N49" t="n">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="N50" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>18</v>
       </c>
       <c r="N51" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="N52" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>31</v>
       </c>
       <c r="N53" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>6</v>
       </c>
       <c r="N54" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>19</v>
       </c>
       <c r="N56" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="N57" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>110</v>
       </c>
       <c r="N58" t="n">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>17</v>
       </c>
       <c r="N60" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>46</v>
       </c>
       <c r="N61" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43</v>
       </c>
       <c r="N62" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>33</v>
       </c>
       <c r="N63" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>31</v>
       </c>
       <c r="N64" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>36</v>
       </c>
       <c r="N65" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>59</v>
       </c>
       <c r="N66" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>19</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>30</v>
       </c>
       <c r="N68" t="n">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>32</v>
       </c>
       <c r="N69" t="n">
-        <v>1.25</v>
+        <v>0.97</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>6</v>
       </c>
       <c r="N70" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="N71" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>13</v>
       </c>
       <c r="N75" t="n">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>13</v>
       </c>
       <c r="N76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>14</v>
       </c>
       <c r="N77" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>13</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="N79" t="n">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="N81" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>13</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>13</v>
       </c>
       <c r="N83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>13</v>
       </c>
       <c r="N84" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="N85" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>14</v>
       </c>
       <c r="N86" t="n">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>13</v>
       </c>
       <c r="N87" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>13</v>
       </c>
       <c r="N88" t="n">
-        <v>0.91</v>
+        <v>0.55</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>13</v>
       </c>
       <c r="N89" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>14</v>
       </c>
       <c r="N90" t="n">
-        <v>0.68</v>
+        <v>0.53</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>14</v>
       </c>
       <c r="N91" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>14</v>
       </c>
       <c r="N92" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>14</v>
       </c>
       <c r="N93" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>35</v>
       </c>
       <c r="N94" t="n">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>4</v>
       </c>
       <c r="N95" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>3</v>
       </c>
       <c r="N96" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>153</v>
       </c>
       <c r="N97" t="n">
-        <v>4.19</v>
+        <v>3.59</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>15</v>
       </c>
       <c r="N98" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>15</v>
       </c>
       <c r="N99" t="n">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>12</v>
       </c>
       <c r="N100" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="N101" t="n">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="N102" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>8</v>
       </c>
       <c r="N104" t="n">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>6</v>
       </c>
       <c r="N105" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="N106" t="n">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>5</v>
       </c>
       <c r="N107" t="n">
-        <v>0.53</v>
+        <v>0.28</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>6</v>
       </c>
       <c r="N108" t="n">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>8</v>
       </c>
       <c r="N109" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>5</v>
       </c>
       <c r="N110" t="n">
-        <v>0.58</v>
+        <v>0.32</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="N111" t="n">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="N112" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>5</v>
       </c>
       <c r="N113" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>6</v>
       </c>
       <c r="N114" t="n">
-        <v>0.57</v>
+        <v>0.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>5</v>
       </c>
       <c r="N115" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>8</v>
       </c>
       <c r="N116" t="n">
-        <v>0.65</v>
+        <v>0.37</v>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
@@ -7231,7 +7231,7 @@
         <v>8</v>
       </c>
       <c r="N117" t="n">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>6</v>
       </c>
       <c r="N118" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>6</v>
       </c>
       <c r="N119" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>5</v>
       </c>
       <c r="N120" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>6</v>
       </c>
       <c r="N121" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>9</v>
       </c>
       <c r="N122" t="n">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>5</v>
       </c>
       <c r="N123" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>5</v>
       </c>
       <c r="N124" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>5</v>
       </c>
       <c r="N125" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>6</v>
       </c>
       <c r="N126" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>6</v>
       </c>
       <c r="N127" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>6</v>
       </c>
       <c r="N128" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>6</v>
       </c>
       <c r="N129" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>7</v>
       </c>
       <c r="N130" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>7</v>
       </c>
       <c r="N131" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>7</v>
       </c>
       <c r="N132" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>6</v>
       </c>
       <c r="N133" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>5</v>
       </c>
       <c r="N134" t="n">
-        <v>0.91</v>
+        <v>0.43</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>25</v>
       </c>
       <c r="N135" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>6</v>
       </c>
       <c r="N136" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
@@ -8359,7 +8359,7 @@
         <v>4</v>
       </c>
       <c r="N137" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
@@ -8415,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
@@ -8471,7 +8471,7 @@
         <v>5</v>
       </c>
       <c r="N139" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
@@ -8527,7 +8527,7 @@
         <v>6</v>
       </c>
       <c r="N140" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
@@ -8583,7 +8583,7 @@
         <v>3</v>
       </c>
       <c r="N141" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>5</v>
       </c>
       <c r="N142" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>16</v>
       </c>
       <c r="N143" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>10</v>
       </c>
       <c r="N144" t="n">
-        <v>1.04</v>
+        <v>0.74</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>9</v>
       </c>
       <c r="N145" t="n">
-        <v>1.17</v>
+        <v>0.64</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="N146" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="N147" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="N148" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -9019,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
@@ -9071,7 +9071,7 @@
         <v>10</v>
       </c>
       <c r="N150" t="n">
-        <v>0.59</v>
+        <v>0.38</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>31</v>
       </c>
       <c r="N151" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>6</v>
       </c>
       <c r="N152" t="n">
-        <v>0.57</v>
+        <v>0.37</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>29</v>
       </c>
       <c r="N153" t="n">
-        <v>1.24</v>
+        <v>0.97</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -9264,17 +9264,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই"</t>
+          <t>উদাহরণস্বরূপ উনিশশো ঊনসত্তর, - দুই হাজার চব্বিশ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই"</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0424</v>
+        <v>0.2182</v>
       </c>
       <c r="G154" t="n">
-        <v>0.2545</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>172</v>
@@ -9283,7 +9283,7 @@
         <v>330</v>
       </c>
       <c r="J154" t="n">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="K154" t="n">
         <v>17</v>
@@ -9292,10 +9292,10 @@
         <v>55</v>
       </c>
       <c r="M154" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N154" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 12-13; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 231-244; replace: ', জিরো,' → '। জিরো' at 250-257 ... and 4 more differences</t>
+          <t>insert: '' → ' উনিশশো ঊনসত্তর' at 12-12; replace: 'ওয়ান থাউজ্যান্ড নাইন' → '- দুই' at 14-35; replace: 'ন্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর' → 'জার চব্বিশ' at 38-88 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
         <v>10</v>
       </c>
       <c r="N155" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>9</v>
       </c>
       <c r="N156" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>10</v>
       </c>
       <c r="N157" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>12</v>
       </c>
       <c r="N158" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>11</v>
       </c>
       <c r="N159" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>10</v>
       </c>
       <c r="N160" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>11</v>
       </c>
       <c r="N161" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>10</v>
       </c>
       <c r="N162" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="N163" t="n">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>9</v>
       </c>
       <c r="N164" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>10</v>
       </c>
       <c r="N165" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>10</v>
       </c>
       <c r="N166" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>10</v>
       </c>
       <c r="N167" t="n">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>10</v>
       </c>
       <c r="N168" t="n">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>15</v>
       </c>
       <c r="N169" t="n">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>11</v>
       </c>
       <c r="N170" t="n">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>5</v>
       </c>
       <c r="N171" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>5</v>
       </c>
       <c r="N172" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>5</v>
       </c>
       <c r="N173" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
@@ -10451,7 +10451,7 @@
         <v>18</v>
       </c>
       <c r="N174" t="n">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>6</v>
       </c>
       <c r="N175" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>11</v>
       </c>
       <c r="N176" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>10</v>
       </c>
       <c r="N177" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>25</v>
       </c>
       <c r="N178" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>11</v>
       </c>
       <c r="N179" t="n">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>12</v>
       </c>
       <c r="N180" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>16</v>
       </c>
       <c r="N181" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>13</v>
       </c>
       <c r="N182" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>18</v>
       </c>
       <c r="N183" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>17</v>
       </c>
       <c r="N184" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>16</v>
       </c>
       <c r="N185" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>15</v>
       </c>
       <c r="N186" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>15</v>
       </c>
       <c r="N187" t="n">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>16</v>
       </c>
       <c r="N188" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>13</v>
       </c>
       <c r="N189" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>27</v>
       </c>
       <c r="N190" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>13</v>
       </c>
       <c r="N191" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>13</v>
       </c>
       <c r="N192" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>28</v>
       </c>
       <c r="N193" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>17</v>
       </c>
       <c r="N194" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>15</v>
       </c>
       <c r="N195" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>15</v>
       </c>
       <c r="N196" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>14</v>
       </c>
       <c r="N197" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>14</v>
       </c>
       <c r="N198" t="n">
-        <v>0.88</v>
+        <v>0.43</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>26</v>
       </c>
       <c r="N199" t="n">
-        <v>1.02</v>
+        <v>0.63</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>24</v>
       </c>
       <c r="N200" t="n">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>12</v>
       </c>
       <c r="N201" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>12</v>
       </c>
       <c r="N202" t="n">
-        <v>0.74</v>
+        <v>0.48</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>11</v>
       </c>
       <c r="N203" t="n">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
         <v>22</v>
       </c>
       <c r="N204" t="n">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>30</v>
       </c>
       <c r="N205" t="n">
-        <v>1.28</v>
+        <v>0.87</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>14</v>
       </c>
       <c r="N206" t="n">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>14</v>
       </c>
       <c r="N207" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>18</v>
       </c>
       <c r="N208" t="n">
-        <v>0.91</v>
+        <v>0.63</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>11</v>
       </c>
       <c r="N209" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>31</v>
       </c>
       <c r="N210" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>6</v>
       </c>
       <c r="N211" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>29</v>
       </c>
       <c r="N212" t="n">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -12752,17 +12752,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve">"উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই" </t>
+          <t xml:space="preserve">"উদাহরণস্বরূপ উনিশশো ঊনসত্তর, - দুই হাজার চব্বিশ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই" </t>
         </is>
       </c>
       <c r="E213" t="b">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0452</v>
+        <v>0.2199</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2727</v>
+        <v>0.4182</v>
       </c>
       <c r="H213" t="n">
         <v>174</v>
@@ -12771,7 +12771,7 @@
         <v>333</v>
       </c>
       <c r="J213" t="n">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="K213" t="n">
         <v>17</v>
@@ -12780,10 +12780,10 @@
         <v>55</v>
       </c>
       <c r="M213" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N213" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 13-14; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 232-245; replace: ', জিরো,' → '। জিরো' at 251-258 ... and 5 more differences</t>
+          <t>insert: '' → ' উনিশশো ঊনসত্তর' at 13-13; replace: 'ওয়ান থাউজ্যান্ড নাইন' → '- দুই' at 15-36; replace: 'ন্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর' → 'জার চব্বিশ' at 39-89 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -12843,7 +12843,7 @@
         <v>8</v>
       </c>
       <c r="N214" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>15</v>
       </c>
       <c r="N215" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>11</v>
       </c>
       <c r="N216" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>5</v>
       </c>
       <c r="N217" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>5</v>
       </c>
       <c r="N218" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
@@ -13139,7 +13139,7 @@
         <v>5</v>
       </c>
       <c r="N219" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
@@ -13195,7 +13195,7 @@
         <v>18</v>
       </c>
       <c r="N220" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>6</v>
       </c>
       <c r="N221" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>11</v>
       </c>
       <c r="N222" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>10</v>
       </c>
       <c r="N223" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>25</v>
       </c>
       <c r="N224" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>11</v>
       </c>
       <c r="N225" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>12</v>
       </c>
       <c r="N226" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>16</v>
       </c>
       <c r="N227" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>13</v>
       </c>
       <c r="N228" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>18</v>
       </c>
       <c r="N229" t="n">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>17</v>
       </c>
       <c r="N230" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>16</v>
       </c>
       <c r="N231" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>15</v>
       </c>
       <c r="N232" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>15</v>
       </c>
       <c r="N233" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>16</v>
       </c>
       <c r="N234" t="n">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>13</v>
       </c>
       <c r="N235" t="n">
-        <v>0.68</v>
+        <v>0.36</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>27</v>
       </c>
       <c r="N236" t="n">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>13</v>
       </c>
       <c r="N237" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>13</v>
       </c>
       <c r="N238" t="n">
-        <v>0.57</v>
+        <v>0.37</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>28</v>
       </c>
       <c r="N239" t="n">
-        <v>1.05</v>
+        <v>0.67</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>17</v>
       </c>
       <c r="N240" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>15</v>
       </c>
       <c r="N241" t="n">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>15</v>
       </c>
       <c r="N242" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>14</v>
       </c>
       <c r="N243" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>14</v>
       </c>
       <c r="N244" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>26</v>
       </c>
       <c r="N245" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>24</v>
       </c>
       <c r="N246" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>12</v>
       </c>
       <c r="N247" t="n">
-        <v>0.89</v>
+        <v>0.48</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>12</v>
       </c>
       <c r="N248" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>11</v>
       </c>
       <c r="N249" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>22</v>
       </c>
       <c r="N250" t="n">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>30</v>
       </c>
       <c r="N251" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>14</v>
       </c>
       <c r="N252" t="n">
-        <v>0.92</v>
+        <v>0.51</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>14</v>
       </c>
       <c r="N253" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>36</v>
       </c>
       <c r="N254" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>21</v>
       </c>
       <c r="N255" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>17</v>
       </c>
       <c r="N256" t="n">
-        <v>0.85</v>
+        <v>0.47</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>17</v>
       </c>
       <c r="N257" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>20</v>
       </c>
       <c r="N258" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>14</v>
       </c>
       <c r="N259" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>26</v>
       </c>
       <c r="N260" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>33</v>
       </c>
       <c r="N261" t="n">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>20</v>
       </c>
       <c r="N262" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>32</v>
       </c>
       <c r="N263" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>25</v>
       </c>
       <c r="N264" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>12</v>
       </c>
       <c r="N265" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -15916,17 +15916,17 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">"তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
+          <t xml:space="preserve">"তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
         </is>
       </c>
       <c r="E266" t="b">
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0622</v>
+        <v>0.3734</v>
       </c>
       <c r="G266" t="n">
-        <v>0.3158</v>
+        <v>0.5526</v>
       </c>
       <c r="H266" t="n">
         <v>77</v>
@@ -15935,7 +15935,7 @@
         <v>242</v>
       </c>
       <c r="J266" t="n">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="K266" t="n">
         <v>10</v>
@@ -15944,10 +15944,10 @@
         <v>38</v>
       </c>
       <c r="M266" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N266" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>delete: ' ' → '' at 0-1; replace: 'পি,' → 'P' at 21-24; replace: ', সেভেন,' → ' সেভেন' at 28-36 ... and 5 more differences</t>
+          <t>delete: ' ' → '' at 0-1; replace: 'পি,' → 'P' at 21-24; delete: ',' → '' at 28-29 ... and 18 more differences</t>
         </is>
       </c>
     </row>
@@ -16007,7 +16007,7 @@
         <v>45</v>
       </c>
       <c r="N267" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>14</v>
       </c>
       <c r="N268" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>10</v>
       </c>
       <c r="N269" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>22</v>
       </c>
       <c r="N270" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>29</v>
       </c>
       <c r="N271" t="n">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="O271" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>9</v>
       </c>
       <c r="N272" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>12</v>
       </c>
       <c r="N273" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>8</v>
       </c>
       <c r="N274" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>14</v>
       </c>
       <c r="N275" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>9</v>
       </c>
       <c r="N276" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>8</v>
       </c>
       <c r="N277" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>13</v>
       </c>
       <c r="N278" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>15</v>
       </c>
       <c r="N279" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>15</v>
       </c>
       <c r="N280" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>15</v>
       </c>
       <c r="N281" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>16</v>
       </c>
       <c r="N282" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>11</v>
       </c>
       <c r="N283" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>15</v>
       </c>
       <c r="N284" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>11</v>
       </c>
       <c r="N285" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>11</v>
       </c>
       <c r="N286" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>11</v>
       </c>
       <c r="N287" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>18</v>
       </c>
       <c r="N288" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>22</v>
       </c>
       <c r="N289" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>18</v>
       </c>
       <c r="N290" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>24</v>
       </c>
       <c r="N291" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>19</v>
       </c>
       <c r="N292" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>24</v>
       </c>
       <c r="N293" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>13</v>
       </c>
       <c r="N294" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>21</v>
       </c>
       <c r="N295" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>18</v>
       </c>
       <c r="N296" t="n">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>14</v>
       </c>
       <c r="N297" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>17</v>
       </c>
       <c r="N298" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>19</v>
       </c>
       <c r="N299" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>18</v>
       </c>
       <c r="N300" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>18</v>
       </c>
       <c r="N302" t="n">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>14</v>
       </c>
       <c r="N303" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>17</v>
       </c>
       <c r="N304" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>19</v>
       </c>
       <c r="N305" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>18</v>
       </c>
       <c r="N306" t="n">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>18</v>
       </c>
       <c r="N308" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>14</v>
       </c>
       <c r="N309" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>17</v>
       </c>
       <c r="N310" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>19</v>
       </c>
       <c r="N311" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>18</v>
       </c>
       <c r="N312" t="n">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>17</v>
       </c>
       <c r="N314" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>16</v>
       </c>
       <c r="N315" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>25</v>
       </c>
       <c r="N316" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>24</v>
       </c>
       <c r="N317" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>20</v>
       </c>
       <c r="N318" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>22</v>
       </c>
       <c r="N319" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>17</v>
       </c>
       <c r="N320" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>16</v>
       </c>
       <c r="N321" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="O321" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>25</v>
       </c>
       <c r="N322" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>24</v>
       </c>
       <c r="N323" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>17</v>
       </c>
       <c r="N324" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>18</v>
       </c>
       <c r="N325" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>19</v>
       </c>
       <c r="N327" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>21</v>
       </c>
       <c r="N328" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>17</v>
       </c>
       <c r="N329" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>21</v>
       </c>
       <c r="N330" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>26</v>
       </c>
       <c r="N331" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>23</v>
       </c>
       <c r="N332" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>28</v>
       </c>
       <c r="N333" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>22</v>
       </c>
       <c r="N334" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>29</v>
       </c>
       <c r="N335" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>21</v>
       </c>
       <c r="N336" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>26</v>
       </c>
       <c r="N337" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>23</v>
       </c>
       <c r="N338" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>28</v>
       </c>
       <c r="N339" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>22</v>
       </c>
       <c r="N340" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>29</v>
       </c>
       <c r="N341" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="O341" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>17</v>
       </c>
       <c r="N342" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>21</v>
       </c>
       <c r="N343" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>16</v>
       </c>
       <c r="N344" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>17</v>
       </c>
       <c r="N345" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>21</v>
       </c>
       <c r="N346" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>23</v>
       </c>
       <c r="N347" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>17</v>
       </c>
       <c r="N348" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>23</v>
       </c>
       <c r="N349" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>17</v>
       </c>
       <c r="N350" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>21</v>
       </c>
       <c r="N351" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>20</v>
       </c>
       <c r="N352" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>17</v>
       </c>
       <c r="N353" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>18</v>
       </c>
       <c r="N354" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>21</v>
       </c>
       <c r="N355" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>19</v>
       </c>
       <c r="N356" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>18</v>
       </c>
       <c r="N357" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>21</v>
       </c>
       <c r="N358" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>19</v>
       </c>
       <c r="N359" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="O359" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>18</v>
       </c>
       <c r="N360" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>16</v>
       </c>
       <c r="N361" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>20</v>
       </c>
       <c r="N362" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>19</v>
       </c>
       <c r="N363" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>19</v>
       </c>
       <c r="N364" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>19</v>
       </c>
       <c r="N365" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -21947,7 +21947,7 @@
         <v>20</v>
       </c>
       <c r="N366" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>17</v>
       </c>
       <c r="N367" t="n">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>18</v>
       </c>
       <c r="N368" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>18</v>
       </c>
       <c r="N369" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>22</v>
       </c>
       <c r="N370" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>17</v>
       </c>
       <c r="N371" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>21</v>
       </c>
       <c r="N372" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>16</v>
       </c>
       <c r="N373" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>20</v>
       </c>
       <c r="N374" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>19</v>
       </c>
       <c r="N375" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O375" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>21</v>
       </c>
       <c r="N376" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>18</v>
       </c>
       <c r="N377" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>20</v>
       </c>
       <c r="N378" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>19</v>
       </c>
       <c r="N379" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>17</v>
       </c>
       <c r="N380" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>21</v>
       </c>
       <c r="N381" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>16</v>
       </c>
       <c r="N382" t="n">
-        <v>1.54</v>
+        <v>1.12</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>19</v>
       </c>
       <c r="N383" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>18</v>
       </c>
       <c r="N384" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O384" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>15</v>
       </c>
       <c r="N385" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>12</v>
       </c>
       <c r="N386" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="O386" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>28</v>
       </c>
       <c r="N387" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>27</v>
       </c>
       <c r="N388" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>26</v>
       </c>
       <c r="N389" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>26</v>
       </c>
       <c r="N390" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>20</v>
       </c>
       <c r="N391" t="n">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr">
@@ -23503,7 +23503,7 @@
         <v>32</v>
       </c>
       <c r="N392" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="O392" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>20</v>
       </c>
       <c r="N393" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>9</v>
       </c>
       <c r="N394" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>5</v>
       </c>
       <c r="N395" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>6</v>
       </c>
       <c r="N396" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="O396" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>6</v>
       </c>
       <c r="N397" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="O397" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>4</v>
       </c>
       <c r="N398" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>7</v>
       </c>
       <c r="N399" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="O399" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>7</v>
       </c>
       <c r="N400" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="O400" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>6</v>
       </c>
       <c r="N401" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="inlineStr">
@@ -24087,7 +24087,7 @@
         <v>8</v>
       </c>
       <c r="N402" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr">
@@ -24139,7 +24139,7 @@
         <v>15</v>
       </c>
       <c r="N403" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="inlineStr">
@@ -24191,7 +24191,7 @@
         <v>7</v>
       </c>
       <c r="N404" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="inlineStr">
@@ -24243,7 +24243,7 @@
         <v>7</v>
       </c>
       <c r="N405" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="O405" t="inlineStr"/>
       <c r="P405" t="inlineStr">
@@ -24295,7 +24295,7 @@
         <v>7</v>
       </c>
       <c r="N406" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr">
@@ -24347,7 +24347,7 @@
         <v>5</v>
       </c>
       <c r="N407" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="inlineStr">
@@ -24399,7 +24399,7 @@
         <v>7</v>
       </c>
       <c r="N408" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="inlineStr">
@@ -24451,7 +24451,7 @@
         <v>6</v>
       </c>
       <c r="N409" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="inlineStr">
@@ -24503,7 +24503,7 @@
         <v>6</v>
       </c>
       <c r="N410" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="inlineStr">
@@ -24555,7 +24555,7 @@
         <v>5</v>
       </c>
       <c r="N411" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr">
@@ -24607,7 +24607,7 @@
         <v>8</v>
       </c>
       <c r="N412" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="inlineStr">
@@ -24659,7 +24659,7 @@
         <v>6</v>
       </c>
       <c r="N413" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr">
@@ -24711,7 +24711,7 @@
         <v>6</v>
       </c>
       <c r="N414" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="inlineStr">
@@ -24763,7 +24763,7 @@
         <v>6</v>
       </c>
       <c r="N415" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr">
@@ -24815,7 +24815,7 @@
         <v>6</v>
       </c>
       <c r="N416" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="inlineStr">
@@ -24867,7 +24867,7 @@
         <v>6</v>
       </c>
       <c r="N417" t="n">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>6</v>
       </c>
       <c r="N418" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="inlineStr">
@@ -24971,7 +24971,7 @@
         <v>6</v>
       </c>
       <c r="N419" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="O419" t="inlineStr"/>
       <c r="P419" t="inlineStr">
@@ -25023,7 +25023,7 @@
         <v>6</v>
       </c>
       <c r="N420" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="O420" t="inlineStr"/>
       <c r="P420" t="inlineStr">
@@ -25075,7 +25075,7 @@
         <v>5</v>
       </c>
       <c r="N421" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="inlineStr">
@@ -25127,7 +25127,7 @@
         <v>66</v>
       </c>
       <c r="N422" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="O422" t="inlineStr"/>
       <c r="P422" t="inlineStr">
@@ -25179,7 +25179,7 @@
         <v>13</v>
       </c>
       <c r="N423" t="n">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="inlineStr">
@@ -25231,7 +25231,7 @@
         <v>28</v>
       </c>
       <c r="N424" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="inlineStr">
@@ -25283,7 +25283,7 @@
         <v>28</v>
       </c>
       <c r="N425" t="n">
-        <v>1.26</v>
+        <v>0.87</v>
       </c>
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr">
@@ -25335,7 +25335,7 @@
         <v>40</v>
       </c>
       <c r="N426" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="O426" t="inlineStr"/>
       <c r="P426" t="inlineStr">
@@ -25387,7 +25387,7 @@
         <v>19</v>
       </c>
       <c r="N427" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="inlineStr">
@@ -25439,7 +25439,7 @@
         <v>25</v>
       </c>
       <c r="N428" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="inlineStr">
@@ -25491,7 +25491,7 @@
         <v>27</v>
       </c>
       <c r="N429" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr">
@@ -25543,7 +25543,7 @@
         <v>25</v>
       </c>
       <c r="N430" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr">
@@ -25595,7 +25595,7 @@
         <v>23</v>
       </c>
       <c r="N431" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr">
@@ -25647,7 +25647,7 @@
         <v>30</v>
       </c>
       <c r="N432" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr">
@@ -25699,7 +25699,7 @@
         <v>60</v>
       </c>
       <c r="N433" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr">
@@ -25751,7 +25751,7 @@
         <v>20</v>
       </c>
       <c r="N434" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr">
@@ -25803,7 +25803,7 @@
         <v>10</v>
       </c>
       <c r="N435" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="inlineStr">
@@ -25855,7 +25855,7 @@
         <v>10</v>
       </c>
       <c r="N436" t="n">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="inlineStr">
@@ -25907,7 +25907,7 @@
         <v>8</v>
       </c>
       <c r="N437" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="inlineStr">
@@ -25959,7 +25959,7 @@
         <v>6</v>
       </c>
       <c r="N438" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="inlineStr">
@@ -26011,7 +26011,7 @@
         <v>9</v>
       </c>
       <c r="N439" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr">
@@ -26063,7 +26063,7 @@
         <v>9</v>
       </c>
       <c r="N440" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="inlineStr">
@@ -26115,7 +26115,7 @@
         <v>24</v>
       </c>
       <c r="N441" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="O441" t="inlineStr"/>
       <c r="P441" t="inlineStr">
@@ -26167,7 +26167,7 @@
         <v>12</v>
       </c>
       <c r="N442" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr">
@@ -26219,7 +26219,7 @@
         <v>27</v>
       </c>
       <c r="N443" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr">
@@ -26240,17 +26240,17 @@
       <c r="C444" t="inlineStr"/>
       <c r="D444" t="inlineStr">
         <is>
-          <t xml:space="preserve">হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
+          <t xml:space="preserve">হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
         </is>
       </c>
       <c r="E444" t="b">
         <v>0</v>
       </c>
       <c r="F444" t="n">
-        <v>79.33329999999999</v>
+        <v>60.6667</v>
       </c>
       <c r="G444" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H444" t="n">
         <v>79</v>
@@ -26259,7 +26259,7 @@
         <v>3</v>
       </c>
       <c r="J444" t="n">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="K444" t="n">
         <v>11</v>
@@ -26268,15 +26268,15 @@
         <v>1</v>
       </c>
       <c r="M444" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N444" t="n">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr">
         <is>
-          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " ' at 3-3</t>
+          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " ' at 3-3</t>
         </is>
       </c>
     </row>
@@ -26323,7 +26323,7 @@
         <v>38</v>
       </c>
       <c r="N445" t="n">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="O445" t="inlineStr"/>
       <c r="P445" t="inlineStr">
@@ -26375,7 +26375,7 @@
         <v>8</v>
       </c>
       <c r="N446" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="inlineStr">
@@ -26427,7 +26427,7 @@
         <v>6</v>
       </c>
       <c r="N447" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr">
@@ -26479,7 +26479,7 @@
         <v>6</v>
       </c>
       <c r="N448" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr">
@@ -26531,7 +26531,7 @@
         <v>14</v>
       </c>
       <c r="N449" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr">
@@ -26583,7 +26583,7 @@
         <v>15</v>
       </c>
       <c r="N450" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr">
@@ -26635,7 +26635,7 @@
         <v>15</v>
       </c>
       <c r="N451" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr">
@@ -26687,7 +26687,7 @@
         <v>20</v>
       </c>
       <c r="N452" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr">
@@ -26739,7 +26739,7 @@
         <v>58</v>
       </c>
       <c r="N453" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr">
@@ -26791,7 +26791,7 @@
         <v>22</v>
       </c>
       <c r="N454" t="n">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="inlineStr">
@@ -26843,7 +26843,7 @@
         <v>14</v>
       </c>
       <c r="N455" t="n">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="inlineStr">
@@ -26895,7 +26895,7 @@
         <v>6</v>
       </c>
       <c r="N456" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="inlineStr">
@@ -26947,7 +26947,7 @@
         <v>7</v>
       </c>
       <c r="N457" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr">
@@ -26999,7 +26999,7 @@
         <v>7</v>
       </c>
       <c r="N458" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr">
@@ -27051,7 +27051,7 @@
         <v>12</v>
       </c>
       <c r="N459" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr">
@@ -27103,7 +27103,7 @@
         <v>6</v>
       </c>
       <c r="N460" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="O460" t="inlineStr"/>
       <c r="P460" t="inlineStr">
@@ -27155,7 +27155,7 @@
         <v>8</v>
       </c>
       <c r="N461" t="n">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="inlineStr">
@@ -27207,7 +27207,7 @@
         <v>5</v>
       </c>
       <c r="N462" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="O462" t="inlineStr"/>
       <c r="P462" t="inlineStr">
@@ -27259,7 +27259,7 @@
         <v>9</v>
       </c>
       <c r="N463" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="O463" t="inlineStr"/>
       <c r="P463" t="inlineStr">
@@ -27311,7 +27311,7 @@
         <v>9</v>
       </c>
       <c r="N464" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr">
@@ -27363,7 +27363,7 @@
         <v>10</v>
       </c>
       <c r="N465" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="O465" t="inlineStr"/>
       <c r="P465" t="inlineStr">
@@ -27415,7 +27415,7 @@
         <v>14</v>
       </c>
       <c r="N466" t="n">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="inlineStr">
@@ -27467,7 +27467,7 @@
         <v>14</v>
       </c>
       <c r="N467" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="inlineStr">
@@ -27519,7 +27519,7 @@
         <v>14</v>
       </c>
       <c r="N468" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>9</v>
       </c>
       <c r="N469" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="inlineStr">
@@ -27623,7 +27623,7 @@
         <v>17</v>
       </c>
       <c r="N470" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="inlineStr">
@@ -27675,7 +27675,7 @@
         <v>16</v>
       </c>
       <c r="N471" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="inlineStr">
@@ -27727,7 +27727,7 @@
         <v>25</v>
       </c>
       <c r="N472" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="O472" t="inlineStr"/>
       <c r="P472" t="inlineStr">
@@ -27779,7 +27779,7 @@
         <v>13</v>
       </c>
       <c r="N473" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="inlineStr">
@@ -27831,7 +27831,7 @@
         <v>8</v>
       </c>
       <c r="N474" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr">
@@ -27883,7 +27883,7 @@
         <v>10</v>
       </c>
       <c r="N475" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr">
@@ -27935,7 +27935,7 @@
         <v>13</v>
       </c>
       <c r="N476" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="O476" t="inlineStr"/>
       <c r="P476" t="inlineStr">
@@ -27987,7 +27987,7 @@
         <v>12</v>
       </c>
       <c r="N477" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="O477" t="inlineStr"/>
       <c r="P477" t="inlineStr">
@@ -28039,7 +28039,7 @@
         <v>9</v>
       </c>
       <c r="N478" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="O478" t="inlineStr"/>
       <c r="P478" t="inlineStr">
@@ -28091,7 +28091,7 @@
         <v>35</v>
       </c>
       <c r="N479" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr">
@@ -28143,7 +28143,7 @@
         <v>35</v>
       </c>
       <c r="N480" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="inlineStr">
@@ -28195,7 +28195,7 @@
         <v>3</v>
       </c>
       <c r="N481" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="O481" t="inlineStr"/>
       <c r="P481" t="inlineStr">
@@ -28247,7 +28247,7 @@
         <v>24</v>
       </c>
       <c r="N482" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="O482" t="inlineStr"/>
       <c r="P482" t="inlineStr">
@@ -28299,7 +28299,7 @@
         <v>35</v>
       </c>
       <c r="N483" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr">
@@ -28351,7 +28351,7 @@
         <v>28</v>
       </c>
       <c r="N484" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr">
@@ -28403,7 +28403,7 @@
         <v>30</v>
       </c>
       <c r="N485" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O485" t="inlineStr"/>
       <c r="P485" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>12</v>
       </c>
       <c r="N486" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="inlineStr">
@@ -28507,7 +28507,7 @@
         <v>12</v>
       </c>
       <c r="N487" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="inlineStr">
@@ -28559,7 +28559,7 @@
         <v>17</v>
       </c>
       <c r="N488" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="inlineStr">
@@ -28611,7 +28611,7 @@
         <v>8</v>
       </c>
       <c r="N489" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="O489" t="inlineStr"/>
       <c r="P489" t="inlineStr">
@@ -28663,7 +28663,7 @@
         <v>13</v>
       </c>
       <c r="N490" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="inlineStr">
@@ -28715,7 +28715,7 @@
         <v>12</v>
       </c>
       <c r="N491" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="inlineStr">
@@ -28767,7 +28767,7 @@
         <v>13</v>
       </c>
       <c r="N492" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="O492" t="inlineStr"/>
       <c r="P492" t="inlineStr">
@@ -28819,7 +28819,7 @@
         <v>12</v>
       </c>
       <c r="N493" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="O493" t="inlineStr"/>
       <c r="P493" t="inlineStr">
@@ -28871,7 +28871,7 @@
         <v>23</v>
       </c>
       <c r="N494" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="inlineStr">
@@ -28892,14 +28892,14 @@
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স হান্ড্রেড ফিফটি-ফোর - থ্রি হান্ড্রেড টোয়েন্টি-ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "</t>
+          <t>হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স ফাইভ। ফোর - থ্রি। টু ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "</t>
         </is>
       </c>
       <c r="E495" t="b">
         <v>0</v>
       </c>
       <c r="F495" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G495" t="n">
         <v>30</v>
@@ -28911,7 +28911,7 @@
         <v>3</v>
       </c>
       <c r="J495" t="n">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="K495" t="n">
         <v>9</v>
@@ -28923,12 +28923,12 @@
         <v>30</v>
       </c>
       <c r="N495" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="O495" t="inlineStr"/>
       <c r="P495" t="inlineStr">
         <is>
-          <t>replace: 'nan' → 'হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স হান্ড্রেড ফিফটি-ফোর - থ্রি হান্ড্রেড টোয়েন্টি-ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "' at 0-3</t>
+          <t>replace: 'nan' → 'হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স ফাইভ। ফোর - থ্রি। টু ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "' at 0-3</t>
         </is>
       </c>
     </row>
@@ -28975,7 +28975,7 @@
         <v>19</v>
       </c>
       <c r="N496" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="inlineStr">
@@ -29027,7 +29027,7 @@
         <v>27</v>
       </c>
       <c r="N497" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="O497" t="inlineStr"/>
       <c r="P497" t="inlineStr">
@@ -29079,7 +29079,7 @@
         <v>7</v>
       </c>
       <c r="N498" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="O498" t="inlineStr"/>
       <c r="P498" t="inlineStr">
@@ -29131,7 +29131,7 @@
         <v>28</v>
       </c>
       <c r="N499" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="inlineStr">
@@ -29183,7 +29183,7 @@
         <v>43</v>
       </c>
       <c r="N500" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="O500" t="inlineStr"/>
       <c r="P500" t="inlineStr">
@@ -29235,7 +29235,7 @@
         <v>26</v>
       </c>
       <c r="N501" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="O501" t="inlineStr"/>
       <c r="P501" t="inlineStr">
@@ -29287,7 +29287,7 @@
         <v>27</v>
       </c>
       <c r="N502" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr">
@@ -29339,7 +29339,7 @@
         <v>15</v>
       </c>
       <c r="N503" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="O503" t="inlineStr"/>
       <c r="P503" t="inlineStr">
@@ -29391,7 +29391,7 @@
         <v>15</v>
       </c>
       <c r="N504" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="O504" t="inlineStr"/>
       <c r="P504" t="inlineStr">
@@ -29443,7 +29443,7 @@
         <v>13</v>
       </c>
       <c r="N505" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="inlineStr">
@@ -29495,7 +29495,7 @@
         <v>14</v>
       </c>
       <c r="N506" t="n">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="O506" t="inlineStr"/>
       <c r="P506" t="inlineStr">
@@ -29547,7 +29547,7 @@
         <v>14</v>
       </c>
       <c r="N507" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="O507" t="inlineStr"/>
       <c r="P507" t="inlineStr">
@@ -29599,7 +29599,7 @@
         <v>26</v>
       </c>
       <c r="N508" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="inlineStr">
@@ -29651,7 +29651,7 @@
         <v>20</v>
       </c>
       <c r="N509" t="n">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="inlineStr">
@@ -29703,7 +29703,7 @@
         <v>29</v>
       </c>
       <c r="N510" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="inlineStr">
@@ -29755,7 +29755,7 @@
         <v>18</v>
       </c>
       <c r="N511" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="O511" t="inlineStr"/>
       <c r="P511" t="inlineStr">
@@ -29807,7 +29807,7 @@
         <v>16</v>
       </c>
       <c r="N512" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="inlineStr">
@@ -29859,7 +29859,7 @@
         <v>16</v>
       </c>
       <c r="N513" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="O513" t="inlineStr"/>
       <c r="P513" t="inlineStr">
@@ -29911,7 +29911,7 @@
         <v>15</v>
       </c>
       <c r="N514" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="inlineStr">
@@ -29963,7 +29963,7 @@
         <v>15</v>
       </c>
       <c r="N515" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="inlineStr">
@@ -30015,7 +30015,7 @@
         <v>27</v>
       </c>
       <c r="N516" t="n">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="O516" t="inlineStr"/>
       <c r="P516" t="inlineStr">
@@ -30067,7 +30067,7 @@
         <v>44</v>
       </c>
       <c r="N517" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="O517" t="inlineStr"/>
       <c r="P517" t="inlineStr">
@@ -30119,7 +30119,7 @@
         <v>29</v>
       </c>
       <c r="N518" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="O518" t="inlineStr"/>
       <c r="P518" t="inlineStr">
@@ -30171,7 +30171,7 @@
         <v>17</v>
       </c>
       <c r="N519" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="inlineStr">
@@ -30223,7 +30223,7 @@
         <v>15</v>
       </c>
       <c r="N520" t="n">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="inlineStr">
@@ -30275,7 +30275,7 @@
         <v>15</v>
       </c>
       <c r="N521" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="O521" t="inlineStr"/>
       <c r="P521" t="inlineStr">
@@ -30327,7 +30327,7 @@
         <v>14</v>
       </c>
       <c r="N522" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="O522" t="inlineStr"/>
       <c r="P522" t="inlineStr">
@@ -30379,7 +30379,7 @@
         <v>14</v>
       </c>
       <c r="N523" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="O523" t="inlineStr"/>
       <c r="P523" t="inlineStr">
@@ -30431,7 +30431,7 @@
         <v>27</v>
       </c>
       <c r="N524" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="O524" t="inlineStr"/>
       <c r="P524" t="inlineStr">
@@ -30483,7 +30483,7 @@
         <v>23</v>
       </c>
       <c r="N525" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="inlineStr">
@@ -30504,17 +30504,17 @@
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
-          <t>হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "</t>
+          <t>হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "</t>
         </is>
       </c>
       <c r="E526" t="b">
         <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>79.33329999999999</v>
+        <v>60.6667</v>
       </c>
       <c r="G526" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H526" t="n">
         <v>78</v>
@@ -30523,7 +30523,7 @@
         <v>3</v>
       </c>
       <c r="J526" t="n">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="K526" t="n">
         <v>11</v>
@@ -30532,15 +30532,15 @@
         <v>1</v>
       </c>
       <c r="M526" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N526" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="O526" t="inlineStr"/>
       <c r="P526" t="inlineStr">
         <is>
-          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "' at 3-3</t>
+          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "' at 3-3</t>
         </is>
       </c>
     </row>
@@ -30587,7 +30587,7 @@
         <v>6</v>
       </c>
       <c r="N527" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="O527" t="inlineStr"/>
       <c r="P527" t="inlineStr">
@@ -30639,7 +30639,7 @@
         <v>5</v>
       </c>
       <c r="N528" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="O528" t="inlineStr"/>
       <c r="P528" t="inlineStr">
@@ -30691,7 +30691,7 @@
         <v>6</v>
       </c>
       <c r="N529" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="O529" t="inlineStr"/>
       <c r="P529" t="inlineStr">
@@ -30743,7 +30743,7 @@
         <v>6</v>
       </c>
       <c r="N530" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="inlineStr">
@@ -30795,7 +30795,7 @@
         <v>4</v>
       </c>
       <c r="N531" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="inlineStr">
@@ -30847,7 +30847,7 @@
         <v>4</v>
       </c>
       <c r="N532" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="O532" t="inlineStr"/>
       <c r="P532" t="inlineStr">
@@ -30899,7 +30899,7 @@
         <v>4</v>
       </c>
       <c r="N533" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="O533" t="inlineStr"/>
       <c r="P533" t="inlineStr">
@@ -30951,7 +30951,7 @@
         <v>4</v>
       </c>
       <c r="N534" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="O534" t="inlineStr"/>
       <c r="P534" t="inlineStr">
@@ -31003,7 +31003,7 @@
         <v>6</v>
       </c>
       <c r="N535" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="inlineStr">
@@ -31055,7 +31055,7 @@
         <v>5</v>
       </c>
       <c r="N536" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="O536" t="inlineStr"/>
       <c r="P536" t="inlineStr">
@@ -31107,7 +31107,7 @@
         <v>6</v>
       </c>
       <c r="N537" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="inlineStr">
@@ -31159,7 +31159,7 @@
         <v>6</v>
       </c>
       <c r="N538" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="O538" t="inlineStr"/>
       <c r="P538" t="inlineStr">
@@ -31211,7 +31211,7 @@
         <v>4</v>
       </c>
       <c r="N539" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="O539" t="inlineStr"/>
       <c r="P539" t="inlineStr">
@@ -31263,7 +31263,7 @@
         <v>4</v>
       </c>
       <c r="N540" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="O540" t="inlineStr"/>
       <c r="P540" t="inlineStr">
@@ -31315,7 +31315,7 @@
         <v>4</v>
       </c>
       <c r="N541" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="O541" t="inlineStr"/>
       <c r="P541" t="inlineStr">
@@ -31367,7 +31367,7 @@
         <v>6</v>
       </c>
       <c r="N542" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="O542" t="inlineStr"/>
       <c r="P542" t="inlineStr">
@@ -31419,7 +31419,7 @@
         <v>7</v>
       </c>
       <c r="N543" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="inlineStr">
@@ -31471,7 +31471,7 @@
         <v>6</v>
       </c>
       <c r="N544" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="inlineStr">
@@ -31523,7 +31523,7 @@
         <v>5</v>
       </c>
       <c r="N545" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="inlineStr">
@@ -31575,7 +31575,7 @@
         <v>5</v>
       </c>
       <c r="N546" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="inlineStr">
@@ -31627,7 +31627,7 @@
         <v>7</v>
       </c>
       <c r="N547" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="O547" t="inlineStr"/>
       <c r="P547" t="inlineStr">
@@ -31679,7 +31679,7 @@
         <v>9</v>
       </c>
       <c r="N548" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="O548" t="inlineStr"/>
       <c r="P548" t="inlineStr">
@@ -31731,7 +31731,7 @@
         <v>8</v>
       </c>
       <c r="N549" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="inlineStr">
@@ -31783,7 +31783,7 @@
         <v>8</v>
       </c>
       <c r="N550" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr">
@@ -31835,7 +31835,7 @@
         <v>7</v>
       </c>
       <c r="N551" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="O551" t="inlineStr"/>
       <c r="P551" t="inlineStr">
@@ -31887,7 +31887,7 @@
         <v>8</v>
       </c>
       <c r="N552" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="O552" t="inlineStr"/>
       <c r="P552" t="inlineStr">
@@ -31939,7 +31939,7 @@
         <v>8</v>
       </c>
       <c r="N553" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="O553" t="inlineStr"/>
       <c r="P553" t="inlineStr">
@@ -31991,7 +31991,7 @@
         <v>13</v>
       </c>
       <c r="N554" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O554" t="inlineStr"/>
       <c r="P554" t="inlineStr">
@@ -32043,7 +32043,7 @@
         <v>4</v>
       </c>
       <c r="N555" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="O555" t="inlineStr"/>
       <c r="P555" t="inlineStr">
@@ -32095,7 +32095,7 @@
         <v>4</v>
       </c>
       <c r="N556" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="inlineStr">
@@ -32147,7 +32147,7 @@
         <v>3</v>
       </c>
       <c r="N557" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="inlineStr">
@@ -32199,7 +32199,7 @@
         <v>4</v>
       </c>
       <c r="N558" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="O558" t="inlineStr"/>
       <c r="P558" t="inlineStr">
@@ -32251,7 +32251,7 @@
         <v>3</v>
       </c>
       <c r="N559" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="O559" t="inlineStr"/>
       <c r="P559" t="inlineStr">
@@ -32303,7 +32303,7 @@
         <v>4</v>
       </c>
       <c r="N560" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="O560" t="inlineStr"/>
       <c r="P560" t="inlineStr">
@@ -32355,7 +32355,7 @@
         <v>4</v>
       </c>
       <c r="N561" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="O561" t="inlineStr"/>
       <c r="P561" t="inlineStr">
@@ -32407,7 +32407,7 @@
         <v>4</v>
       </c>
       <c r="N562" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="O562" t="inlineStr"/>
       <c r="P562" t="inlineStr">
@@ -32459,7 +32459,7 @@
         <v>3</v>
       </c>
       <c r="N563" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="O563" t="inlineStr"/>
       <c r="P563" t="inlineStr">
@@ -32511,7 +32511,7 @@
         <v>5</v>
       </c>
       <c r="N564" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="O564" t="inlineStr"/>
       <c r="P564" t="inlineStr">
@@ -32622,10 +32622,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.7907</v>
+        <v>7.7096</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1026</v>
+        <v>0.1037</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -32634,16 +32634,16 @@
         <v>120.6667</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4494</v>
+        <v>4.429</v>
       </c>
       <c r="I2" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="J2" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K2" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -32724,7 +32724,7 @@
         <v>0.1429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -32746,7 +32746,7 @@
         <v>0.129</v>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
@@ -32768,7 +32768,7 @@
         <v>0.8667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -32790,7 +32790,7 @@
         <v>0.03103636363636364</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5204545454545454</v>
+        <v>0.3759090909090909</v>
       </c>
     </row>
     <row r="6">
@@ -32812,7 +32812,7 @@
         <v>0.04545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="7">
@@ -32834,7 +32834,7 @@
         <v>0.0333</v>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8">
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5966666666666667</v>
+        <v>0.3266666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -32878,7 +32878,7 @@
         <v>0.6471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -32900,7 +32900,7 @@
         <v>0.8462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
@@ -32922,7 +32922,7 @@
         <v>0.0667</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.6900000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -32944,7 +32944,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0525</v>
+        <v>0.8975</v>
       </c>
     </row>
     <row r="13">
@@ -32966,7 +32966,7 @@
         <v>0.0333</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14">
@@ -32988,7 +32988,7 @@
         <v>0.78417</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6426666666666667</v>
+        <v>0.4676666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -33004,13 +33004,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09985528455284552</v>
+        <v>0.1012756097560976</v>
       </c>
       <c r="E15" t="n">
-        <v>0.560560162601626</v>
+        <v>0.5617430894308942</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8139837398373984</v>
+        <v>0.7010569105691057</v>
       </c>
     </row>
     <row r="16">
@@ -33026,13 +33026,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009560000000000001</v>
+        <v>0.04472</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0578</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>1.13</v>
+        <v>0.9119999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -33054,7 +33054,7 @@
         <v>0.01333333333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>1.15</v>
+        <v>0.9899999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -33076,7 +33076,7 @@
         <v>0.3889</v>
       </c>
       <c r="F18" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="19">
@@ -33098,7 +33098,7 @@
         <v>0.008</v>
       </c>
       <c r="F19" t="n">
-        <v>0.524</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="20">
@@ -33114,13 +33114,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08415</v>
+        <v>0.1036</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3849375</v>
+        <v>0.3997375</v>
       </c>
       <c r="F20" t="n">
-        <v>1.068125</v>
+        <v>0.946875</v>
       </c>
     </row>
     <row r="21">
@@ -33142,7 +33142,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.17</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="22">
@@ -33164,7 +33164,7 @@
         <v>0.1905266666666666</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7273333333333334</v>
+        <v>0.6140000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -33186,7 +33186,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
@@ -33208,7 +33208,7 @@
         <v>0.1194235294117647</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5170588235294117</v>
+        <v>0.3417647058823529</v>
       </c>
     </row>
     <row r="25">
@@ -33230,7 +33230,7 @@
         <v>0.7778</v>
       </c>
       <c r="F25" t="n">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="26">
@@ -33252,7 +33252,7 @@
         <v>0.1111</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27">
@@ -33274,7 +33274,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6866666666666666</v>
+        <v>0.4633333333333334</v>
       </c>
     </row>
     <row r="28">
@@ -33296,7 +33296,7 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>1.11</v>
+        <v>0.8374999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -33318,7 +33318,7 @@
         <v>0.6971000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.41</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="30">
@@ -33340,7 +33340,7 @@
         <v>0.51505</v>
       </c>
       <c r="F30" t="n">
-        <v>0.925</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="31">
@@ -33362,7 +33362,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
@@ -33384,7 +33384,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4733333333333333</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="33">
@@ -33406,7 +33406,7 @@
         <v>0.01883586956521739</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9105434782608696</v>
+        <v>0.7657608695652174</v>
       </c>
     </row>
     <row r="34">
@@ -33428,7 +33428,7 @@
         <v>0.2857</v>
       </c>
       <c r="F34" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="35">
@@ -33450,7 +33450,7 @@
         <v>0.0871</v>
       </c>
       <c r="F35" t="n">
-        <v>0.585</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
@@ -33472,7 +33472,7 @@
         <v>0.28</v>
       </c>
       <c r="F36" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="37">
@@ -33494,7 +33494,7 @@
         <v>0.1482</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4128571428571429</v>
+        <v>0.2928571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -35280,15 +35280,15 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই"</t>
+          <t>উদাহরণস্বরূপ উনিশশো ঊনসত্তর, - দুই হাজার চব্বিশ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই"</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.0424</v>
+        <v>0.2182</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 12-13; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 231-244; replace: ', জিরো,' → '। জিরো' at 250-257 ... and 4 more differences</t>
+          <t>insert: '' → ' উনিশশো ঊনসত্তর' at 12-12; replace: 'ওয়ান থাউজ্যান্ড নাইন' → '- দুই' at 14-35; replace: 'ন্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর' → 'জার চব্বিশ' at 38-88 ... and 6 more differences</t>
         </is>
       </c>
     </row>
@@ -36624,15 +36624,15 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">"উদাহরণস্বরূপ ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই" </t>
+          <t xml:space="preserve">"উদাহরণস্বরূপ উনিশশো ঊনসত্তর, - দুই হাজার চব্বিশ আপনার মোটরযানের রেজিস্ট্রেশন নাম্বার ঢাকা মেট্রো গ বারো এক দুই এক দুই চট্টগ্রাম গ বারো এক দুই এক দুই এবং টাকা জমা রশিদের ট্রানজেকশন নাম্বার টু জিরো জিরো ওয়ান। জিরো ওয়ান ওয়ান। থ্রি টু ফাইভ। নাইন এইট নাইন। চট্ট গ বারো এক দুই এক দুই" </t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.0452</v>
+        <v>0.2199</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>delete: ',' → '' at 13-14; replace: ', জিরো, জিরো,' → ' জিরো জিরো' at 232-245; replace: ', জিরো,' → '। জিরো' at 251-258 ... and 5 more differences</t>
+          <t>insert: '' → ' উনিশশো ঊনসত্তর' at 13-13; replace: 'ওয়ান থাউজ্যান্ড নাইন' → '- দুই' at 15-36; replace: 'ন্ড্রেড সিক্সটি-নাইন - টু থাউজ্যান্ড টোয়েন্টি-ফোর' → 'জার চব্বিশ' at 39-89 ... and 7 more differences</t>
         </is>
       </c>
     </row>
@@ -38052,15 +38052,15 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve">"তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
+          <t xml:space="preserve">"তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.0622</v>
+        <v>0.3734</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>delete: ' ' → '' at 0-1; replace: 'পি,' → 'P' at 21-24; replace: ', সেভেন,' → ' সেভেন' at 28-36 ... and 5 more differences</t>
+          <t>delete: ' ' → '' at 0-1; replace: 'পি,' → 'P' at 21-24; delete: ',' → '' at 28-29 ... and 18 more differences</t>
         </is>
       </c>
     </row>
@@ -42832,15 +42832,15 @@
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t xml:space="preserve">হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
+          <t xml:space="preserve">হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " </t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>79.33329999999999</v>
+        <v>60.6667</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " ' at 3-3</t>
+          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন " ' at 3-3</t>
         </is>
       </c>
     </row>
@@ -44056,15 +44056,15 @@
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
-          <t>হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স হান্ড্রেড ফিফটি-ফোর - থ্রি হান্ড্রেড টোয়েন্টি-ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "</t>
+          <t>হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স ফাইভ। ফোর - থ্রি। টু ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>replace: 'nan' → 'হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স হান্ড্রেড ফিফটি-ফোর - থ্রি হান্ড্রেড টোয়েন্টি-ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "' at 0-3</t>
+          <t>replace: 'nan' → 'হ্যাশ "জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। - সিক্স ফাইভ। ফোর - থ্রি। টু ওয়ান জাতীয় পরিচয় নম্বরঃ জিরো নাইন এইট সেভেন। সিক্স ফাইভ ফোর। থ্রি টু ওয়ান। "' at 0-3</t>
         </is>
       </c>
     </row>
@@ -44800,15 +44800,15 @@
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr">
         <is>
-          <t>হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "</t>
+          <t>হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর and phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>79.33329999999999</v>
+        <v>60.6667</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড নাইনটি-ফাইভ - ওয়ান থাউজ্যান্ড নাইন হান্ড্রেড সিক্সটি-নাইন ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "' at 3-3</t>
+          <t>replace: 'n' → 'হ্যাশ "তার পাসপোর্ট নম্বর P এইট সেভেন সিক্স। ফাইভ ফোর থ্রি। টু ওয়ান ছিল। উনিশশো পঁচানব্বই, - উনিশশো ঊনসত্তর ' at 0-1; insert: '' → 'd phone number জিরো ওয়ান ডাবল সেভেন থ্রি ডাবল ফাইভ জিরো থ্রি সেভেন নাইন "' at 3-3</t>
         </is>
       </c>
     </row>
